--- a/form_reporting_templates/Form-7PR.xlsx
+++ b/form_reporting_templates/Form-7PR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E97791-4EE2-40AC-B8FE-F3B9E425A617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E2E6F-9E8B-436C-AD76-504F50C8D05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5865" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
     <t>Size category</t>
   </si>
   <si>
-    <t>Price by species,processing, product tyoe, wieght and size category</t>
+    <t>Prices by species,processing, product type, weight and size category</t>
   </si>
 </sst>
 </file>
@@ -255,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -520,21 +520,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -670,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -765,21 +750,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -793,7 +778,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -813,7 +798,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -821,10 +810,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -837,13 +822,18 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -879,22 +869,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,31 +896,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1260,7 +1252,7 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,24 +1267,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1342,15 +1334,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="66"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,10 +1447,8 @@
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1523,11 +1513,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1551,61 +1541,58 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="B2:H3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19" xr:uid="{B9CB61C8-BBA2-4A24-8E84-84C263F59204}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{36C51D65-92EA-4F2B-B55F-E168EEFA8D2C}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{B9CB61C8-BBA2-4A24-8E84-84C263F59204}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{3E135360-8976-4AAA-8474-BB32F06C9745}"/>
     <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{F730E8AF-D3A7-4431-9DD3-422CC542A285}"/>
-    <hyperlink ref="F18" r:id="rId3" location="FAOareas" xr:uid="{268D3B40-1B21-441D-BE88-90B2AAD696E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:GY1048567"/>
+  <dimension ref="A1:GZ1048567"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="H1048548" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M1048555" sqref="M1048555"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="50" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="50" customWidth="1"/>
-    <col min="5" max="5" width="14" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="51" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="59" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="55"/>
-    <col min="9" max="206" width="9.140625" style="56"/>
-    <col min="207" max="207" width="9.140625" style="57"/>
-    <col min="208" max="16384" width="9.140625" style="24"/>
+    <col min="3" max="3" width="11.42578125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="14" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="51" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="59" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="55"/>
+    <col min="10" max="207" width="9.140625" style="56"/>
+    <col min="208" max="208" width="9.140625" style="57"/>
+    <col min="209" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:207" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:207" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+    <row r="1" spans="1:208" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:208" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -1804,232 +1791,234 @@
       <c r="GV2" s="33"/>
       <c r="GW2" s="33"/>
       <c r="GX2" s="33"/>
-      <c r="GY2" s="34"/>
-    </row>
-    <row r="3" spans="1:207" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GY2" s="33"/>
+      <c r="GZ2" s="34"/>
+    </row>
+    <row r="3" spans="1:208" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="71" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="72"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="72"/>
-      <c r="CL3" s="72"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="72"/>
-      <c r="CP3" s="72"/>
-      <c r="CQ3" s="72"/>
-      <c r="CR3" s="72"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="72"/>
-      <c r="DD3" s="72"/>
-      <c r="DE3" s="72"/>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
-      <c r="ED3" s="72"/>
-      <c r="EE3" s="72"/>
-      <c r="EF3" s="72"/>
-      <c r="EG3" s="72"/>
-      <c r="EH3" s="72"/>
-      <c r="EI3" s="72"/>
-      <c r="EJ3" s="72"/>
-      <c r="EK3" s="72"/>
-      <c r="EL3" s="72"/>
-      <c r="EM3" s="72"/>
-      <c r="EN3" s="72"/>
-      <c r="EO3" s="72"/>
-      <c r="EP3" s="72"/>
-      <c r="EQ3" s="72"/>
-      <c r="ER3" s="72"/>
-      <c r="ES3" s="72"/>
-      <c r="ET3" s="72"/>
-      <c r="EU3" s="72"/>
-      <c r="EV3" s="72"/>
-      <c r="EW3" s="72"/>
-      <c r="EX3" s="72"/>
-      <c r="EY3" s="72"/>
-      <c r="EZ3" s="72"/>
-      <c r="FA3" s="72"/>
-      <c r="FB3" s="72"/>
-      <c r="FC3" s="72"/>
-      <c r="FD3" s="72"/>
-      <c r="FE3" s="72"/>
-      <c r="FF3" s="72"/>
-      <c r="FG3" s="72"/>
-      <c r="FH3" s="72"/>
-      <c r="FI3" s="72"/>
-      <c r="FJ3" s="72"/>
-      <c r="FK3" s="72"/>
-      <c r="FL3" s="72"/>
-      <c r="FM3" s="72"/>
-      <c r="FN3" s="72"/>
-      <c r="FO3" s="72"/>
-      <c r="FP3" s="72"/>
-      <c r="FQ3" s="72"/>
-      <c r="FR3" s="72"/>
-      <c r="FS3" s="72"/>
-      <c r="FT3" s="72"/>
-      <c r="FU3" s="72"/>
-      <c r="FV3" s="72"/>
-      <c r="FW3" s="72"/>
-      <c r="FX3" s="72"/>
-      <c r="FY3" s="72"/>
-      <c r="FZ3" s="72"/>
-      <c r="GA3" s="72"/>
-      <c r="GB3" s="72"/>
-      <c r="GC3" s="72"/>
-      <c r="GD3" s="72"/>
-      <c r="GE3" s="72"/>
-      <c r="GF3" s="72"/>
-      <c r="GG3" s="72"/>
-      <c r="GH3" s="72"/>
-      <c r="GI3" s="72"/>
-      <c r="GJ3" s="72"/>
-      <c r="GK3" s="72"/>
-      <c r="GL3" s="72"/>
-      <c r="GM3" s="72"/>
-      <c r="GN3" s="72"/>
-      <c r="GO3" s="72"/>
-      <c r="GP3" s="72"/>
-      <c r="GQ3" s="72"/>
-      <c r="GR3" s="72"/>
-      <c r="GS3" s="72"/>
-      <c r="GT3" s="72"/>
-      <c r="GU3" s="72"/>
-      <c r="GV3" s="72"/>
-      <c r="GW3" s="72"/>
-      <c r="GX3" s="72"/>
-      <c r="GY3" s="73"/>
-    </row>
-    <row r="4" spans="1:207" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="77" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
+      <c r="BS3" s="74"/>
+      <c r="BT3" s="74"/>
+      <c r="BU3" s="74"/>
+      <c r="BV3" s="74"/>
+      <c r="BW3" s="74"/>
+      <c r="BX3" s="74"/>
+      <c r="BY3" s="74"/>
+      <c r="BZ3" s="74"/>
+      <c r="CA3" s="74"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="74"/>
+      <c r="CD3" s="74"/>
+      <c r="CE3" s="74"/>
+      <c r="CF3" s="74"/>
+      <c r="CG3" s="74"/>
+      <c r="CH3" s="74"/>
+      <c r="CI3" s="74"/>
+      <c r="CJ3" s="74"/>
+      <c r="CK3" s="74"/>
+      <c r="CL3" s="74"/>
+      <c r="CM3" s="74"/>
+      <c r="CN3" s="74"/>
+      <c r="CO3" s="74"/>
+      <c r="CP3" s="74"/>
+      <c r="CQ3" s="74"/>
+      <c r="CR3" s="74"/>
+      <c r="CS3" s="74"/>
+      <c r="CT3" s="74"/>
+      <c r="CU3" s="74"/>
+      <c r="CV3" s="74"/>
+      <c r="CW3" s="74"/>
+      <c r="CX3" s="74"/>
+      <c r="CY3" s="74"/>
+      <c r="CZ3" s="74"/>
+      <c r="DA3" s="74"/>
+      <c r="DB3" s="74"/>
+      <c r="DC3" s="74"/>
+      <c r="DD3" s="74"/>
+      <c r="DE3" s="74"/>
+      <c r="DF3" s="74"/>
+      <c r="DG3" s="74"/>
+      <c r="DH3" s="74"/>
+      <c r="DI3" s="74"/>
+      <c r="DJ3" s="74"/>
+      <c r="DK3" s="74"/>
+      <c r="DL3" s="74"/>
+      <c r="DM3" s="74"/>
+      <c r="DN3" s="74"/>
+      <c r="DO3" s="74"/>
+      <c r="DP3" s="74"/>
+      <c r="DQ3" s="74"/>
+      <c r="DR3" s="74"/>
+      <c r="DS3" s="74"/>
+      <c r="DT3" s="74"/>
+      <c r="DU3" s="74"/>
+      <c r="DV3" s="74"/>
+      <c r="DW3" s="74"/>
+      <c r="DX3" s="74"/>
+      <c r="DY3" s="74"/>
+      <c r="DZ3" s="74"/>
+      <c r="EA3" s="74"/>
+      <c r="EB3" s="74"/>
+      <c r="EC3" s="74"/>
+      <c r="ED3" s="74"/>
+      <c r="EE3" s="74"/>
+      <c r="EF3" s="74"/>
+      <c r="EG3" s="74"/>
+      <c r="EH3" s="74"/>
+      <c r="EI3" s="74"/>
+      <c r="EJ3" s="74"/>
+      <c r="EK3" s="74"/>
+      <c r="EL3" s="74"/>
+      <c r="EM3" s="74"/>
+      <c r="EN3" s="74"/>
+      <c r="EO3" s="74"/>
+      <c r="EP3" s="74"/>
+      <c r="EQ3" s="74"/>
+      <c r="ER3" s="74"/>
+      <c r="ES3" s="74"/>
+      <c r="ET3" s="74"/>
+      <c r="EU3" s="74"/>
+      <c r="EV3" s="74"/>
+      <c r="EW3" s="74"/>
+      <c r="EX3" s="74"/>
+      <c r="EY3" s="74"/>
+      <c r="EZ3" s="74"/>
+      <c r="FA3" s="74"/>
+      <c r="FB3" s="74"/>
+      <c r="FC3" s="74"/>
+      <c r="FD3" s="74"/>
+      <c r="FE3" s="74"/>
+      <c r="FF3" s="74"/>
+      <c r="FG3" s="74"/>
+      <c r="FH3" s="74"/>
+      <c r="FI3" s="74"/>
+      <c r="FJ3" s="74"/>
+      <c r="FK3" s="74"/>
+      <c r="FL3" s="74"/>
+      <c r="FM3" s="74"/>
+      <c r="FN3" s="74"/>
+      <c r="FO3" s="74"/>
+      <c r="FP3" s="74"/>
+      <c r="FQ3" s="74"/>
+      <c r="FR3" s="74"/>
+      <c r="FS3" s="74"/>
+      <c r="FT3" s="74"/>
+      <c r="FU3" s="74"/>
+      <c r="FV3" s="74"/>
+      <c r="FW3" s="74"/>
+      <c r="FX3" s="74"/>
+      <c r="FY3" s="74"/>
+      <c r="FZ3" s="74"/>
+      <c r="GA3" s="74"/>
+      <c r="GB3" s="74"/>
+      <c r="GC3" s="74"/>
+      <c r="GD3" s="74"/>
+      <c r="GE3" s="74"/>
+      <c r="GF3" s="74"/>
+      <c r="GG3" s="74"/>
+      <c r="GH3" s="74"/>
+      <c r="GI3" s="74"/>
+      <c r="GJ3" s="74"/>
+      <c r="GK3" s="74"/>
+      <c r="GL3" s="74"/>
+      <c r="GM3" s="74"/>
+      <c r="GN3" s="74"/>
+      <c r="GO3" s="74"/>
+      <c r="GP3" s="74"/>
+      <c r="GQ3" s="74"/>
+      <c r="GR3" s="74"/>
+      <c r="GS3" s="74"/>
+      <c r="GT3" s="74"/>
+      <c r="GU3" s="74"/>
+      <c r="GV3" s="74"/>
+      <c r="GW3" s="74"/>
+      <c r="GX3" s="74"/>
+      <c r="GY3" s="74"/>
+      <c r="GZ3" s="75"/>
+    </row>
+    <row r="4" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="79"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="80"/>
+      <c r="H4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
@@ -2227,19 +2216,20 @@
       <c r="GV4" s="26"/>
       <c r="GW4" s="26"/>
       <c r="GX4" s="26"/>
-      <c r="GY4" s="27"/>
-    </row>
-    <row r="5" spans="1:207" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="GY4" s="26"/>
+      <c r="GZ4" s="27"/>
+    </row>
+    <row r="5" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="81"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="82"/>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="83"/>
+      <c r="H5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
@@ -2437,19 +2427,20 @@
       <c r="GV5" s="26"/>
       <c r="GW5" s="26"/>
       <c r="GX5" s="26"/>
-      <c r="GY5" s="27"/>
-    </row>
-    <row r="6" spans="1:207" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
+      <c r="GY5" s="26"/>
+      <c r="GZ5" s="27"/>
+    </row>
+    <row r="6" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="81"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="82"/>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="83"/>
+      <c r="H6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
+      <c r="I6" s="25"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
@@ -2647,19 +2638,20 @@
       <c r="GV6" s="26"/>
       <c r="GW6" s="26"/>
       <c r="GX6" s="26"/>
-      <c r="GY6" s="27"/>
-    </row>
-    <row r="7" spans="1:207" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="GY6" s="26"/>
+      <c r="GZ6" s="27"/>
+    </row>
+    <row r="7" spans="1:208" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="81"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
+      <c r="I7" s="25"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
@@ -2857,19 +2849,20 @@
       <c r="GV7" s="26"/>
       <c r="GW7" s="26"/>
       <c r="GX7" s="26"/>
-      <c r="GY7" s="27"/>
-    </row>
-    <row r="8" spans="1:207" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
+      <c r="GY7" s="26"/>
+      <c r="GZ7" s="27"/>
+    </row>
+    <row r="8" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="85"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
@@ -3067,29 +3060,32 @@
       <c r="GV8" s="26"/>
       <c r="GW8" s="26"/>
       <c r="GX8" s="26"/>
-      <c r="GY8" s="27"/>
-    </row>
-    <row r="9" spans="1:207" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GY8" s="26"/>
+      <c r="GZ8" s="27"/>
+    </row>
+    <row r="9" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="E9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="F9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="G9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="H9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -3287,17 +3283,18 @@
       <c r="GV9" s="29"/>
       <c r="GW9" s="29"/>
       <c r="GX9" s="29"/>
-      <c r="GY9" s="30"/>
-    </row>
-    <row r="10" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="GY9" s="29"/>
+      <c r="GZ9" s="30"/>
+    </row>
+    <row r="10" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53"/>
@@ -3495,284 +3492,323 @@
       <c r="GV10" s="53"/>
       <c r="GW10" s="53"/>
       <c r="GX10" s="53"/>
-      <c r="GY10" s="54"/>
-    </row>
-    <row r="11" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="GY10" s="53"/>
+      <c r="GZ10" s="54"/>
+    </row>
+    <row r="11" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="44"/>
-    </row>
-    <row r="12" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="F11" s="32"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="F12" s="32"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="44"/>
-    </row>
-    <row r="14" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="F13" s="32"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="44"/>
-    </row>
-    <row r="15" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="F14" s="32"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="1:207" x14ac:dyDescent="0.25">
+      <c r="F15" s="32"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" spans="1:208" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="44"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="32"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="44"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="32"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="44"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="32"/>
+      <c r="G18" s="44"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="44"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="32"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="32"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="32"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="32"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="44"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="32"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="32"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="32"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="44"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="32"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="89"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="44"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="32"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="32"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
-      <c r="C29" s="32"/>
+      <c r="C29" s="89"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="32"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="32"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="32"/>
+      <c r="G31" s="44"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="89"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="44"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="32"/>
+      <c r="G32" s="44"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="32"/>
+      <c r="G33" s="44"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="44"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="32"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="44"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="32"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
+      <c r="C36" s="89"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="44"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="32"/>
+      <c r="G36" s="44"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="32"/>
+      <c r="G37" s="44"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
+      <c r="C38" s="89"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="44"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="32"/>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="44"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="32"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="44"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="32"/>
+      <c r="G40" s="44"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
+      <c r="C41" s="89"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="44"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="32"/>
+      <c r="G41" s="44"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="32"/>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="32"/>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="44"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="32"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="44"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="32"/>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="44"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="32"/>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="44"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="32"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="44"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="32"/>
+      <c r="G48" s="44"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="1048567" spans="8:207" x14ac:dyDescent="0.25">
-      <c r="H1048567" s="42"/>
-      <c r="I1048567" s="38"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="44"/>
+    </row>
+    <row r="1048567" spans="9:208" x14ac:dyDescent="0.25">
+      <c r="I1048567" s="42"/>
       <c r="J1048567" s="38"/>
       <c r="K1048567" s="38"/>
       <c r="L1048567" s="38"/>
@@ -3970,39 +4006,38 @@
       <c r="GV1048567" s="38"/>
       <c r="GW1048567" s="38"/>
       <c r="GX1048567" s="38"/>
-      <c r="GY1048567" s="41"/>
+      <c r="GY1048567" s="38"/>
+      <c r="GZ1048567" s="41"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="H3:GY3"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:F8"/>
+    <mergeCell ref="I3:GZ3"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B4:G8"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:F1048576 H10:GY1048576">
+  <conditionalFormatting sqref="B10:G1048576 I10:GZ1048576">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>B10=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:F9 G4 G5 G6 G7 G8" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
-      <formula1>"&lt;0&gt;0"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9" xr:uid="{1CCF639A-09B4-4CC0-8CAD-8D7B67DB1F7B}">
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G9 H4:H9" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" location="catchUnits" display="Discard unit" xr:uid="{8E2457EF-BFD9-4480-93F6-844FC19CD52F}"/>
-    <hyperlink ref="C9" r:id="rId2" location="location" xr:uid="{F95149BA-1BB2-46CC-A86F-36B6AC4AFBA6}"/>
-    <hyperlink ref="E9" r:id="rId3" location="discardReasons" display="Disc. reason" xr:uid="{4B127CA8-AB4F-43B9-B5B8-5A77A85A9028}"/>
-    <hyperlink ref="G4" r:id="rId4" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
-    <hyperlink ref="G5" r:id="rId5" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
-    <hyperlink ref="G6" r:id="rId6" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
-    <hyperlink ref="G7" r:id="rId7" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
+    <hyperlink ref="H9" r:id="rId1" location="catchUnits" display="Discard unit" xr:uid="{8E2457EF-BFD9-4480-93F6-844FC19CD52F}"/>
+    <hyperlink ref="D9" r:id="rId2" location="location" xr:uid="{F95149BA-1BB2-46CC-A86F-36B6AC4AFBA6}"/>
+    <hyperlink ref="F9" r:id="rId3" location="discardReasons" display="Disc. reason" xr:uid="{4B127CA8-AB4F-43B9-B5B8-5A77A85A9028}"/>
+    <hyperlink ref="H4" r:id="rId4" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
+    <hyperlink ref="H5" r:id="rId5" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
+    <hyperlink ref="H6" r:id="rId6" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
+    <hyperlink ref="H7" r:id="rId7" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
+    <hyperlink ref="C9" r:id="rId8" location="FAOareas" xr:uid="{7039DDEA-FA37-4454-A0A6-E5E4EB85C998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/form_reporting_templates/Form-7PR.xlsx
+++ b/form_reporting_templates/Form-7PR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587E2E6F-9E8B-436C-AD76-504F50C8D05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B85A3-B497-4DE1-BE78-2DD51C33EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5865" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Focal point</t>
   </si>
@@ -132,10 +132,13 @@
     <t>Weight unit</t>
   </si>
   <si>
-    <t>Size category</t>
+    <t>Prices by species,processing, product type, weight and size category</t>
   </si>
   <si>
-    <t>Prices by species,processing, product type, weight and size category</t>
+    <t>Weight class (lo)</t>
+  </si>
+  <si>
+    <t>Weight class (hi)</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -255,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -480,30 +492,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -646,6 +634,21 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -655,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -750,90 +753,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -869,15 +883,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,29 +916,25 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1251,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1267,24 +1277,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1334,15 +1344,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="66"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="66"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1447,8 +1457,8 @@
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -1464,7 +1474,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="57" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="37"/>
@@ -1513,11 +1523,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1557,44 +1567,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:GZ1048567"/>
+  <dimension ref="A1:HB1048566"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="8" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="8" topLeftCell="K1048552" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="L1048562" sqref="L1048562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="14" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="51" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="55"/>
-    <col min="10" max="207" width="9.140625" style="56"/>
-    <col min="208" max="208" width="9.140625" style="57"/>
-    <col min="209" max="16384" width="9.140625" style="24"/>
+    <col min="2" max="2" width="11.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="14" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="50" customWidth="1"/>
+    <col min="8" max="9" width="14" style="49" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="91" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="54"/>
+    <col min="12" max="209" width="9.140625" style="55"/>
+    <col min="210" max="210" width="9.140625" style="56"/>
+    <col min="211" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:208" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:208" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+    <row r="1" spans="1:210" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="33"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -1792,235 +1803,239 @@
       <c r="GW2" s="33"/>
       <c r="GX2" s="33"/>
       <c r="GY2" s="33"/>
-      <c r="GZ2" s="34"/>
-    </row>
-    <row r="3" spans="1:208" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="GZ2" s="33"/>
+      <c r="HA2" s="33"/>
+      <c r="HB2" s="34"/>
+    </row>
+    <row r="3" spans="1:210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="73" t="s">
-        <v>32</v>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="76" t="s">
+        <v>31</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
-      <c r="BS3" s="74"/>
-      <c r="BT3" s="74"/>
-      <c r="BU3" s="74"/>
-      <c r="BV3" s="74"/>
-      <c r="BW3" s="74"/>
-      <c r="BX3" s="74"/>
-      <c r="BY3" s="74"/>
-      <c r="BZ3" s="74"/>
-      <c r="CA3" s="74"/>
-      <c r="CB3" s="74"/>
-      <c r="CC3" s="74"/>
-      <c r="CD3" s="74"/>
-      <c r="CE3" s="74"/>
-      <c r="CF3" s="74"/>
-      <c r="CG3" s="74"/>
-      <c r="CH3" s="74"/>
-      <c r="CI3" s="74"/>
-      <c r="CJ3" s="74"/>
-      <c r="CK3" s="74"/>
-      <c r="CL3" s="74"/>
-      <c r="CM3" s="74"/>
-      <c r="CN3" s="74"/>
-      <c r="CO3" s="74"/>
-      <c r="CP3" s="74"/>
-      <c r="CQ3" s="74"/>
-      <c r="CR3" s="74"/>
-      <c r="CS3" s="74"/>
-      <c r="CT3" s="74"/>
-      <c r="CU3" s="74"/>
-      <c r="CV3" s="74"/>
-      <c r="CW3" s="74"/>
-      <c r="CX3" s="74"/>
-      <c r="CY3" s="74"/>
-      <c r="CZ3" s="74"/>
-      <c r="DA3" s="74"/>
-      <c r="DB3" s="74"/>
-      <c r="DC3" s="74"/>
-      <c r="DD3" s="74"/>
-      <c r="DE3" s="74"/>
-      <c r="DF3" s="74"/>
-      <c r="DG3" s="74"/>
-      <c r="DH3" s="74"/>
-      <c r="DI3" s="74"/>
-      <c r="DJ3" s="74"/>
-      <c r="DK3" s="74"/>
-      <c r="DL3" s="74"/>
-      <c r="DM3" s="74"/>
-      <c r="DN3" s="74"/>
-      <c r="DO3" s="74"/>
-      <c r="DP3" s="74"/>
-      <c r="DQ3" s="74"/>
-      <c r="DR3" s="74"/>
-      <c r="DS3" s="74"/>
-      <c r="DT3" s="74"/>
-      <c r="DU3" s="74"/>
-      <c r="DV3" s="74"/>
-      <c r="DW3" s="74"/>
-      <c r="DX3" s="74"/>
-      <c r="DY3" s="74"/>
-      <c r="DZ3" s="74"/>
-      <c r="EA3" s="74"/>
-      <c r="EB3" s="74"/>
-      <c r="EC3" s="74"/>
-      <c r="ED3" s="74"/>
-      <c r="EE3" s="74"/>
-      <c r="EF3" s="74"/>
-      <c r="EG3" s="74"/>
-      <c r="EH3" s="74"/>
-      <c r="EI3" s="74"/>
-      <c r="EJ3" s="74"/>
-      <c r="EK3" s="74"/>
-      <c r="EL3" s="74"/>
-      <c r="EM3" s="74"/>
-      <c r="EN3" s="74"/>
-      <c r="EO3" s="74"/>
-      <c r="EP3" s="74"/>
-      <c r="EQ3" s="74"/>
-      <c r="ER3" s="74"/>
-      <c r="ES3" s="74"/>
-      <c r="ET3" s="74"/>
-      <c r="EU3" s="74"/>
-      <c r="EV3" s="74"/>
-      <c r="EW3" s="74"/>
-      <c r="EX3" s="74"/>
-      <c r="EY3" s="74"/>
-      <c r="EZ3" s="74"/>
-      <c r="FA3" s="74"/>
-      <c r="FB3" s="74"/>
-      <c r="FC3" s="74"/>
-      <c r="FD3" s="74"/>
-      <c r="FE3" s="74"/>
-      <c r="FF3" s="74"/>
-      <c r="FG3" s="74"/>
-      <c r="FH3" s="74"/>
-      <c r="FI3" s="74"/>
-      <c r="FJ3" s="74"/>
-      <c r="FK3" s="74"/>
-      <c r="FL3" s="74"/>
-      <c r="FM3" s="74"/>
-      <c r="FN3" s="74"/>
-      <c r="FO3" s="74"/>
-      <c r="FP3" s="74"/>
-      <c r="FQ3" s="74"/>
-      <c r="FR3" s="74"/>
-      <c r="FS3" s="74"/>
-      <c r="FT3" s="74"/>
-      <c r="FU3" s="74"/>
-      <c r="FV3" s="74"/>
-      <c r="FW3" s="74"/>
-      <c r="FX3" s="74"/>
-      <c r="FY3" s="74"/>
-      <c r="FZ3" s="74"/>
-      <c r="GA3" s="74"/>
-      <c r="GB3" s="74"/>
-      <c r="GC3" s="74"/>
-      <c r="GD3" s="74"/>
-      <c r="GE3" s="74"/>
-      <c r="GF3" s="74"/>
-      <c r="GG3" s="74"/>
-      <c r="GH3" s="74"/>
-      <c r="GI3" s="74"/>
-      <c r="GJ3" s="74"/>
-      <c r="GK3" s="74"/>
-      <c r="GL3" s="74"/>
-      <c r="GM3" s="74"/>
-      <c r="GN3" s="74"/>
-      <c r="GO3" s="74"/>
-      <c r="GP3" s="74"/>
-      <c r="GQ3" s="74"/>
-      <c r="GR3" s="74"/>
-      <c r="GS3" s="74"/>
-      <c r="GT3" s="74"/>
-      <c r="GU3" s="74"/>
-      <c r="GV3" s="74"/>
-      <c r="GW3" s="74"/>
-      <c r="GX3" s="74"/>
-      <c r="GY3" s="74"/>
-      <c r="GZ3" s="75"/>
-    </row>
-    <row r="4" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="78" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
+      <c r="BO3" s="77"/>
+      <c r="BP3" s="77"/>
+      <c r="BQ3" s="77"/>
+      <c r="BR3" s="77"/>
+      <c r="BS3" s="77"/>
+      <c r="BT3" s="77"/>
+      <c r="BU3" s="77"/>
+      <c r="BV3" s="77"/>
+      <c r="BW3" s="77"/>
+      <c r="BX3" s="77"/>
+      <c r="BY3" s="77"/>
+      <c r="BZ3" s="77"/>
+      <c r="CA3" s="77"/>
+      <c r="CB3" s="77"/>
+      <c r="CC3" s="77"/>
+      <c r="CD3" s="77"/>
+      <c r="CE3" s="77"/>
+      <c r="CF3" s="77"/>
+      <c r="CG3" s="77"/>
+      <c r="CH3" s="77"/>
+      <c r="CI3" s="77"/>
+      <c r="CJ3" s="77"/>
+      <c r="CK3" s="77"/>
+      <c r="CL3" s="77"/>
+      <c r="CM3" s="77"/>
+      <c r="CN3" s="77"/>
+      <c r="CO3" s="77"/>
+      <c r="CP3" s="77"/>
+      <c r="CQ3" s="77"/>
+      <c r="CR3" s="77"/>
+      <c r="CS3" s="77"/>
+      <c r="CT3" s="77"/>
+      <c r="CU3" s="77"/>
+      <c r="CV3" s="77"/>
+      <c r="CW3" s="77"/>
+      <c r="CX3" s="77"/>
+      <c r="CY3" s="77"/>
+      <c r="CZ3" s="77"/>
+      <c r="DA3" s="77"/>
+      <c r="DB3" s="77"/>
+      <c r="DC3" s="77"/>
+      <c r="DD3" s="77"/>
+      <c r="DE3" s="77"/>
+      <c r="DF3" s="77"/>
+      <c r="DG3" s="77"/>
+      <c r="DH3" s="77"/>
+      <c r="DI3" s="77"/>
+      <c r="DJ3" s="77"/>
+      <c r="DK3" s="77"/>
+      <c r="DL3" s="77"/>
+      <c r="DM3" s="77"/>
+      <c r="DN3" s="77"/>
+      <c r="DO3" s="77"/>
+      <c r="DP3" s="77"/>
+      <c r="DQ3" s="77"/>
+      <c r="DR3" s="77"/>
+      <c r="DS3" s="77"/>
+      <c r="DT3" s="77"/>
+      <c r="DU3" s="77"/>
+      <c r="DV3" s="77"/>
+      <c r="DW3" s="77"/>
+      <c r="DX3" s="77"/>
+      <c r="DY3" s="77"/>
+      <c r="DZ3" s="77"/>
+      <c r="EA3" s="77"/>
+      <c r="EB3" s="77"/>
+      <c r="EC3" s="77"/>
+      <c r="ED3" s="77"/>
+      <c r="EE3" s="77"/>
+      <c r="EF3" s="77"/>
+      <c r="EG3" s="77"/>
+      <c r="EH3" s="77"/>
+      <c r="EI3" s="77"/>
+      <c r="EJ3" s="77"/>
+      <c r="EK3" s="77"/>
+      <c r="EL3" s="77"/>
+      <c r="EM3" s="77"/>
+      <c r="EN3" s="77"/>
+      <c r="EO3" s="77"/>
+      <c r="EP3" s="77"/>
+      <c r="EQ3" s="77"/>
+      <c r="ER3" s="77"/>
+      <c r="ES3" s="77"/>
+      <c r="ET3" s="77"/>
+      <c r="EU3" s="77"/>
+      <c r="EV3" s="77"/>
+      <c r="EW3" s="77"/>
+      <c r="EX3" s="77"/>
+      <c r="EY3" s="77"/>
+      <c r="EZ3" s="77"/>
+      <c r="FA3" s="77"/>
+      <c r="FB3" s="77"/>
+      <c r="FC3" s="77"/>
+      <c r="FD3" s="77"/>
+      <c r="FE3" s="77"/>
+      <c r="FF3" s="77"/>
+      <c r="FG3" s="77"/>
+      <c r="FH3" s="77"/>
+      <c r="FI3" s="77"/>
+      <c r="FJ3" s="77"/>
+      <c r="FK3" s="77"/>
+      <c r="FL3" s="77"/>
+      <c r="FM3" s="77"/>
+      <c r="FN3" s="77"/>
+      <c r="FO3" s="77"/>
+      <c r="FP3" s="77"/>
+      <c r="FQ3" s="77"/>
+      <c r="FR3" s="77"/>
+      <c r="FS3" s="77"/>
+      <c r="FT3" s="77"/>
+      <c r="FU3" s="77"/>
+      <c r="FV3" s="77"/>
+      <c r="FW3" s="77"/>
+      <c r="FX3" s="77"/>
+      <c r="FY3" s="77"/>
+      <c r="FZ3" s="77"/>
+      <c r="GA3" s="77"/>
+      <c r="GB3" s="77"/>
+      <c r="GC3" s="77"/>
+      <c r="GD3" s="77"/>
+      <c r="GE3" s="77"/>
+      <c r="GF3" s="77"/>
+      <c r="GG3" s="77"/>
+      <c r="GH3" s="77"/>
+      <c r="GI3" s="77"/>
+      <c r="GJ3" s="77"/>
+      <c r="GK3" s="77"/>
+      <c r="GL3" s="77"/>
+      <c r="GM3" s="77"/>
+      <c r="GN3" s="77"/>
+      <c r="GO3" s="77"/>
+      <c r="GP3" s="77"/>
+      <c r="GQ3" s="77"/>
+      <c r="GR3" s="77"/>
+      <c r="GS3" s="77"/>
+      <c r="GT3" s="77"/>
+      <c r="GU3" s="77"/>
+      <c r="GV3" s="77"/>
+      <c r="GW3" s="77"/>
+      <c r="GX3" s="77"/>
+      <c r="GY3" s="77"/>
+      <c r="GZ3" s="77"/>
+      <c r="HA3" s="77"/>
+      <c r="HB3" s="78"/>
+    </row>
+    <row r="4" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="47" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -2217,21 +2232,23 @@
       <c r="GW4" s="26"/>
       <c r="GX4" s="26"/>
       <c r="GY4" s="26"/>
-      <c r="GZ4" s="27"/>
-    </row>
-    <row r="5" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="47" t="s">
+      <c r="GZ4" s="26"/>
+      <c r="HA4" s="26"/>
+      <c r="HB4" s="27"/>
+    </row>
+    <row r="5" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -2428,21 +2445,23 @@
       <c r="GW5" s="26"/>
       <c r="GX5" s="26"/>
       <c r="GY5" s="26"/>
-      <c r="GZ5" s="27"/>
-    </row>
-    <row r="6" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="47" t="s">
+      <c r="GZ5" s="26"/>
+      <c r="HA5" s="26"/>
+      <c r="HB5" s="27"/>
+    </row>
+    <row r="6" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="84"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -2639,21 +2658,23 @@
       <c r="GW6" s="26"/>
       <c r="GX6" s="26"/>
       <c r="GY6" s="26"/>
-      <c r="GZ6" s="27"/>
-    </row>
-    <row r="7" spans="1:208" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="81"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="47" t="s">
+      <c r="GZ6" s="26"/>
+      <c r="HA6" s="26"/>
+      <c r="HB6" s="27"/>
+    </row>
+    <row r="7" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="84"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -2850,1192 +2871,3213 @@
       <c r="GW7" s="26"/>
       <c r="GX7" s="26"/>
       <c r="GY7" s="26"/>
-      <c r="GZ7" s="27"/>
-    </row>
-    <row r="8" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="26"/>
-      <c r="AX8" s="26"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="26"/>
-      <c r="BD8" s="26"/>
-      <c r="BE8" s="26"/>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="26"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="26"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="26"/>
-      <c r="BP8" s="26"/>
-      <c r="BQ8" s="26"/>
-      <c r="BR8" s="26"/>
-      <c r="BS8" s="26"/>
-      <c r="BT8" s="26"/>
-      <c r="BU8" s="26"/>
-      <c r="BV8" s="26"/>
-      <c r="BW8" s="26"/>
-      <c r="BX8" s="26"/>
-      <c r="BY8" s="26"/>
-      <c r="BZ8" s="26"/>
-      <c r="CA8" s="26"/>
-      <c r="CB8" s="26"/>
-      <c r="CC8" s="26"/>
-      <c r="CD8" s="26"/>
-      <c r="CE8" s="26"/>
-      <c r="CF8" s="26"/>
-      <c r="CG8" s="26"/>
-      <c r="CH8" s="26"/>
-      <c r="CI8" s="26"/>
-      <c r="CJ8" s="26"/>
-      <c r="CK8" s="26"/>
-      <c r="CL8" s="26"/>
-      <c r="CM8" s="26"/>
-      <c r="CN8" s="26"/>
-      <c r="CO8" s="26"/>
-      <c r="CP8" s="26"/>
-      <c r="CQ8" s="26"/>
-      <c r="CR8" s="26"/>
-      <c r="CS8" s="26"/>
-      <c r="CT8" s="26"/>
-      <c r="CU8" s="26"/>
-      <c r="CV8" s="26"/>
-      <c r="CW8" s="26"/>
-      <c r="CX8" s="26"/>
-      <c r="CY8" s="26"/>
-      <c r="CZ8" s="26"/>
-      <c r="DA8" s="26"/>
-      <c r="DB8" s="26"/>
-      <c r="DC8" s="26"/>
-      <c r="DD8" s="26"/>
-      <c r="DE8" s="26"/>
-      <c r="DF8" s="26"/>
-      <c r="DG8" s="26"/>
-      <c r="DH8" s="26"/>
-      <c r="DI8" s="26"/>
-      <c r="DJ8" s="26"/>
-      <c r="DK8" s="26"/>
-      <c r="DL8" s="26"/>
-      <c r="DM8" s="26"/>
-      <c r="DN8" s="26"/>
-      <c r="DO8" s="26"/>
-      <c r="DP8" s="26"/>
-      <c r="DQ8" s="26"/>
-      <c r="DR8" s="26"/>
-      <c r="DS8" s="26"/>
-      <c r="DT8" s="26"/>
-      <c r="DU8" s="26"/>
-      <c r="DV8" s="26"/>
-      <c r="DW8" s="26"/>
-      <c r="DX8" s="26"/>
-      <c r="DY8" s="26"/>
-      <c r="DZ8" s="26"/>
-      <c r="EA8" s="26"/>
-      <c r="EB8" s="26"/>
-      <c r="EC8" s="26"/>
-      <c r="ED8" s="26"/>
-      <c r="EE8" s="26"/>
-      <c r="EF8" s="26"/>
-      <c r="EG8" s="26"/>
-      <c r="EH8" s="26"/>
-      <c r="EI8" s="26"/>
-      <c r="EJ8" s="26"/>
-      <c r="EK8" s="26"/>
-      <c r="EL8" s="26"/>
-      <c r="EM8" s="26"/>
-      <c r="EN8" s="26"/>
-      <c r="EO8" s="26"/>
-      <c r="EP8" s="26"/>
-      <c r="EQ8" s="26"/>
-      <c r="ER8" s="26"/>
-      <c r="ES8" s="26"/>
-      <c r="ET8" s="26"/>
-      <c r="EU8" s="26"/>
-      <c r="EV8" s="26"/>
-      <c r="EW8" s="26"/>
-      <c r="EX8" s="26"/>
-      <c r="EY8" s="26"/>
-      <c r="EZ8" s="26"/>
-      <c r="FA8" s="26"/>
-      <c r="FB8" s="26"/>
-      <c r="FC8" s="26"/>
-      <c r="FD8" s="26"/>
-      <c r="FE8" s="26"/>
-      <c r="FF8" s="26"/>
-      <c r="FG8" s="26"/>
-      <c r="FH8" s="26"/>
-      <c r="FI8" s="26"/>
-      <c r="FJ8" s="26"/>
-      <c r="FK8" s="26"/>
-      <c r="FL8" s="26"/>
-      <c r="FM8" s="26"/>
-      <c r="FN8" s="26"/>
-      <c r="FO8" s="26"/>
-      <c r="FP8" s="26"/>
-      <c r="FQ8" s="26"/>
-      <c r="FR8" s="26"/>
-      <c r="FS8" s="26"/>
-      <c r="FT8" s="26"/>
-      <c r="FU8" s="26"/>
-      <c r="FV8" s="26"/>
-      <c r="FW8" s="26"/>
-      <c r="FX8" s="26"/>
-      <c r="FY8" s="26"/>
-      <c r="FZ8" s="26"/>
-      <c r="GA8" s="26"/>
-      <c r="GB8" s="26"/>
-      <c r="GC8" s="26"/>
-      <c r="GD8" s="26"/>
-      <c r="GE8" s="26"/>
-      <c r="GF8" s="26"/>
-      <c r="GG8" s="26"/>
-      <c r="GH8" s="26"/>
-      <c r="GI8" s="26"/>
-      <c r="GJ8" s="26"/>
-      <c r="GK8" s="26"/>
-      <c r="GL8" s="26"/>
-      <c r="GM8" s="26"/>
-      <c r="GN8" s="26"/>
-      <c r="GO8" s="26"/>
-      <c r="GP8" s="26"/>
-      <c r="GQ8" s="26"/>
-      <c r="GR8" s="26"/>
-      <c r="GS8" s="26"/>
-      <c r="GT8" s="26"/>
-      <c r="GU8" s="26"/>
-      <c r="GV8" s="26"/>
-      <c r="GW8" s="26"/>
-      <c r="GX8" s="26"/>
-      <c r="GY8" s="26"/>
-      <c r="GZ8" s="27"/>
-    </row>
-    <row r="9" spans="1:208" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+      <c r="GZ7" s="26"/>
+      <c r="HA7" s="26"/>
+      <c r="HB7" s="27"/>
+    </row>
+    <row r="8" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D8" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E8" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G8" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H8" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="29"/>
-      <c r="AH9" s="29"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="29"/>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29"/>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29"/>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29"/>
-      <c r="BW9" s="29"/>
-      <c r="BX9" s="29"/>
-      <c r="BY9" s="29"/>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="29"/>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29"/>
-      <c r="CD9" s="29"/>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29"/>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
-      <c r="CL9" s="29"/>
-      <c r="CM9" s="29"/>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="29"/>
-      <c r="CP9" s="29"/>
-      <c r="CQ9" s="29"/>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="29"/>
-      <c r="CU9" s="29"/>
-      <c r="CV9" s="29"/>
-      <c r="CW9" s="29"/>
-      <c r="CX9" s="29"/>
-      <c r="CY9" s="29"/>
-      <c r="CZ9" s="29"/>
-      <c r="DA9" s="29"/>
-      <c r="DB9" s="29"/>
-      <c r="DC9" s="29"/>
-      <c r="DD9" s="29"/>
-      <c r="DE9" s="29"/>
-      <c r="DF9" s="29"/>
-      <c r="DG9" s="29"/>
-      <c r="DH9" s="29"/>
-      <c r="DI9" s="29"/>
-      <c r="DJ9" s="29"/>
-      <c r="DK9" s="29"/>
-      <c r="DL9" s="29"/>
-      <c r="DM9" s="29"/>
-      <c r="DN9" s="29"/>
-      <c r="DO9" s="29"/>
-      <c r="DP9" s="29"/>
-      <c r="DQ9" s="29"/>
-      <c r="DR9" s="29"/>
-      <c r="DS9" s="29"/>
-      <c r="DT9" s="29"/>
-      <c r="DU9" s="29"/>
-      <c r="DV9" s="29"/>
-      <c r="DW9" s="29"/>
-      <c r="DX9" s="29"/>
-      <c r="DY9" s="29"/>
-      <c r="DZ9" s="29"/>
-      <c r="EA9" s="29"/>
-      <c r="EB9" s="29"/>
-      <c r="EC9" s="29"/>
-      <c r="ED9" s="29"/>
-      <c r="EE9" s="29"/>
-      <c r="EF9" s="29"/>
-      <c r="EG9" s="29"/>
-      <c r="EH9" s="29"/>
-      <c r="EI9" s="29"/>
-      <c r="EJ9" s="29"/>
-      <c r="EK9" s="29"/>
-      <c r="EL9" s="29"/>
-      <c r="EM9" s="29"/>
-      <c r="EN9" s="29"/>
-      <c r="EO9" s="29"/>
-      <c r="EP9" s="29"/>
-      <c r="EQ9" s="29"/>
-      <c r="ER9" s="29"/>
-      <c r="ES9" s="29"/>
-      <c r="ET9" s="29"/>
-      <c r="EU9" s="29"/>
-      <c r="EV9" s="29"/>
-      <c r="EW9" s="29"/>
-      <c r="EX9" s="29"/>
-      <c r="EY9" s="29"/>
-      <c r="EZ9" s="29"/>
-      <c r="FA9" s="29"/>
-      <c r="FB9" s="29"/>
-      <c r="FC9" s="29"/>
-      <c r="FD9" s="29"/>
-      <c r="FE9" s="29"/>
-      <c r="FF9" s="29"/>
-      <c r="FG9" s="29"/>
-      <c r="FH9" s="29"/>
-      <c r="FI9" s="29"/>
-      <c r="FJ9" s="29"/>
-      <c r="FK9" s="29"/>
-      <c r="FL9" s="29"/>
-      <c r="FM9" s="29"/>
-      <c r="FN9" s="29"/>
-      <c r="FO9" s="29"/>
-      <c r="FP9" s="29"/>
-      <c r="FQ9" s="29"/>
-      <c r="FR9" s="29"/>
-      <c r="FS9" s="29"/>
-      <c r="FT9" s="29"/>
-      <c r="FU9" s="29"/>
-      <c r="FV9" s="29"/>
-      <c r="FW9" s="29"/>
-      <c r="FX9" s="29"/>
-      <c r="FY9" s="29"/>
-      <c r="FZ9" s="29"/>
-      <c r="GA9" s="29"/>
-      <c r="GB9" s="29"/>
-      <c r="GC9" s="29"/>
-      <c r="GD9" s="29"/>
-      <c r="GE9" s="29"/>
-      <c r="GF9" s="29"/>
-      <c r="GG9" s="29"/>
-      <c r="GH9" s="29"/>
-      <c r="GI9" s="29"/>
-      <c r="GJ9" s="29"/>
-      <c r="GK9" s="29"/>
-      <c r="GL9" s="29"/>
-      <c r="GM9" s="29"/>
-      <c r="GN9" s="29"/>
-      <c r="GO9" s="29"/>
-      <c r="GP9" s="29"/>
-      <c r="GQ9" s="29"/>
-      <c r="GR9" s="29"/>
-      <c r="GS9" s="29"/>
-      <c r="GT9" s="29"/>
-      <c r="GU9" s="29"/>
-      <c r="GV9" s="29"/>
-      <c r="GW9" s="29"/>
-      <c r="GX9" s="29"/>
-      <c r="GY9" s="29"/>
-      <c r="GZ9" s="30"/>
-    </row>
-    <row r="10" spans="1:208" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
-      <c r="BM10" s="53"/>
-      <c r="BN10" s="53"/>
-      <c r="BO10" s="53"/>
-      <c r="BP10" s="53"/>
-      <c r="BQ10" s="53"/>
-      <c r="BR10" s="53"/>
-      <c r="BS10" s="53"/>
-      <c r="BT10" s="53"/>
-      <c r="BU10" s="53"/>
-      <c r="BV10" s="53"/>
-      <c r="BW10" s="53"/>
-      <c r="BX10" s="53"/>
-      <c r="BY10" s="53"/>
-      <c r="BZ10" s="53"/>
-      <c r="CA10" s="53"/>
-      <c r="CB10" s="53"/>
-      <c r="CC10" s="53"/>
-      <c r="CD10" s="53"/>
-      <c r="CE10" s="53"/>
-      <c r="CF10" s="53"/>
-      <c r="CG10" s="53"/>
-      <c r="CH10" s="53"/>
-      <c r="CI10" s="53"/>
-      <c r="CJ10" s="53"/>
-      <c r="CK10" s="53"/>
-      <c r="CL10" s="53"/>
-      <c r="CM10" s="53"/>
-      <c r="CN10" s="53"/>
-      <c r="CO10" s="53"/>
-      <c r="CP10" s="53"/>
-      <c r="CQ10" s="53"/>
-      <c r="CR10" s="53"/>
-      <c r="CS10" s="53"/>
-      <c r="CT10" s="53"/>
-      <c r="CU10" s="53"/>
-      <c r="CV10" s="53"/>
-      <c r="CW10" s="53"/>
-      <c r="CX10" s="53"/>
-      <c r="CY10" s="53"/>
-      <c r="CZ10" s="53"/>
-      <c r="DA10" s="53"/>
-      <c r="DB10" s="53"/>
-      <c r="DC10" s="53"/>
-      <c r="DD10" s="53"/>
-      <c r="DE10" s="53"/>
-      <c r="DF10" s="53"/>
-      <c r="DG10" s="53"/>
-      <c r="DH10" s="53"/>
-      <c r="DI10" s="53"/>
-      <c r="DJ10" s="53"/>
-      <c r="DK10" s="53"/>
-      <c r="DL10" s="53"/>
-      <c r="DM10" s="53"/>
-      <c r="DN10" s="53"/>
-      <c r="DO10" s="53"/>
-      <c r="DP10" s="53"/>
-      <c r="DQ10" s="53"/>
-      <c r="DR10" s="53"/>
-      <c r="DS10" s="53"/>
-      <c r="DT10" s="53"/>
-      <c r="DU10" s="53"/>
-      <c r="DV10" s="53"/>
-      <c r="DW10" s="53"/>
-      <c r="DX10" s="53"/>
-      <c r="DY10" s="53"/>
-      <c r="DZ10" s="53"/>
-      <c r="EA10" s="53"/>
-      <c r="EB10" s="53"/>
-      <c r="EC10" s="53"/>
-      <c r="ED10" s="53"/>
-      <c r="EE10" s="53"/>
-      <c r="EF10" s="53"/>
-      <c r="EG10" s="53"/>
-      <c r="EH10" s="53"/>
-      <c r="EI10" s="53"/>
-      <c r="EJ10" s="53"/>
-      <c r="EK10" s="53"/>
-      <c r="EL10" s="53"/>
-      <c r="EM10" s="53"/>
-      <c r="EN10" s="53"/>
-      <c r="EO10" s="53"/>
-      <c r="EP10" s="53"/>
-      <c r="EQ10" s="53"/>
-      <c r="ER10" s="53"/>
-      <c r="ES10" s="53"/>
-      <c r="ET10" s="53"/>
-      <c r="EU10" s="53"/>
-      <c r="EV10" s="53"/>
-      <c r="EW10" s="53"/>
-      <c r="EX10" s="53"/>
-      <c r="EY10" s="53"/>
-      <c r="EZ10" s="53"/>
-      <c r="FA10" s="53"/>
-      <c r="FB10" s="53"/>
-      <c r="FC10" s="53"/>
-      <c r="FD10" s="53"/>
-      <c r="FE10" s="53"/>
-      <c r="FF10" s="53"/>
-      <c r="FG10" s="53"/>
-      <c r="FH10" s="53"/>
-      <c r="FI10" s="53"/>
-      <c r="FJ10" s="53"/>
-      <c r="FK10" s="53"/>
-      <c r="FL10" s="53"/>
-      <c r="FM10" s="53"/>
-      <c r="FN10" s="53"/>
-      <c r="FO10" s="53"/>
-      <c r="FP10" s="53"/>
-      <c r="FQ10" s="53"/>
-      <c r="FR10" s="53"/>
-      <c r="FS10" s="53"/>
-      <c r="FT10" s="53"/>
-      <c r="FU10" s="53"/>
-      <c r="FV10" s="53"/>
-      <c r="FW10" s="53"/>
-      <c r="FX10" s="53"/>
-      <c r="FY10" s="53"/>
-      <c r="FZ10" s="53"/>
-      <c r="GA10" s="53"/>
-      <c r="GB10" s="53"/>
-      <c r="GC10" s="53"/>
-      <c r="GD10" s="53"/>
-      <c r="GE10" s="53"/>
-      <c r="GF10" s="53"/>
-      <c r="GG10" s="53"/>
-      <c r="GH10" s="53"/>
-      <c r="GI10" s="53"/>
-      <c r="GJ10" s="53"/>
-      <c r="GK10" s="53"/>
-      <c r="GL10" s="53"/>
-      <c r="GM10" s="53"/>
-      <c r="GN10" s="53"/>
-      <c r="GO10" s="53"/>
-      <c r="GP10" s="53"/>
-      <c r="GQ10" s="53"/>
-      <c r="GR10" s="53"/>
-      <c r="GS10" s="53"/>
-      <c r="GT10" s="53"/>
-      <c r="GU10" s="53"/>
-      <c r="GV10" s="53"/>
-      <c r="GW10" s="53"/>
-      <c r="GX10" s="53"/>
-      <c r="GY10" s="53"/>
-      <c r="GZ10" s="54"/>
-    </row>
-    <row r="11" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="29"/>
+      <c r="AS8" s="29"/>
+      <c r="AT8" s="29"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="29"/>
+      <c r="AW8" s="29"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="29"/>
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BE8" s="29"/>
+      <c r="BF8" s="29"/>
+      <c r="BG8" s="29"/>
+      <c r="BH8" s="29"/>
+      <c r="BI8" s="29"/>
+      <c r="BJ8" s="29"/>
+      <c r="BK8" s="29"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="29"/>
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BS8" s="29"/>
+      <c r="BT8" s="29"/>
+      <c r="BU8" s="29"/>
+      <c r="BV8" s="29"/>
+      <c r="BW8" s="29"/>
+      <c r="BX8" s="29"/>
+      <c r="BY8" s="29"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="29"/>
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CG8" s="29"/>
+      <c r="CH8" s="29"/>
+      <c r="CI8" s="29"/>
+      <c r="CJ8" s="29"/>
+      <c r="CK8" s="29"/>
+      <c r="CL8" s="29"/>
+      <c r="CM8" s="29"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="29"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
+      <c r="CU8" s="29"/>
+      <c r="CV8" s="29"/>
+      <c r="CW8" s="29"/>
+      <c r="CX8" s="29"/>
+      <c r="CY8" s="29"/>
+      <c r="CZ8" s="29"/>
+      <c r="DA8" s="29"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="29"/>
+      <c r="DD8" s="29"/>
+      <c r="DE8" s="29"/>
+      <c r="DF8" s="29"/>
+      <c r="DG8" s="29"/>
+      <c r="DH8" s="29"/>
+      <c r="DI8" s="29"/>
+      <c r="DJ8" s="29"/>
+      <c r="DK8" s="29"/>
+      <c r="DL8" s="29"/>
+      <c r="DM8" s="29"/>
+      <c r="DN8" s="29"/>
+      <c r="DO8" s="29"/>
+      <c r="DP8" s="29"/>
+      <c r="DQ8" s="29"/>
+      <c r="DR8" s="29"/>
+      <c r="DS8" s="29"/>
+      <c r="DT8" s="29"/>
+      <c r="DU8" s="29"/>
+      <c r="DV8" s="29"/>
+      <c r="DW8" s="29"/>
+      <c r="DX8" s="29"/>
+      <c r="DY8" s="29"/>
+      <c r="DZ8" s="29"/>
+      <c r="EA8" s="29"/>
+      <c r="EB8" s="29"/>
+      <c r="EC8" s="29"/>
+      <c r="ED8" s="29"/>
+      <c r="EE8" s="29"/>
+      <c r="EF8" s="29"/>
+      <c r="EG8" s="29"/>
+      <c r="EH8" s="29"/>
+      <c r="EI8" s="29"/>
+      <c r="EJ8" s="29"/>
+      <c r="EK8" s="29"/>
+      <c r="EL8" s="29"/>
+      <c r="EM8" s="29"/>
+      <c r="EN8" s="29"/>
+      <c r="EO8" s="29"/>
+      <c r="EP8" s="29"/>
+      <c r="EQ8" s="29"/>
+      <c r="ER8" s="29"/>
+      <c r="ES8" s="29"/>
+      <c r="ET8" s="29"/>
+      <c r="EU8" s="29"/>
+      <c r="EV8" s="29"/>
+      <c r="EW8" s="29"/>
+      <c r="EX8" s="29"/>
+      <c r="EY8" s="29"/>
+      <c r="EZ8" s="29"/>
+      <c r="FA8" s="29"/>
+      <c r="FB8" s="29"/>
+      <c r="FC8" s="29"/>
+      <c r="FD8" s="29"/>
+      <c r="FE8" s="29"/>
+      <c r="FF8" s="29"/>
+      <c r="FG8" s="29"/>
+      <c r="FH8" s="29"/>
+      <c r="FI8" s="29"/>
+      <c r="FJ8" s="29"/>
+      <c r="FK8" s="29"/>
+      <c r="FL8" s="29"/>
+      <c r="FM8" s="29"/>
+      <c r="FN8" s="29"/>
+      <c r="FO8" s="29"/>
+      <c r="FP8" s="29"/>
+      <c r="FQ8" s="29"/>
+      <c r="FR8" s="29"/>
+      <c r="FS8" s="29"/>
+      <c r="FT8" s="29"/>
+      <c r="FU8" s="29"/>
+      <c r="FV8" s="29"/>
+      <c r="FW8" s="29"/>
+      <c r="FX8" s="29"/>
+      <c r="FY8" s="29"/>
+      <c r="FZ8" s="29"/>
+      <c r="GA8" s="29"/>
+      <c r="GB8" s="29"/>
+      <c r="GC8" s="29"/>
+      <c r="GD8" s="29"/>
+      <c r="GE8" s="29"/>
+      <c r="GF8" s="29"/>
+      <c r="GG8" s="29"/>
+      <c r="GH8" s="29"/>
+      <c r="GI8" s="29"/>
+      <c r="GJ8" s="29"/>
+      <c r="GK8" s="29"/>
+      <c r="GL8" s="29"/>
+      <c r="GM8" s="29"/>
+      <c r="GN8" s="29"/>
+      <c r="GO8" s="29"/>
+      <c r="GP8" s="29"/>
+      <c r="GQ8" s="29"/>
+      <c r="GR8" s="29"/>
+      <c r="GS8" s="29"/>
+      <c r="GT8" s="29"/>
+      <c r="GU8" s="29"/>
+      <c r="GV8" s="29"/>
+      <c r="GW8" s="29"/>
+      <c r="GX8" s="29"/>
+      <c r="GY8" s="29"/>
+      <c r="GZ8" s="29"/>
+      <c r="HA8" s="29"/>
+      <c r="HB8" s="30"/>
+    </row>
+    <row r="9" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="B9" s="39"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="52"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="52"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
+      <c r="BO9" s="52"/>
+      <c r="BP9" s="52"/>
+      <c r="BQ9" s="52"/>
+      <c r="BR9" s="52"/>
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="52"/>
+      <c r="BU9" s="52"/>
+      <c r="BV9" s="52"/>
+      <c r="BW9" s="52"/>
+      <c r="BX9" s="52"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
+      <c r="CL9" s="52"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="52"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
+      <c r="DA9" s="52"/>
+      <c r="DB9" s="52"/>
+      <c r="DC9" s="52"/>
+      <c r="DD9" s="52"/>
+      <c r="DE9" s="52"/>
+      <c r="DF9" s="52"/>
+      <c r="DG9" s="52"/>
+      <c r="DH9" s="52"/>
+      <c r="DI9" s="52"/>
+      <c r="DJ9" s="52"/>
+      <c r="DK9" s="52"/>
+      <c r="DL9" s="52"/>
+      <c r="DM9" s="52"/>
+      <c r="DN9" s="52"/>
+      <c r="DO9" s="52"/>
+      <c r="DP9" s="52"/>
+      <c r="DQ9" s="52"/>
+      <c r="DR9" s="52"/>
+      <c r="DS9" s="52"/>
+      <c r="DT9" s="52"/>
+      <c r="DU9" s="52"/>
+      <c r="DV9" s="52"/>
+      <c r="DW9" s="52"/>
+      <c r="DX9" s="52"/>
+      <c r="DY9" s="52"/>
+      <c r="DZ9" s="52"/>
+      <c r="EA9" s="52"/>
+      <c r="EB9" s="52"/>
+      <c r="EC9" s="52"/>
+      <c r="ED9" s="52"/>
+      <c r="EE9" s="52"/>
+      <c r="EF9" s="52"/>
+      <c r="EG9" s="52"/>
+      <c r="EH9" s="52"/>
+      <c r="EI9" s="52"/>
+      <c r="EJ9" s="52"/>
+      <c r="EK9" s="52"/>
+      <c r="EL9" s="52"/>
+      <c r="EM9" s="52"/>
+      <c r="EN9" s="52"/>
+      <c r="EO9" s="52"/>
+      <c r="EP9" s="52"/>
+      <c r="EQ9" s="52"/>
+      <c r="ER9" s="52"/>
+      <c r="ES9" s="52"/>
+      <c r="ET9" s="52"/>
+      <c r="EU9" s="52"/>
+      <c r="EV9" s="52"/>
+      <c r="EW9" s="52"/>
+      <c r="EX9" s="52"/>
+      <c r="EY9" s="52"/>
+      <c r="EZ9" s="52"/>
+      <c r="FA9" s="52"/>
+      <c r="FB9" s="52"/>
+      <c r="FC9" s="52"/>
+      <c r="FD9" s="52"/>
+      <c r="FE9" s="52"/>
+      <c r="FF9" s="52"/>
+      <c r="FG9" s="52"/>
+      <c r="FH9" s="52"/>
+      <c r="FI9" s="52"/>
+      <c r="FJ9" s="52"/>
+      <c r="FK9" s="52"/>
+      <c r="FL9" s="52"/>
+      <c r="FM9" s="52"/>
+      <c r="FN9" s="52"/>
+      <c r="FO9" s="52"/>
+      <c r="FP9" s="52"/>
+      <c r="FQ9" s="52"/>
+      <c r="FR9" s="52"/>
+      <c r="FS9" s="52"/>
+      <c r="FT9" s="52"/>
+      <c r="FU9" s="52"/>
+      <c r="FV9" s="52"/>
+      <c r="FW9" s="52"/>
+      <c r="FX9" s="52"/>
+      <c r="FY9" s="52"/>
+      <c r="FZ9" s="52"/>
+      <c r="GA9" s="52"/>
+      <c r="GB9" s="52"/>
+      <c r="GC9" s="52"/>
+      <c r="GD9" s="52"/>
+      <c r="GE9" s="52"/>
+      <c r="GF9" s="52"/>
+      <c r="GG9" s="52"/>
+      <c r="GH9" s="52"/>
+      <c r="GI9" s="52"/>
+      <c r="GJ9" s="52"/>
+      <c r="GK9" s="52"/>
+      <c r="GL9" s="52"/>
+      <c r="GM9" s="52"/>
+      <c r="GN9" s="52"/>
+      <c r="GO9" s="52"/>
+      <c r="GP9" s="52"/>
+      <c r="GQ9" s="52"/>
+      <c r="GR9" s="52"/>
+      <c r="GS9" s="52"/>
+      <c r="GT9" s="52"/>
+      <c r="GU9" s="52"/>
+      <c r="GV9" s="52"/>
+      <c r="GW9" s="52"/>
+      <c r="GX9" s="52"/>
+      <c r="GY9" s="52"/>
+      <c r="GZ9" s="52"/>
+      <c r="HA9" s="52"/>
+      <c r="HB9" s="53"/>
+    </row>
+    <row r="10" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
-      <c r="C11" s="89"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="44"/>
-    </row>
-    <row r="12" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-      <c r="C12" s="89"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
-      <c r="C13" s="89"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B14" s="31"/>
-      <c r="C14" s="89"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="44"/>
-    </row>
-    <row r="15" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B15" s="31"/>
-      <c r="C15" s="89"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:208" x14ac:dyDescent="0.25">
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B16" s="31"/>
-      <c r="C16" s="89"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="44"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="31"/>
-      <c r="C17" s="89"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="44"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="31"/>
-      <c r="C18" s="89"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="44"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="31"/>
-      <c r="C19" s="89"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="44"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
-      <c r="C20" s="89"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
-      <c r="C21" s="89"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
-      <c r="C22" s="89"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
-      <c r="C23" s="89"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="44"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
-      <c r="C24" s="89"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="44"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
-      <c r="C25" s="89"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
-      <c r="C26" s="89"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
-      <c r="C27" s="89"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
-      <c r="C28" s="89"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="44"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
-      <c r="C29" s="89"/>
+      <c r="C29" s="64"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
       <c r="G29" s="44"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
-      <c r="C30" s="89"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
       <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
-      <c r="C31" s="89"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="44"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
-      <c r="C32" s="89"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
       <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
-      <c r="C33" s="89"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
       <c r="G33" s="44"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
-      <c r="C34" s="89"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
       <c r="G34" s="44"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
-      <c r="C35" s="89"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
       <c r="G35" s="44"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
-      <c r="C36" s="89"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
       <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
-      <c r="C37" s="89"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="44"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
-      <c r="C38" s="89"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="44"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="31"/>
-      <c r="C39" s="89"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="31"/>
-      <c r="C40" s="89"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="31"/>
-      <c r="C41" s="89"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="44"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="31"/>
-      <c r="C42" s="89"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="44"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="31"/>
-      <c r="C43" s="89"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="31"/>
-      <c r="C44" s="89"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="31"/>
-      <c r="C45" s="89"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="31"/>
-      <c r="C46" s="89"/>
+      <c r="C46" s="64"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="31"/>
-      <c r="C47" s="89"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="44"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
-      <c r="C48" s="89"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="44"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="44"/>
-    </row>
-    <row r="1048567" spans="9:208" x14ac:dyDescent="0.25">
-      <c r="I1048567" s="42"/>
-      <c r="J1048567" s="38"/>
-      <c r="K1048567" s="38"/>
-      <c r="L1048567" s="38"/>
-      <c r="M1048567" s="38"/>
-      <c r="N1048567" s="38"/>
-      <c r="O1048567" s="38"/>
-      <c r="P1048567" s="38"/>
-      <c r="Q1048567" s="38"/>
-      <c r="R1048567" s="38"/>
-      <c r="S1048567" s="38"/>
-      <c r="T1048567" s="38"/>
-      <c r="U1048567" s="38"/>
-      <c r="V1048567" s="38"/>
-      <c r="W1048567" s="38"/>
-      <c r="X1048567" s="38"/>
-      <c r="Y1048567" s="38"/>
-      <c r="Z1048567" s="38"/>
-      <c r="AA1048567" s="38"/>
-      <c r="AB1048567" s="38"/>
-      <c r="AC1048567" s="38"/>
-      <c r="AD1048567" s="38"/>
-      <c r="AE1048567" s="38"/>
-      <c r="AF1048567" s="38"/>
-      <c r="AG1048567" s="38"/>
-      <c r="AH1048567" s="38"/>
-      <c r="AI1048567" s="38"/>
-      <c r="AJ1048567" s="38"/>
-      <c r="AK1048567" s="38"/>
-      <c r="AL1048567" s="38"/>
-      <c r="AM1048567" s="38"/>
-      <c r="AN1048567" s="38"/>
-      <c r="AO1048567" s="38"/>
-      <c r="AP1048567" s="38"/>
-      <c r="AQ1048567" s="38"/>
-      <c r="AR1048567" s="38"/>
-      <c r="AS1048567" s="38"/>
-      <c r="AT1048567" s="38"/>
-      <c r="AU1048567" s="38"/>
-      <c r="AV1048567" s="38"/>
-      <c r="AW1048567" s="38"/>
-      <c r="AX1048567" s="38"/>
-      <c r="AY1048567" s="38"/>
-      <c r="AZ1048567" s="38"/>
-      <c r="BA1048567" s="38"/>
-      <c r="BB1048567" s="38"/>
-      <c r="BC1048567" s="38"/>
-      <c r="BD1048567" s="38"/>
-      <c r="BE1048567" s="38"/>
-      <c r="BF1048567" s="38"/>
-      <c r="BG1048567" s="38"/>
-      <c r="BH1048567" s="38"/>
-      <c r="BI1048567" s="38"/>
-      <c r="BJ1048567" s="38"/>
-      <c r="BK1048567" s="38"/>
-      <c r="BL1048567" s="38"/>
-      <c r="BM1048567" s="38"/>
-      <c r="BN1048567" s="38"/>
-      <c r="BO1048567" s="38"/>
-      <c r="BP1048567" s="38"/>
-      <c r="BQ1048567" s="38"/>
-      <c r="BR1048567" s="38"/>
-      <c r="BS1048567" s="38"/>
-      <c r="BT1048567" s="38"/>
-      <c r="BU1048567" s="38"/>
-      <c r="BV1048567" s="38"/>
-      <c r="BW1048567" s="38"/>
-      <c r="BX1048567" s="38"/>
-      <c r="BY1048567" s="38"/>
-      <c r="BZ1048567" s="38"/>
-      <c r="CA1048567" s="38"/>
-      <c r="CB1048567" s="38"/>
-      <c r="CC1048567" s="38"/>
-      <c r="CD1048567" s="38"/>
-      <c r="CE1048567" s="38"/>
-      <c r="CF1048567" s="38"/>
-      <c r="CG1048567" s="38"/>
-      <c r="CH1048567" s="38"/>
-      <c r="CI1048567" s="38"/>
-      <c r="CJ1048567" s="38"/>
-      <c r="CK1048567" s="38"/>
-      <c r="CL1048567" s="38"/>
-      <c r="CM1048567" s="38"/>
-      <c r="CN1048567" s="38"/>
-      <c r="CO1048567" s="38"/>
-      <c r="CP1048567" s="38"/>
-      <c r="CQ1048567" s="38"/>
-      <c r="CR1048567" s="38"/>
-      <c r="CS1048567" s="38"/>
-      <c r="CT1048567" s="38"/>
-      <c r="CU1048567" s="38"/>
-      <c r="CV1048567" s="38"/>
-      <c r="CW1048567" s="38"/>
-      <c r="CX1048567" s="38"/>
-      <c r="CY1048567" s="38"/>
-      <c r="CZ1048567" s="38"/>
-      <c r="DA1048567" s="38"/>
-      <c r="DB1048567" s="38"/>
-      <c r="DC1048567" s="38"/>
-      <c r="DD1048567" s="38"/>
-      <c r="DE1048567" s="38"/>
-      <c r="DF1048567" s="38"/>
-      <c r="DG1048567" s="38"/>
-      <c r="DH1048567" s="38"/>
-      <c r="DI1048567" s="38"/>
-      <c r="DJ1048567" s="38"/>
-      <c r="DK1048567" s="38"/>
-      <c r="DL1048567" s="38"/>
-      <c r="DM1048567" s="38"/>
-      <c r="DN1048567" s="38"/>
-      <c r="DO1048567" s="38"/>
-      <c r="DP1048567" s="38"/>
-      <c r="DQ1048567" s="38"/>
-      <c r="DR1048567" s="38"/>
-      <c r="DS1048567" s="38"/>
-      <c r="DT1048567" s="38"/>
-      <c r="DU1048567" s="38"/>
-      <c r="DV1048567" s="38"/>
-      <c r="DW1048567" s="38"/>
-      <c r="DX1048567" s="38"/>
-      <c r="DY1048567" s="38"/>
-      <c r="DZ1048567" s="38"/>
-      <c r="EA1048567" s="38"/>
-      <c r="EB1048567" s="38"/>
-      <c r="EC1048567" s="38"/>
-      <c r="ED1048567" s="38"/>
-      <c r="EE1048567" s="38"/>
-      <c r="EF1048567" s="38"/>
-      <c r="EG1048567" s="38"/>
-      <c r="EH1048567" s="38"/>
-      <c r="EI1048567" s="38"/>
-      <c r="EJ1048567" s="38"/>
-      <c r="EK1048567" s="38"/>
-      <c r="EL1048567" s="38"/>
-      <c r="EM1048567" s="38"/>
-      <c r="EN1048567" s="38"/>
-      <c r="EO1048567" s="38"/>
-      <c r="EP1048567" s="38"/>
-      <c r="EQ1048567" s="38"/>
-      <c r="ER1048567" s="38"/>
-      <c r="ES1048567" s="38"/>
-      <c r="ET1048567" s="38"/>
-      <c r="EU1048567" s="38"/>
-      <c r="EV1048567" s="38"/>
-      <c r="EW1048567" s="38"/>
-      <c r="EX1048567" s="38"/>
-      <c r="EY1048567" s="38"/>
-      <c r="EZ1048567" s="38"/>
-      <c r="FA1048567" s="38"/>
-      <c r="FB1048567" s="38"/>
-      <c r="FC1048567" s="38"/>
-      <c r="FD1048567" s="38"/>
-      <c r="FE1048567" s="38"/>
-      <c r="FF1048567" s="38"/>
-      <c r="FG1048567" s="38"/>
-      <c r="FH1048567" s="38"/>
-      <c r="FI1048567" s="38"/>
-      <c r="FJ1048567" s="38"/>
-      <c r="FK1048567" s="38"/>
-      <c r="FL1048567" s="38"/>
-      <c r="FM1048567" s="38"/>
-      <c r="FN1048567" s="38"/>
-      <c r="FO1048567" s="38"/>
-      <c r="FP1048567" s="38"/>
-      <c r="FQ1048567" s="38"/>
-      <c r="FR1048567" s="38"/>
-      <c r="FS1048567" s="38"/>
-      <c r="FT1048567" s="38"/>
-      <c r="FU1048567" s="38"/>
-      <c r="FV1048567" s="38"/>
-      <c r="FW1048567" s="38"/>
-      <c r="FX1048567" s="38"/>
-      <c r="FY1048567" s="38"/>
-      <c r="FZ1048567" s="38"/>
-      <c r="GA1048567" s="38"/>
-      <c r="GB1048567" s="38"/>
-      <c r="GC1048567" s="38"/>
-      <c r="GD1048567" s="38"/>
-      <c r="GE1048567" s="38"/>
-      <c r="GF1048567" s="38"/>
-      <c r="GG1048567" s="38"/>
-      <c r="GH1048567" s="38"/>
-      <c r="GI1048567" s="38"/>
-      <c r="GJ1048567" s="38"/>
-      <c r="GK1048567" s="38"/>
-      <c r="GL1048567" s="38"/>
-      <c r="GM1048567" s="38"/>
-      <c r="GN1048567" s="38"/>
-      <c r="GO1048567" s="38"/>
-      <c r="GP1048567" s="38"/>
-      <c r="GQ1048567" s="38"/>
-      <c r="GR1048567" s="38"/>
-      <c r="GS1048567" s="38"/>
-      <c r="GT1048567" s="38"/>
-      <c r="GU1048567" s="38"/>
-      <c r="GV1048567" s="38"/>
-      <c r="GW1048567" s="38"/>
-      <c r="GX1048567" s="38"/>
-      <c r="GY1048567" s="38"/>
-      <c r="GZ1048567" s="41"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="32"/>
+      <c r="I117" s="32"/>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="32"/>
+      <c r="I132" s="32"/>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+    </row>
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H150" s="32"/>
+      <c r="I150" s="32"/>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="32"/>
+      <c r="I151" s="32"/>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H152" s="32"/>
+      <c r="I152" s="32"/>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H153" s="32"/>
+      <c r="I153" s="32"/>
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H154" s="32"/>
+      <c r="I154" s="32"/>
+    </row>
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H155" s="32"/>
+      <c r="I155" s="32"/>
+    </row>
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H156" s="32"/>
+      <c r="I156" s="32"/>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H157" s="32"/>
+      <c r="I157" s="32"/>
+    </row>
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H158" s="32"/>
+      <c r="I158" s="32"/>
+    </row>
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H159" s="32"/>
+      <c r="I159" s="32"/>
+    </row>
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H160" s="32"/>
+      <c r="I160" s="32"/>
+    </row>
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H161" s="32"/>
+      <c r="I161" s="32"/>
+    </row>
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H162" s="32"/>
+      <c r="I162" s="32"/>
+    </row>
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H163" s="32"/>
+      <c r="I163" s="32"/>
+    </row>
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H164" s="32"/>
+      <c r="I164" s="32"/>
+    </row>
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H165" s="32"/>
+      <c r="I165" s="32"/>
+    </row>
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H166" s="32"/>
+      <c r="I166" s="32"/>
+    </row>
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H167" s="32"/>
+      <c r="I167" s="32"/>
+    </row>
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H168" s="32"/>
+      <c r="I168" s="32"/>
+    </row>
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H169" s="32"/>
+      <c r="I169" s="32"/>
+    </row>
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H170" s="32"/>
+      <c r="I170" s="32"/>
+    </row>
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H171" s="32"/>
+      <c r="I171" s="32"/>
+    </row>
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H172" s="32"/>
+      <c r="I172" s="32"/>
+    </row>
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H173" s="32"/>
+      <c r="I173" s="32"/>
+    </row>
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H174" s="32"/>
+      <c r="I174" s="32"/>
+    </row>
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H175" s="32"/>
+      <c r="I175" s="32"/>
+    </row>
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H176" s="32"/>
+      <c r="I176" s="32"/>
+    </row>
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H177" s="32"/>
+      <c r="I177" s="32"/>
+    </row>
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H178" s="32"/>
+      <c r="I178" s="32"/>
+    </row>
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H179" s="32"/>
+      <c r="I179" s="32"/>
+    </row>
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H180" s="32"/>
+      <c r="I180" s="32"/>
+    </row>
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H181" s="32"/>
+      <c r="I181" s="32"/>
+    </row>
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H182" s="32"/>
+      <c r="I182" s="32"/>
+    </row>
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H183" s="32"/>
+      <c r="I183" s="32"/>
+    </row>
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H184" s="32"/>
+      <c r="I184" s="32"/>
+    </row>
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="32"/>
+      <c r="I185" s="32"/>
+    </row>
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+    </row>
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+    </row>
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H188" s="32"/>
+      <c r="I188" s="32"/>
+    </row>
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H189" s="32"/>
+      <c r="I189" s="32"/>
+    </row>
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H190" s="32"/>
+      <c r="I190" s="32"/>
+    </row>
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+    </row>
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="32"/>
+      <c r="I192" s="32"/>
+    </row>
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H193" s="32"/>
+      <c r="I193" s="32"/>
+    </row>
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="32"/>
+      <c r="I194" s="32"/>
+    </row>
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H195" s="32"/>
+      <c r="I195" s="32"/>
+    </row>
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
+    </row>
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
+    </row>
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H198" s="32"/>
+      <c r="I198" s="32"/>
+    </row>
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="32"/>
+      <c r="I199" s="32"/>
+    </row>
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H200" s="32"/>
+      <c r="I200" s="32"/>
+    </row>
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H201" s="32"/>
+      <c r="I201" s="32"/>
+    </row>
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H202" s="32"/>
+      <c r="I202" s="32"/>
+    </row>
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H203" s="32"/>
+      <c r="I203" s="32"/>
+    </row>
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H204" s="32"/>
+      <c r="I204" s="32"/>
+    </row>
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H205" s="32"/>
+      <c r="I205" s="32"/>
+    </row>
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
+    </row>
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H207" s="32"/>
+      <c r="I207" s="32"/>
+    </row>
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
+    </row>
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H209" s="32"/>
+      <c r="I209" s="32"/>
+    </row>
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H210" s="32"/>
+      <c r="I210" s="32"/>
+    </row>
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H211" s="32"/>
+      <c r="I211" s="32"/>
+    </row>
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H212" s="32"/>
+      <c r="I212" s="32"/>
+    </row>
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H213" s="32"/>
+      <c r="I213" s="32"/>
+    </row>
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H214" s="32"/>
+      <c r="I214" s="32"/>
+    </row>
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H215" s="32"/>
+      <c r="I215" s="32"/>
+    </row>
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H216" s="32"/>
+      <c r="I216" s="32"/>
+    </row>
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
+    </row>
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H218" s="32"/>
+      <c r="I218" s="32"/>
+    </row>
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H219" s="32"/>
+      <c r="I219" s="32"/>
+    </row>
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H220" s="32"/>
+      <c r="I220" s="32"/>
+    </row>
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H221" s="32"/>
+      <c r="I221" s="32"/>
+    </row>
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H222" s="32"/>
+      <c r="I222" s="32"/>
+    </row>
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H223" s="32"/>
+      <c r="I223" s="32"/>
+    </row>
+    <row r="224" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H224" s="32"/>
+      <c r="I224" s="32"/>
+    </row>
+    <row r="225" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H225" s="32"/>
+      <c r="I225" s="32"/>
+    </row>
+    <row r="226" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H226" s="32"/>
+      <c r="I226" s="32"/>
+    </row>
+    <row r="227" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H227" s="32"/>
+      <c r="I227" s="32"/>
+    </row>
+    <row r="228" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H228" s="32"/>
+      <c r="I228" s="32"/>
+    </row>
+    <row r="229" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
+    </row>
+    <row r="230" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H230" s="32"/>
+      <c r="I230" s="32"/>
+    </row>
+    <row r="231" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H231" s="32"/>
+      <c r="I231" s="32"/>
+    </row>
+    <row r="232" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H232" s="32"/>
+      <c r="I232" s="32"/>
+    </row>
+    <row r="233" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H233" s="32"/>
+      <c r="I233" s="32"/>
+    </row>
+    <row r="234" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H234" s="32"/>
+      <c r="I234" s="32"/>
+    </row>
+    <row r="235" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H235" s="32"/>
+      <c r="I235" s="32"/>
+    </row>
+    <row r="236" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H236" s="32"/>
+      <c r="I236" s="32"/>
+    </row>
+    <row r="237" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H237" s="32"/>
+      <c r="I237" s="32"/>
+    </row>
+    <row r="238" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H238" s="32"/>
+      <c r="I238" s="32"/>
+    </row>
+    <row r="239" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H239" s="32"/>
+      <c r="I239" s="32"/>
+    </row>
+    <row r="240" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H240" s="32"/>
+      <c r="I240" s="32"/>
+    </row>
+    <row r="241" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H241" s="32"/>
+      <c r="I241" s="32"/>
+    </row>
+    <row r="242" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H242" s="32"/>
+      <c r="I242" s="32"/>
+    </row>
+    <row r="243" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H243" s="32"/>
+      <c r="I243" s="32"/>
+    </row>
+    <row r="244" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H244" s="32"/>
+      <c r="I244" s="32"/>
+    </row>
+    <row r="245" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
+    </row>
+    <row r="246" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H246" s="32"/>
+      <c r="I246" s="32"/>
+    </row>
+    <row r="247" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H247" s="32"/>
+      <c r="I247" s="32"/>
+    </row>
+    <row r="248" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H248" s="32"/>
+      <c r="I248" s="32"/>
+    </row>
+    <row r="249" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H249" s="32"/>
+      <c r="I249" s="32"/>
+    </row>
+    <row r="250" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H250" s="32"/>
+      <c r="I250" s="32"/>
+    </row>
+    <row r="251" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
+    </row>
+    <row r="252" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H252" s="32"/>
+      <c r="I252" s="32"/>
+    </row>
+    <row r="253" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H253" s="32"/>
+      <c r="I253" s="32"/>
+    </row>
+    <row r="254" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H254" s="32"/>
+      <c r="I254" s="32"/>
+    </row>
+    <row r="255" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H255" s="32"/>
+      <c r="I255" s="32"/>
+    </row>
+    <row r="256" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H256" s="32"/>
+      <c r="I256" s="32"/>
+    </row>
+    <row r="257" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H257" s="32"/>
+      <c r="I257" s="32"/>
+    </row>
+    <row r="258" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H258" s="32"/>
+      <c r="I258" s="32"/>
+    </row>
+    <row r="259" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H259" s="32"/>
+      <c r="I259" s="32"/>
+    </row>
+    <row r="260" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H260" s="32"/>
+      <c r="I260" s="32"/>
+    </row>
+    <row r="261" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H261" s="32"/>
+      <c r="I261" s="32"/>
+    </row>
+    <row r="262" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
+    </row>
+    <row r="263" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H263" s="32"/>
+      <c r="I263" s="32"/>
+    </row>
+    <row r="264" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H264" s="32"/>
+      <c r="I264" s="32"/>
+    </row>
+    <row r="265" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H265" s="32"/>
+      <c r="I265" s="32"/>
+    </row>
+    <row r="266" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H266" s="32"/>
+      <c r="I266" s="32"/>
+    </row>
+    <row r="267" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H267" s="32"/>
+      <c r="I267" s="32"/>
+    </row>
+    <row r="268" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H268" s="32"/>
+      <c r="I268" s="32"/>
+    </row>
+    <row r="269" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H269" s="32"/>
+      <c r="I269" s="32"/>
+    </row>
+    <row r="270" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H270" s="32"/>
+      <c r="I270" s="32"/>
+    </row>
+    <row r="271" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H271" s="32"/>
+      <c r="I271" s="32"/>
+    </row>
+    <row r="272" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H272" s="32"/>
+      <c r="I272" s="32"/>
+    </row>
+    <row r="273" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H273" s="32"/>
+      <c r="I273" s="32"/>
+    </row>
+    <row r="274" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H274" s="32"/>
+      <c r="I274" s="32"/>
+    </row>
+    <row r="275" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H275" s="32"/>
+      <c r="I275" s="32"/>
+    </row>
+    <row r="276" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H276" s="32"/>
+      <c r="I276" s="32"/>
+    </row>
+    <row r="277" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H277" s="32"/>
+      <c r="I277" s="32"/>
+    </row>
+    <row r="278" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H278" s="32"/>
+      <c r="I278" s="32"/>
+    </row>
+    <row r="279" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H279" s="32"/>
+      <c r="I279" s="32"/>
+    </row>
+    <row r="280" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H280" s="32"/>
+      <c r="I280" s="32"/>
+    </row>
+    <row r="281" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H281" s="32"/>
+      <c r="I281" s="32"/>
+    </row>
+    <row r="282" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H282" s="32"/>
+      <c r="I282" s="32"/>
+    </row>
+    <row r="283" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H283" s="32"/>
+      <c r="I283" s="32"/>
+    </row>
+    <row r="284" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H284" s="32"/>
+      <c r="I284" s="32"/>
+    </row>
+    <row r="285" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H285" s="32"/>
+      <c r="I285" s="32"/>
+    </row>
+    <row r="286" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H286" s="32"/>
+      <c r="I286" s="32"/>
+    </row>
+    <row r="287" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H287" s="32"/>
+      <c r="I287" s="32"/>
+    </row>
+    <row r="288" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H288" s="32"/>
+      <c r="I288" s="32"/>
+    </row>
+    <row r="289" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H289" s="32"/>
+      <c r="I289" s="32"/>
+    </row>
+    <row r="290" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H290" s="32"/>
+      <c r="I290" s="32"/>
+    </row>
+    <row r="291" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H291" s="32"/>
+      <c r="I291" s="32"/>
+    </row>
+    <row r="292" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H292" s="32"/>
+      <c r="I292" s="32"/>
+    </row>
+    <row r="293" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H293" s="32"/>
+      <c r="I293" s="32"/>
+    </row>
+    <row r="294" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H294" s="32"/>
+      <c r="I294" s="32"/>
+    </row>
+    <row r="295" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H295" s="32"/>
+      <c r="I295" s="32"/>
+    </row>
+    <row r="296" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H296" s="32"/>
+      <c r="I296" s="32"/>
+    </row>
+    <row r="297" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H297" s="32"/>
+      <c r="I297" s="32"/>
+    </row>
+    <row r="298" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H298" s="32"/>
+      <c r="I298" s="32"/>
+    </row>
+    <row r="299" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H299" s="32"/>
+      <c r="I299" s="32"/>
+    </row>
+    <row r="300" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H300" s="32"/>
+      <c r="I300" s="32"/>
+    </row>
+    <row r="301" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H301" s="32"/>
+      <c r="I301" s="32"/>
+    </row>
+    <row r="302" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H302" s="32"/>
+      <c r="I302" s="32"/>
+    </row>
+    <row r="303" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H303" s="32"/>
+      <c r="I303" s="32"/>
+    </row>
+    <row r="304" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H304" s="32"/>
+      <c r="I304" s="32"/>
+    </row>
+    <row r="305" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H305" s="32"/>
+      <c r="I305" s="32"/>
+    </row>
+    <row r="306" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H306" s="32"/>
+      <c r="I306" s="32"/>
+    </row>
+    <row r="307" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H307" s="32"/>
+      <c r="I307" s="32"/>
+    </row>
+    <row r="308" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H308" s="32"/>
+      <c r="I308" s="32"/>
+    </row>
+    <row r="309" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H309" s="32"/>
+      <c r="I309" s="32"/>
+    </row>
+    <row r="310" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H310" s="32"/>
+      <c r="I310" s="32"/>
+    </row>
+    <row r="311" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H311" s="32"/>
+      <c r="I311" s="32"/>
+    </row>
+    <row r="312" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H312" s="32"/>
+      <c r="I312" s="32"/>
+    </row>
+    <row r="313" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H313" s="32"/>
+      <c r="I313" s="32"/>
+    </row>
+    <row r="314" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H314" s="32"/>
+      <c r="I314" s="32"/>
+    </row>
+    <row r="315" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H315" s="32"/>
+      <c r="I315" s="32"/>
+    </row>
+    <row r="316" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H316" s="32"/>
+      <c r="I316" s="32"/>
+    </row>
+    <row r="317" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H317" s="32"/>
+      <c r="I317" s="32"/>
+    </row>
+    <row r="318" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H318" s="32"/>
+      <c r="I318" s="32"/>
+    </row>
+    <row r="319" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H319" s="32"/>
+      <c r="I319" s="32"/>
+    </row>
+    <row r="320" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H320" s="32"/>
+      <c r="I320" s="32"/>
+    </row>
+    <row r="321" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H321" s="32"/>
+      <c r="I321" s="32"/>
+    </row>
+    <row r="322" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H322" s="32"/>
+      <c r="I322" s="32"/>
+    </row>
+    <row r="323" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H323" s="32"/>
+      <c r="I323" s="32"/>
+    </row>
+    <row r="324" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H324" s="32"/>
+      <c r="I324" s="32"/>
+    </row>
+    <row r="325" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H325" s="32"/>
+      <c r="I325" s="32"/>
+    </row>
+    <row r="326" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H326" s="32"/>
+      <c r="I326" s="32"/>
+    </row>
+    <row r="327" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H327" s="32"/>
+      <c r="I327" s="32"/>
+    </row>
+    <row r="328" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H328" s="32"/>
+      <c r="I328" s="32"/>
+    </row>
+    <row r="329" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H329" s="32"/>
+      <c r="I329" s="32"/>
+    </row>
+    <row r="330" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H330" s="32"/>
+      <c r="I330" s="32"/>
+    </row>
+    <row r="331" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H331" s="32"/>
+      <c r="I331" s="32"/>
+    </row>
+    <row r="332" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H332" s="32"/>
+      <c r="I332" s="32"/>
+    </row>
+    <row r="333" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H333" s="32"/>
+      <c r="I333" s="32"/>
+    </row>
+    <row r="334" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H334" s="32"/>
+      <c r="I334" s="32"/>
+    </row>
+    <row r="335" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H335" s="32"/>
+      <c r="I335" s="32"/>
+    </row>
+    <row r="336" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H336" s="32"/>
+      <c r="I336" s="32"/>
+    </row>
+    <row r="337" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H337" s="32"/>
+      <c r="I337" s="32"/>
+    </row>
+    <row r="338" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H338" s="32"/>
+      <c r="I338" s="32"/>
+    </row>
+    <row r="339" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H339" s="32"/>
+      <c r="I339" s="32"/>
+    </row>
+    <row r="340" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H340" s="32"/>
+      <c r="I340" s="32"/>
+    </row>
+    <row r="341" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H341" s="32"/>
+      <c r="I341" s="32"/>
+    </row>
+    <row r="342" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H342" s="32"/>
+      <c r="I342" s="32"/>
+    </row>
+    <row r="343" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H343" s="32"/>
+      <c r="I343" s="32"/>
+    </row>
+    <row r="344" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H344" s="32"/>
+      <c r="I344" s="32"/>
+    </row>
+    <row r="345" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H345" s="32"/>
+      <c r="I345" s="32"/>
+    </row>
+    <row r="346" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H346" s="32"/>
+      <c r="I346" s="32"/>
+    </row>
+    <row r="347" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H347" s="32"/>
+      <c r="I347" s="32"/>
+    </row>
+    <row r="348" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H348" s="32"/>
+      <c r="I348" s="32"/>
+    </row>
+    <row r="349" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H349" s="32"/>
+      <c r="I349" s="32"/>
+    </row>
+    <row r="350" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H350" s="32"/>
+      <c r="I350" s="32"/>
+    </row>
+    <row r="351" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H351" s="32"/>
+      <c r="I351" s="32"/>
+    </row>
+    <row r="352" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H352" s="32"/>
+      <c r="I352" s="32"/>
+    </row>
+    <row r="353" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H353" s="32"/>
+      <c r="I353" s="32"/>
+    </row>
+    <row r="354" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H354" s="32"/>
+      <c r="I354" s="32"/>
+    </row>
+    <row r="355" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H355" s="32"/>
+      <c r="I355" s="32"/>
+    </row>
+    <row r="356" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H356" s="32"/>
+      <c r="I356" s="32"/>
+    </row>
+    <row r="357" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H357" s="32"/>
+      <c r="I357" s="32"/>
+    </row>
+    <row r="358" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H358" s="32"/>
+      <c r="I358" s="32"/>
+    </row>
+    <row r="359" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H359" s="32"/>
+      <c r="I359" s="32"/>
+    </row>
+    <row r="360" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H360" s="32"/>
+      <c r="I360" s="32"/>
+    </row>
+    <row r="361" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H361" s="32"/>
+      <c r="I361" s="32"/>
+    </row>
+    <row r="362" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H362" s="32"/>
+      <c r="I362" s="32"/>
+    </row>
+    <row r="363" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H363" s="32"/>
+      <c r="I363" s="32"/>
+    </row>
+    <row r="364" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H364" s="32"/>
+      <c r="I364" s="32"/>
+    </row>
+    <row r="365" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H365" s="32"/>
+      <c r="I365" s="32"/>
+    </row>
+    <row r="366" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H366" s="32"/>
+      <c r="I366" s="32"/>
+    </row>
+    <row r="367" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H367" s="32"/>
+      <c r="I367" s="32"/>
+    </row>
+    <row r="368" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H368" s="32"/>
+      <c r="I368" s="32"/>
+    </row>
+    <row r="369" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H369" s="32"/>
+      <c r="I369" s="32"/>
+    </row>
+    <row r="370" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H370" s="32"/>
+      <c r="I370" s="32"/>
+    </row>
+    <row r="371" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H371" s="32"/>
+      <c r="I371" s="32"/>
+    </row>
+    <row r="372" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H372" s="32"/>
+      <c r="I372" s="32"/>
+    </row>
+    <row r="373" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H373" s="32"/>
+      <c r="I373" s="32"/>
+    </row>
+    <row r="374" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H374" s="32"/>
+      <c r="I374" s="32"/>
+    </row>
+    <row r="375" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H375" s="32"/>
+      <c r="I375" s="32"/>
+    </row>
+    <row r="376" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H376" s="32"/>
+      <c r="I376" s="32"/>
+    </row>
+    <row r="377" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H377" s="32"/>
+      <c r="I377" s="32"/>
+    </row>
+    <row r="378" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H378" s="32"/>
+      <c r="I378" s="32"/>
+    </row>
+    <row r="379" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H379" s="32"/>
+      <c r="I379" s="32"/>
+    </row>
+    <row r="380" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H380" s="32"/>
+      <c r="I380" s="32"/>
+    </row>
+    <row r="381" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H381" s="32"/>
+      <c r="I381" s="32"/>
+    </row>
+    <row r="382" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H382" s="32"/>
+      <c r="I382" s="32"/>
+    </row>
+    <row r="383" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H383" s="32"/>
+      <c r="I383" s="32"/>
+    </row>
+    <row r="384" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H384" s="32"/>
+      <c r="I384" s="32"/>
+    </row>
+    <row r="385" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H385" s="32"/>
+      <c r="I385" s="32"/>
+    </row>
+    <row r="386" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H386" s="32"/>
+      <c r="I386" s="32"/>
+    </row>
+    <row r="387" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H387" s="32"/>
+      <c r="I387" s="32"/>
+    </row>
+    <row r="388" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H388" s="32"/>
+      <c r="I388" s="32"/>
+    </row>
+    <row r="389" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H389" s="32"/>
+      <c r="I389" s="32"/>
+    </row>
+    <row r="390" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H390" s="32"/>
+      <c r="I390" s="32"/>
+    </row>
+    <row r="391" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H391" s="32"/>
+      <c r="I391" s="32"/>
+    </row>
+    <row r="392" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H392" s="32"/>
+      <c r="I392" s="32"/>
+    </row>
+    <row r="393" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H393" s="32"/>
+      <c r="I393" s="32"/>
+    </row>
+    <row r="394" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H394" s="32"/>
+      <c r="I394" s="32"/>
+    </row>
+    <row r="395" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H395" s="32"/>
+      <c r="I395" s="32"/>
+    </row>
+    <row r="396" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H396" s="32"/>
+      <c r="I396" s="32"/>
+    </row>
+    <row r="397" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H397" s="32"/>
+      <c r="I397" s="32"/>
+    </row>
+    <row r="398" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H398" s="32"/>
+      <c r="I398" s="32"/>
+    </row>
+    <row r="399" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H399" s="32"/>
+      <c r="I399" s="32"/>
+    </row>
+    <row r="400" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H400" s="32"/>
+      <c r="I400" s="32"/>
+    </row>
+    <row r="401" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H401" s="32"/>
+      <c r="I401" s="32"/>
+    </row>
+    <row r="402" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H402" s="32"/>
+      <c r="I402" s="32"/>
+    </row>
+    <row r="403" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H403" s="32"/>
+      <c r="I403" s="32"/>
+    </row>
+    <row r="404" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H404" s="32"/>
+      <c r="I404" s="32"/>
+    </row>
+    <row r="405" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H405" s="32"/>
+      <c r="I405" s="32"/>
+    </row>
+    <row r="406" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H406" s="32"/>
+      <c r="I406" s="32"/>
+    </row>
+    <row r="407" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H407" s="32"/>
+      <c r="I407" s="32"/>
+    </row>
+    <row r="408" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H408" s="32"/>
+      <c r="I408" s="32"/>
+    </row>
+    <row r="409" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H409" s="32"/>
+      <c r="I409" s="32"/>
+    </row>
+    <row r="410" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H410" s="32"/>
+      <c r="I410" s="32"/>
+    </row>
+    <row r="411" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H411" s="32"/>
+      <c r="I411" s="32"/>
+    </row>
+    <row r="412" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H412" s="32"/>
+      <c r="I412" s="32"/>
+    </row>
+    <row r="413" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H413" s="32"/>
+      <c r="I413" s="32"/>
+    </row>
+    <row r="414" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H414" s="32"/>
+      <c r="I414" s="32"/>
+    </row>
+    <row r="415" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H415" s="32"/>
+      <c r="I415" s="32"/>
+    </row>
+    <row r="416" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H416" s="32"/>
+      <c r="I416" s="32"/>
+    </row>
+    <row r="417" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H417" s="32"/>
+      <c r="I417" s="32"/>
+    </row>
+    <row r="418" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H418" s="32"/>
+      <c r="I418" s="32"/>
+    </row>
+    <row r="419" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H419" s="32"/>
+      <c r="I419" s="32"/>
+    </row>
+    <row r="420" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H420" s="32"/>
+      <c r="I420" s="32"/>
+    </row>
+    <row r="421" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H421" s="32"/>
+      <c r="I421" s="32"/>
+    </row>
+    <row r="422" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H422" s="32"/>
+      <c r="I422" s="32"/>
+    </row>
+    <row r="423" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H423" s="32"/>
+      <c r="I423" s="32"/>
+    </row>
+    <row r="424" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H424" s="32"/>
+      <c r="I424" s="32"/>
+    </row>
+    <row r="425" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H425" s="32"/>
+      <c r="I425" s="32"/>
+    </row>
+    <row r="426" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H426" s="32"/>
+      <c r="I426" s="32"/>
+    </row>
+    <row r="427" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H427" s="32"/>
+      <c r="I427" s="32"/>
+    </row>
+    <row r="428" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H428" s="32"/>
+      <c r="I428" s="32"/>
+    </row>
+    <row r="429" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H429" s="32"/>
+      <c r="I429" s="32"/>
+    </row>
+    <row r="430" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H430" s="32"/>
+      <c r="I430" s="32"/>
+    </row>
+    <row r="431" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H431" s="32"/>
+      <c r="I431" s="32"/>
+    </row>
+    <row r="432" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H432" s="32"/>
+      <c r="I432" s="32"/>
+    </row>
+    <row r="433" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H433" s="32"/>
+      <c r="I433" s="32"/>
+    </row>
+    <row r="434" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H434" s="32"/>
+      <c r="I434" s="32"/>
+    </row>
+    <row r="435" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H435" s="32"/>
+      <c r="I435" s="32"/>
+    </row>
+    <row r="436" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H436" s="32"/>
+      <c r="I436" s="32"/>
+    </row>
+    <row r="437" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H437" s="32"/>
+      <c r="I437" s="32"/>
+    </row>
+    <row r="438" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H438" s="32"/>
+      <c r="I438" s="32"/>
+    </row>
+    <row r="439" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H439" s="32"/>
+      <c r="I439" s="32"/>
+    </row>
+    <row r="440" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H440" s="32"/>
+      <c r="I440" s="32"/>
+    </row>
+    <row r="441" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H441" s="32"/>
+      <c r="I441" s="32"/>
+    </row>
+    <row r="442" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H442" s="32"/>
+      <c r="I442" s="32"/>
+    </row>
+    <row r="443" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H443" s="32"/>
+      <c r="I443" s="32"/>
+    </row>
+    <row r="444" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H444" s="32"/>
+      <c r="I444" s="32"/>
+    </row>
+    <row r="445" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H445" s="32"/>
+      <c r="I445" s="32"/>
+    </row>
+    <row r="446" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H446" s="32"/>
+      <c r="I446" s="32"/>
+    </row>
+    <row r="447" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H447" s="32"/>
+      <c r="I447" s="32"/>
+    </row>
+    <row r="448" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H448" s="32"/>
+      <c r="I448" s="32"/>
+    </row>
+    <row r="449" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H449" s="32"/>
+      <c r="I449" s="32"/>
+    </row>
+    <row r="450" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H450" s="32"/>
+      <c r="I450" s="32"/>
+    </row>
+    <row r="451" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H451" s="32"/>
+      <c r="I451" s="32"/>
+    </row>
+    <row r="452" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H452" s="32"/>
+      <c r="I452" s="32"/>
+    </row>
+    <row r="453" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H453" s="32"/>
+      <c r="I453" s="32"/>
+    </row>
+    <row r="454" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H454" s="32"/>
+      <c r="I454" s="32"/>
+    </row>
+    <row r="455" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H455" s="32"/>
+      <c r="I455" s="32"/>
+    </row>
+    <row r="456" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H456" s="32"/>
+      <c r="I456" s="32"/>
+    </row>
+    <row r="457" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H457" s="32"/>
+      <c r="I457" s="32"/>
+    </row>
+    <row r="458" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H458" s="32"/>
+      <c r="I458" s="32"/>
+    </row>
+    <row r="459" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H459" s="32"/>
+      <c r="I459" s="32"/>
+    </row>
+    <row r="460" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H460" s="32"/>
+      <c r="I460" s="32"/>
+    </row>
+    <row r="461" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H461" s="32"/>
+      <c r="I461" s="32"/>
+    </row>
+    <row r="462" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H462" s="32"/>
+      <c r="I462" s="32"/>
+    </row>
+    <row r="463" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H463" s="32"/>
+      <c r="I463" s="32"/>
+    </row>
+    <row r="464" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H464" s="32"/>
+      <c r="I464" s="32"/>
+    </row>
+    <row r="465" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H465" s="32"/>
+      <c r="I465" s="32"/>
+    </row>
+    <row r="466" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H466" s="32"/>
+      <c r="I466" s="32"/>
+    </row>
+    <row r="467" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H467" s="32"/>
+      <c r="I467" s="32"/>
+    </row>
+    <row r="468" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H468" s="32"/>
+      <c r="I468" s="32"/>
+    </row>
+    <row r="469" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H469" s="32"/>
+      <c r="I469" s="32"/>
+    </row>
+    <row r="470" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H470" s="32"/>
+      <c r="I470" s="32"/>
+    </row>
+    <row r="471" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H471" s="32"/>
+      <c r="I471" s="32"/>
+    </row>
+    <row r="472" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H472" s="32"/>
+      <c r="I472" s="32"/>
+    </row>
+    <row r="473" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H473" s="32"/>
+      <c r="I473" s="32"/>
+    </row>
+    <row r="474" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H474" s="32"/>
+      <c r="I474" s="32"/>
+    </row>
+    <row r="475" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H475" s="32"/>
+      <c r="I475" s="32"/>
+    </row>
+    <row r="476" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H476" s="32"/>
+      <c r="I476" s="32"/>
+    </row>
+    <row r="477" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H477" s="32"/>
+      <c r="I477" s="32"/>
+    </row>
+    <row r="478" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H478" s="32"/>
+      <c r="I478" s="32"/>
+    </row>
+    <row r="479" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H479" s="32"/>
+      <c r="I479" s="32"/>
+    </row>
+    <row r="480" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H480" s="32"/>
+      <c r="I480" s="32"/>
+    </row>
+    <row r="481" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H481" s="32"/>
+      <c r="I481" s="32"/>
+    </row>
+    <row r="482" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H482" s="32"/>
+      <c r="I482" s="32"/>
+    </row>
+    <row r="483" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H483" s="32"/>
+      <c r="I483" s="32"/>
+    </row>
+    <row r="484" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H484" s="32"/>
+      <c r="I484" s="32"/>
+    </row>
+    <row r="485" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H485" s="32"/>
+      <c r="I485" s="32"/>
+    </row>
+    <row r="486" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H486" s="32"/>
+      <c r="I486" s="32"/>
+    </row>
+    <row r="487" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H487" s="32"/>
+      <c r="I487" s="32"/>
+    </row>
+    <row r="488" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H488" s="32"/>
+      <c r="I488" s="32"/>
+    </row>
+    <row r="489" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H489" s="32"/>
+      <c r="I489" s="32"/>
+    </row>
+    <row r="490" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H490" s="32"/>
+      <c r="I490" s="32"/>
+    </row>
+    <row r="491" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H491" s="32"/>
+      <c r="I491" s="32"/>
+    </row>
+    <row r="492" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H492" s="32"/>
+      <c r="I492" s="32"/>
+    </row>
+    <row r="493" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H493" s="32"/>
+      <c r="I493" s="32"/>
+    </row>
+    <row r="494" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H494" s="32"/>
+      <c r="I494" s="32"/>
+    </row>
+    <row r="495" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H495" s="32"/>
+      <c r="I495" s="32"/>
+    </row>
+    <row r="496" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H496" s="32"/>
+      <c r="I496" s="32"/>
+    </row>
+    <row r="497" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H497" s="32"/>
+      <c r="I497" s="32"/>
+    </row>
+    <row r="498" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H498" s="32"/>
+      <c r="I498" s="32"/>
+    </row>
+    <row r="499" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H499" s="32"/>
+      <c r="I499" s="32"/>
+    </row>
+    <row r="500" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H500" s="32"/>
+      <c r="I500" s="32"/>
+    </row>
+    <row r="501" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H501" s="32"/>
+      <c r="I501" s="32"/>
+    </row>
+    <row r="502" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H502" s="32"/>
+      <c r="I502" s="32"/>
+    </row>
+    <row r="503" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H503" s="32"/>
+      <c r="I503" s="32"/>
+    </row>
+    <row r="504" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H504" s="32"/>
+      <c r="I504" s="32"/>
+    </row>
+    <row r="505" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H505" s="32"/>
+      <c r="I505" s="32"/>
+    </row>
+    <row r="506" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H506" s="32"/>
+      <c r="I506" s="32"/>
+    </row>
+    <row r="507" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H507" s="32"/>
+      <c r="I507" s="32"/>
+    </row>
+    <row r="508" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H508" s="32"/>
+      <c r="I508" s="32"/>
+    </row>
+    <row r="509" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H509" s="32"/>
+      <c r="I509" s="32"/>
+    </row>
+    <row r="510" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H510" s="32"/>
+      <c r="I510" s="32"/>
+    </row>
+    <row r="511" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H511" s="32"/>
+      <c r="I511" s="32"/>
+    </row>
+    <row r="512" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H512" s="32"/>
+      <c r="I512" s="32"/>
+    </row>
+    <row r="513" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H513" s="32"/>
+      <c r="I513" s="32"/>
+    </row>
+    <row r="514" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H514" s="32"/>
+      <c r="I514" s="32"/>
+    </row>
+    <row r="515" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H515" s="32"/>
+      <c r="I515" s="32"/>
+    </row>
+    <row r="516" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H516" s="32"/>
+      <c r="I516" s="32"/>
+    </row>
+    <row r="517" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H517" s="32"/>
+      <c r="I517" s="32"/>
+    </row>
+    <row r="518" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H518" s="32"/>
+      <c r="I518" s="32"/>
+    </row>
+    <row r="519" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H519" s="32"/>
+      <c r="I519" s="32"/>
+    </row>
+    <row r="520" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H520" s="32"/>
+      <c r="I520" s="32"/>
+    </row>
+    <row r="521" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H521" s="32"/>
+      <c r="I521" s="32"/>
+    </row>
+    <row r="522" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H522" s="32"/>
+      <c r="I522" s="32"/>
+    </row>
+    <row r="523" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H523" s="32"/>
+      <c r="I523" s="32"/>
+    </row>
+    <row r="524" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H524" s="32"/>
+      <c r="I524" s="32"/>
+    </row>
+    <row r="525" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H525" s="32"/>
+      <c r="I525" s="32"/>
+    </row>
+    <row r="526" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H526" s="32"/>
+      <c r="I526" s="32"/>
+    </row>
+    <row r="527" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H527" s="32"/>
+      <c r="I527" s="32"/>
+    </row>
+    <row r="528" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H528" s="32"/>
+      <c r="I528" s="32"/>
+    </row>
+    <row r="529" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H529" s="32"/>
+      <c r="I529" s="32"/>
+    </row>
+    <row r="530" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H530" s="32"/>
+      <c r="I530" s="32"/>
+    </row>
+    <row r="531" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H531" s="32"/>
+      <c r="I531" s="32"/>
+    </row>
+    <row r="532" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H532" s="32"/>
+      <c r="I532" s="32"/>
+    </row>
+    <row r="533" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H533" s="32"/>
+      <c r="I533" s="32"/>
+    </row>
+    <row r="534" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H534" s="32"/>
+      <c r="I534" s="32"/>
+    </row>
+    <row r="535" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H535" s="32"/>
+      <c r="I535" s="32"/>
+    </row>
+    <row r="536" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H536" s="32"/>
+      <c r="I536" s="32"/>
+    </row>
+    <row r="537" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H537" s="32"/>
+      <c r="I537" s="32"/>
+    </row>
+    <row r="538" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H538" s="32"/>
+      <c r="I538" s="32"/>
+    </row>
+    <row r="539" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H539" s="32"/>
+      <c r="I539" s="32"/>
+    </row>
+    <row r="540" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H540" s="32"/>
+      <c r="I540" s="32"/>
+    </row>
+    <row r="541" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H541" s="32"/>
+      <c r="I541" s="32"/>
+    </row>
+    <row r="542" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H542" s="32"/>
+      <c r="I542" s="32"/>
+    </row>
+    <row r="543" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H543" s="32"/>
+      <c r="I543" s="32"/>
+    </row>
+    <row r="544" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H544" s="32"/>
+      <c r="I544" s="32"/>
+    </row>
+    <row r="545" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H545" s="32"/>
+      <c r="I545" s="32"/>
+    </row>
+    <row r="546" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H546" s="32"/>
+      <c r="I546" s="32"/>
+    </row>
+    <row r="547" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H547" s="32"/>
+      <c r="I547" s="32"/>
+    </row>
+    <row r="548" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H548" s="32"/>
+      <c r="I548" s="32"/>
+    </row>
+    <row r="549" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H549" s="32"/>
+      <c r="I549" s="32"/>
+    </row>
+    <row r="550" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H550" s="32"/>
+      <c r="I550" s="32"/>
+    </row>
+    <row r="551" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H551" s="32"/>
+      <c r="I551" s="32"/>
+    </row>
+    <row r="552" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H552" s="32"/>
+      <c r="I552" s="32"/>
+    </row>
+    <row r="553" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H553" s="32"/>
+      <c r="I553" s="32"/>
+    </row>
+    <row r="554" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H554" s="32"/>
+      <c r="I554" s="32"/>
+    </row>
+    <row r="555" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H555" s="32"/>
+      <c r="I555" s="32"/>
+    </row>
+    <row r="556" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H556" s="32"/>
+      <c r="I556" s="32"/>
+    </row>
+    <row r="557" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H557" s="32"/>
+      <c r="I557" s="32"/>
+    </row>
+    <row r="558" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H558" s="32"/>
+      <c r="I558" s="32"/>
+    </row>
+    <row r="559" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H559" s="32"/>
+      <c r="I559" s="32"/>
+    </row>
+    <row r="560" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H560" s="32"/>
+      <c r="I560" s="32"/>
+    </row>
+    <row r="561" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H561" s="32"/>
+      <c r="I561" s="32"/>
+    </row>
+    <row r="562" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H562" s="32"/>
+      <c r="I562" s="32"/>
+    </row>
+    <row r="563" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H563" s="32"/>
+      <c r="I563" s="32"/>
+    </row>
+    <row r="564" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H564" s="32"/>
+      <c r="I564" s="32"/>
+    </row>
+    <row r="565" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H565" s="32"/>
+      <c r="I565" s="32"/>
+    </row>
+    <row r="566" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H566" s="32"/>
+      <c r="I566" s="32"/>
+    </row>
+    <row r="567" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H567" s="32"/>
+      <c r="I567" s="32"/>
+    </row>
+    <row r="568" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H568" s="32"/>
+      <c r="I568" s="32"/>
+    </row>
+    <row r="569" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H569" s="32"/>
+      <c r="I569" s="32"/>
+    </row>
+    <row r="570" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H570" s="32"/>
+      <c r="I570" s="32"/>
+    </row>
+    <row r="571" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H571" s="32"/>
+      <c r="I571" s="32"/>
+    </row>
+    <row r="572" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H572" s="32"/>
+      <c r="I572" s="32"/>
+    </row>
+    <row r="573" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H573" s="32"/>
+      <c r="I573" s="32"/>
+    </row>
+    <row r="574" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H574" s="32"/>
+      <c r="I574" s="32"/>
+    </row>
+    <row r="575" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H575" s="32"/>
+      <c r="I575" s="32"/>
+    </row>
+    <row r="576" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H576" s="32"/>
+      <c r="I576" s="32"/>
+    </row>
+    <row r="577" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H577" s="32"/>
+      <c r="I577" s="32"/>
+    </row>
+    <row r="578" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H578" s="32"/>
+      <c r="I578" s="32"/>
+    </row>
+    <row r="579" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H579" s="32"/>
+      <c r="I579" s="32"/>
+    </row>
+    <row r="580" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H580" s="32"/>
+      <c r="I580" s="32"/>
+    </row>
+    <row r="581" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H581" s="32"/>
+      <c r="I581" s="32"/>
+    </row>
+    <row r="582" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H582" s="32"/>
+      <c r="I582" s="32"/>
+    </row>
+    <row r="583" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H583" s="32"/>
+      <c r="I583" s="32"/>
+    </row>
+    <row r="584" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H584" s="32"/>
+      <c r="I584" s="32"/>
+    </row>
+    <row r="1048566" spans="11:210" x14ac:dyDescent="0.25">
+      <c r="K1048566" s="42"/>
+      <c r="L1048566" s="38"/>
+      <c r="M1048566" s="38"/>
+      <c r="N1048566" s="38"/>
+      <c r="O1048566" s="38"/>
+      <c r="P1048566" s="38"/>
+      <c r="Q1048566" s="38"/>
+      <c r="R1048566" s="38"/>
+      <c r="S1048566" s="38"/>
+      <c r="T1048566" s="38"/>
+      <c r="U1048566" s="38"/>
+      <c r="V1048566" s="38"/>
+      <c r="W1048566" s="38"/>
+      <c r="X1048566" s="38"/>
+      <c r="Y1048566" s="38"/>
+      <c r="Z1048566" s="38"/>
+      <c r="AA1048566" s="38"/>
+      <c r="AB1048566" s="38"/>
+      <c r="AC1048566" s="38"/>
+      <c r="AD1048566" s="38"/>
+      <c r="AE1048566" s="38"/>
+      <c r="AF1048566" s="38"/>
+      <c r="AG1048566" s="38"/>
+      <c r="AH1048566" s="38"/>
+      <c r="AI1048566" s="38"/>
+      <c r="AJ1048566" s="38"/>
+      <c r="AK1048566" s="38"/>
+      <c r="AL1048566" s="38"/>
+      <c r="AM1048566" s="38"/>
+      <c r="AN1048566" s="38"/>
+      <c r="AO1048566" s="38"/>
+      <c r="AP1048566" s="38"/>
+      <c r="AQ1048566" s="38"/>
+      <c r="AR1048566" s="38"/>
+      <c r="AS1048566" s="38"/>
+      <c r="AT1048566" s="38"/>
+      <c r="AU1048566" s="38"/>
+      <c r="AV1048566" s="38"/>
+      <c r="AW1048566" s="38"/>
+      <c r="AX1048566" s="38"/>
+      <c r="AY1048566" s="38"/>
+      <c r="AZ1048566" s="38"/>
+      <c r="BA1048566" s="38"/>
+      <c r="BB1048566" s="38"/>
+      <c r="BC1048566" s="38"/>
+      <c r="BD1048566" s="38"/>
+      <c r="BE1048566" s="38"/>
+      <c r="BF1048566" s="38"/>
+      <c r="BG1048566" s="38"/>
+      <c r="BH1048566" s="38"/>
+      <c r="BI1048566" s="38"/>
+      <c r="BJ1048566" s="38"/>
+      <c r="BK1048566" s="38"/>
+      <c r="BL1048566" s="38"/>
+      <c r="BM1048566" s="38"/>
+      <c r="BN1048566" s="38"/>
+      <c r="BO1048566" s="38"/>
+      <c r="BP1048566" s="38"/>
+      <c r="BQ1048566" s="38"/>
+      <c r="BR1048566" s="38"/>
+      <c r="BS1048566" s="38"/>
+      <c r="BT1048566" s="38"/>
+      <c r="BU1048566" s="38"/>
+      <c r="BV1048566" s="38"/>
+      <c r="BW1048566" s="38"/>
+      <c r="BX1048566" s="38"/>
+      <c r="BY1048566" s="38"/>
+      <c r="BZ1048566" s="38"/>
+      <c r="CA1048566" s="38"/>
+      <c r="CB1048566" s="38"/>
+      <c r="CC1048566" s="38"/>
+      <c r="CD1048566" s="38"/>
+      <c r="CE1048566" s="38"/>
+      <c r="CF1048566" s="38"/>
+      <c r="CG1048566" s="38"/>
+      <c r="CH1048566" s="38"/>
+      <c r="CI1048566" s="38"/>
+      <c r="CJ1048566" s="38"/>
+      <c r="CK1048566" s="38"/>
+      <c r="CL1048566" s="38"/>
+      <c r="CM1048566" s="38"/>
+      <c r="CN1048566" s="38"/>
+      <c r="CO1048566" s="38"/>
+      <c r="CP1048566" s="38"/>
+      <c r="CQ1048566" s="38"/>
+      <c r="CR1048566" s="38"/>
+      <c r="CS1048566" s="38"/>
+      <c r="CT1048566" s="38"/>
+      <c r="CU1048566" s="38"/>
+      <c r="CV1048566" s="38"/>
+      <c r="CW1048566" s="38"/>
+      <c r="CX1048566" s="38"/>
+      <c r="CY1048566" s="38"/>
+      <c r="CZ1048566" s="38"/>
+      <c r="DA1048566" s="38"/>
+      <c r="DB1048566" s="38"/>
+      <c r="DC1048566" s="38"/>
+      <c r="DD1048566" s="38"/>
+      <c r="DE1048566" s="38"/>
+      <c r="DF1048566" s="38"/>
+      <c r="DG1048566" s="38"/>
+      <c r="DH1048566" s="38"/>
+      <c r="DI1048566" s="38"/>
+      <c r="DJ1048566" s="38"/>
+      <c r="DK1048566" s="38"/>
+      <c r="DL1048566" s="38"/>
+      <c r="DM1048566" s="38"/>
+      <c r="DN1048566" s="38"/>
+      <c r="DO1048566" s="38"/>
+      <c r="DP1048566" s="38"/>
+      <c r="DQ1048566" s="38"/>
+      <c r="DR1048566" s="38"/>
+      <c r="DS1048566" s="38"/>
+      <c r="DT1048566" s="38"/>
+      <c r="DU1048566" s="38"/>
+      <c r="DV1048566" s="38"/>
+      <c r="DW1048566" s="38"/>
+      <c r="DX1048566" s="38"/>
+      <c r="DY1048566" s="38"/>
+      <c r="DZ1048566" s="38"/>
+      <c r="EA1048566" s="38"/>
+      <c r="EB1048566" s="38"/>
+      <c r="EC1048566" s="38"/>
+      <c r="ED1048566" s="38"/>
+      <c r="EE1048566" s="38"/>
+      <c r="EF1048566" s="38"/>
+      <c r="EG1048566" s="38"/>
+      <c r="EH1048566" s="38"/>
+      <c r="EI1048566" s="38"/>
+      <c r="EJ1048566" s="38"/>
+      <c r="EK1048566" s="38"/>
+      <c r="EL1048566" s="38"/>
+      <c r="EM1048566" s="38"/>
+      <c r="EN1048566" s="38"/>
+      <c r="EO1048566" s="38"/>
+      <c r="EP1048566" s="38"/>
+      <c r="EQ1048566" s="38"/>
+      <c r="ER1048566" s="38"/>
+      <c r="ES1048566" s="38"/>
+      <c r="ET1048566" s="38"/>
+      <c r="EU1048566" s="38"/>
+      <c r="EV1048566" s="38"/>
+      <c r="EW1048566" s="38"/>
+      <c r="EX1048566" s="38"/>
+      <c r="EY1048566" s="38"/>
+      <c r="EZ1048566" s="38"/>
+      <c r="FA1048566" s="38"/>
+      <c r="FB1048566" s="38"/>
+      <c r="FC1048566" s="38"/>
+      <c r="FD1048566" s="38"/>
+      <c r="FE1048566" s="38"/>
+      <c r="FF1048566" s="38"/>
+      <c r="FG1048566" s="38"/>
+      <c r="FH1048566" s="38"/>
+      <c r="FI1048566" s="38"/>
+      <c r="FJ1048566" s="38"/>
+      <c r="FK1048566" s="38"/>
+      <c r="FL1048566" s="38"/>
+      <c r="FM1048566" s="38"/>
+      <c r="FN1048566" s="38"/>
+      <c r="FO1048566" s="38"/>
+      <c r="FP1048566" s="38"/>
+      <c r="FQ1048566" s="38"/>
+      <c r="FR1048566" s="38"/>
+      <c r="FS1048566" s="38"/>
+      <c r="FT1048566" s="38"/>
+      <c r="FU1048566" s="38"/>
+      <c r="FV1048566" s="38"/>
+      <c r="FW1048566" s="38"/>
+      <c r="FX1048566" s="38"/>
+      <c r="FY1048566" s="38"/>
+      <c r="FZ1048566" s="38"/>
+      <c r="GA1048566" s="38"/>
+      <c r="GB1048566" s="38"/>
+      <c r="GC1048566" s="38"/>
+      <c r="GD1048566" s="38"/>
+      <c r="GE1048566" s="38"/>
+      <c r="GF1048566" s="38"/>
+      <c r="GG1048566" s="38"/>
+      <c r="GH1048566" s="38"/>
+      <c r="GI1048566" s="38"/>
+      <c r="GJ1048566" s="38"/>
+      <c r="GK1048566" s="38"/>
+      <c r="GL1048566" s="38"/>
+      <c r="GM1048566" s="38"/>
+      <c r="GN1048566" s="38"/>
+      <c r="GO1048566" s="38"/>
+      <c r="GP1048566" s="38"/>
+      <c r="GQ1048566" s="38"/>
+      <c r="GR1048566" s="38"/>
+      <c r="GS1048566" s="38"/>
+      <c r="GT1048566" s="38"/>
+      <c r="GU1048566" s="38"/>
+      <c r="GV1048566" s="38"/>
+      <c r="GW1048566" s="38"/>
+      <c r="GX1048566" s="38"/>
+      <c r="GY1048566" s="38"/>
+      <c r="GZ1048566" s="38"/>
+      <c r="HA1048566" s="38"/>
+      <c r="HB1048566" s="41"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="I3:GZ3"/>
+    <mergeCell ref="K3:HB3"/>
     <mergeCell ref="B2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B4:G7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:G1048576 I10:GZ1048576">
+  <conditionalFormatting sqref="K9:HB1048576 B9:I1048576">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>B10=""</formula>
+      <formula>B9=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:G9 H4:H9" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 D8:J8" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" location="catchUnits" display="Discard unit" xr:uid="{8E2457EF-BFD9-4480-93F6-844FC19CD52F}"/>
-    <hyperlink ref="D9" r:id="rId2" location="location" xr:uid="{F95149BA-1BB2-46CC-A86F-36B6AC4AFBA6}"/>
-    <hyperlink ref="F9" r:id="rId3" location="discardReasons" display="Disc. reason" xr:uid="{4B127CA8-AB4F-43B9-B5B8-5A77A85A9028}"/>
-    <hyperlink ref="H4" r:id="rId4" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
-    <hyperlink ref="H5" r:id="rId5" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
-    <hyperlink ref="H6" r:id="rId6" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
-    <hyperlink ref="H7" r:id="rId7" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
-    <hyperlink ref="C9" r:id="rId8" location="FAOareas" xr:uid="{7039DDEA-FA37-4454-A0A6-E5E4EB85C998}"/>
+    <hyperlink ref="J8" r:id="rId1" location="catchUnits" display="Discard unit" xr:uid="{8E2457EF-BFD9-4480-93F6-844FC19CD52F}"/>
+    <hyperlink ref="D8" r:id="rId2" location="location" xr:uid="{F95149BA-1BB2-46CC-A86F-36B6AC4AFBA6}"/>
+    <hyperlink ref="F8" r:id="rId3" location="discardReasons" display="Disc. reason" xr:uid="{4B127CA8-AB4F-43B9-B5B8-5A77A85A9028}"/>
+    <hyperlink ref="J4" r:id="rId4" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
+    <hyperlink ref="J5" r:id="rId5" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
+    <hyperlink ref="J6" r:id="rId6" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
+    <hyperlink ref="J7" r:id="rId7" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
+    <hyperlink ref="C8" r:id="rId8" location="FAOareas" xr:uid="{7039DDEA-FA37-4454-A0A6-E5E4EB85C998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>

--- a/form_reporting_templates/Form-7PR.xlsx
+++ b/form_reporting_templates/Form-7PR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC0C903-0934-4D87-80C7-BED8CED15032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816C2CB-156B-4E11-93DD-BEB4EF082183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -143,8 +143,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -628,10 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -706,6 +702,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -748,32 +769,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,9 +800,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -842,7 +840,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -948,7 +946,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,7 +1088,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1100,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,24 +1114,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1183,15 +1181,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,7 +1232,7 @@
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1245,7 +1243,7 @@
       <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="80"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1294,18 +1292,18 @@
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="10"/>
       <c r="F19" s="14"/>
       <c r="G19" s="17"/>
@@ -1313,10 +1311,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1362,11 +1360,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1383,7 +1381,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z9pucA6KRs3AA+/9HAeqFEMWGU/dU345qrETg0tizx+cAbJHCMutqw4klKJJG/M+z+Mu+PKk292eprFyGY6p/g==" saltValue="W0HahG3O538sp7LCdLOFOA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1408,34 +1406,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HB1048565"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="10" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="14" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="45"/>
-    <col min="12" max="209" width="9.140625" style="46"/>
-    <col min="210" max="210" width="9.140625" style="47"/>
+    <col min="2" max="2" width="15.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="44"/>
+    <col min="12" max="209" width="9.140625" style="45"/>
+    <col min="210" max="210" width="9.140625" style="46"/>
     <col min="211" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:210" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:210" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="30"/>
@@ -1649,230 +1647,230 @@
     </row>
     <row r="3" spans="1:210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="65" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="66"/>
-      <c r="DC3" s="66"/>
-      <c r="DD3" s="66"/>
-      <c r="DE3" s="66"/>
-      <c r="DF3" s="66"/>
-      <c r="DG3" s="66"/>
-      <c r="DH3" s="66"/>
-      <c r="DI3" s="66"/>
-      <c r="DJ3" s="66"/>
-      <c r="DK3" s="66"/>
-      <c r="DL3" s="66"/>
-      <c r="DM3" s="66"/>
-      <c r="DN3" s="66"/>
-      <c r="DO3" s="66"/>
-      <c r="DP3" s="66"/>
-      <c r="DQ3" s="66"/>
-      <c r="DR3" s="66"/>
-      <c r="DS3" s="66"/>
-      <c r="DT3" s="66"/>
-      <c r="DU3" s="66"/>
-      <c r="DV3" s="66"/>
-      <c r="DW3" s="66"/>
-      <c r="DX3" s="66"/>
-      <c r="DY3" s="66"/>
-      <c r="DZ3" s="66"/>
-      <c r="EA3" s="66"/>
-      <c r="EB3" s="66"/>
-      <c r="EC3" s="66"/>
-      <c r="ED3" s="66"/>
-      <c r="EE3" s="66"/>
-      <c r="EF3" s="66"/>
-      <c r="EG3" s="66"/>
-      <c r="EH3" s="66"/>
-      <c r="EI3" s="66"/>
-      <c r="EJ3" s="66"/>
-      <c r="EK3" s="66"/>
-      <c r="EL3" s="66"/>
-      <c r="EM3" s="66"/>
-      <c r="EN3" s="66"/>
-      <c r="EO3" s="66"/>
-      <c r="EP3" s="66"/>
-      <c r="EQ3" s="66"/>
-      <c r="ER3" s="66"/>
-      <c r="ES3" s="66"/>
-      <c r="ET3" s="66"/>
-      <c r="EU3" s="66"/>
-      <c r="EV3" s="66"/>
-      <c r="EW3" s="66"/>
-      <c r="EX3" s="66"/>
-      <c r="EY3" s="66"/>
-      <c r="EZ3" s="66"/>
-      <c r="FA3" s="66"/>
-      <c r="FB3" s="66"/>
-      <c r="FC3" s="66"/>
-      <c r="FD3" s="66"/>
-      <c r="FE3" s="66"/>
-      <c r="FF3" s="66"/>
-      <c r="FG3" s="66"/>
-      <c r="FH3" s="66"/>
-      <c r="FI3" s="66"/>
-      <c r="FJ3" s="66"/>
-      <c r="FK3" s="66"/>
-      <c r="FL3" s="66"/>
-      <c r="FM3" s="66"/>
-      <c r="FN3" s="66"/>
-      <c r="FO3" s="66"/>
-      <c r="FP3" s="66"/>
-      <c r="FQ3" s="66"/>
-      <c r="FR3" s="66"/>
-      <c r="FS3" s="66"/>
-      <c r="FT3" s="66"/>
-      <c r="FU3" s="66"/>
-      <c r="FV3" s="66"/>
-      <c r="FW3" s="66"/>
-      <c r="FX3" s="66"/>
-      <c r="FY3" s="66"/>
-      <c r="FZ3" s="66"/>
-      <c r="GA3" s="66"/>
-      <c r="GB3" s="66"/>
-      <c r="GC3" s="66"/>
-      <c r="GD3" s="66"/>
-      <c r="GE3" s="66"/>
-      <c r="GF3" s="66"/>
-      <c r="GG3" s="66"/>
-      <c r="GH3" s="66"/>
-      <c r="GI3" s="66"/>
-      <c r="GJ3" s="66"/>
-      <c r="GK3" s="66"/>
-      <c r="GL3" s="66"/>
-      <c r="GM3" s="66"/>
-      <c r="GN3" s="66"/>
-      <c r="GO3" s="66"/>
-      <c r="GP3" s="66"/>
-      <c r="GQ3" s="66"/>
-      <c r="GR3" s="66"/>
-      <c r="GS3" s="66"/>
-      <c r="GT3" s="66"/>
-      <c r="GU3" s="66"/>
-      <c r="GV3" s="66"/>
-      <c r="GW3" s="66"/>
-      <c r="GX3" s="66"/>
-      <c r="GY3" s="66"/>
-      <c r="GZ3" s="66"/>
-      <c r="HA3" s="66"/>
-      <c r="HB3" s="67"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
+      <c r="BS3" s="78"/>
+      <c r="BT3" s="78"/>
+      <c r="BU3" s="78"/>
+      <c r="BV3" s="78"/>
+      <c r="BW3" s="78"/>
+      <c r="BX3" s="78"/>
+      <c r="BY3" s="78"/>
+      <c r="BZ3" s="78"/>
+      <c r="CA3" s="78"/>
+      <c r="CB3" s="78"/>
+      <c r="CC3" s="78"/>
+      <c r="CD3" s="78"/>
+      <c r="CE3" s="78"/>
+      <c r="CF3" s="78"/>
+      <c r="CG3" s="78"/>
+      <c r="CH3" s="78"/>
+      <c r="CI3" s="78"/>
+      <c r="CJ3" s="78"/>
+      <c r="CK3" s="78"/>
+      <c r="CL3" s="78"/>
+      <c r="CM3" s="78"/>
+      <c r="CN3" s="78"/>
+      <c r="CO3" s="78"/>
+      <c r="CP3" s="78"/>
+      <c r="CQ3" s="78"/>
+      <c r="CR3" s="78"/>
+      <c r="CS3" s="78"/>
+      <c r="CT3" s="78"/>
+      <c r="CU3" s="78"/>
+      <c r="CV3" s="78"/>
+      <c r="CW3" s="78"/>
+      <c r="CX3" s="78"/>
+      <c r="CY3" s="78"/>
+      <c r="CZ3" s="78"/>
+      <c r="DA3" s="78"/>
+      <c r="DB3" s="78"/>
+      <c r="DC3" s="78"/>
+      <c r="DD3" s="78"/>
+      <c r="DE3" s="78"/>
+      <c r="DF3" s="78"/>
+      <c r="DG3" s="78"/>
+      <c r="DH3" s="78"/>
+      <c r="DI3" s="78"/>
+      <c r="DJ3" s="78"/>
+      <c r="DK3" s="78"/>
+      <c r="DL3" s="78"/>
+      <c r="DM3" s="78"/>
+      <c r="DN3" s="78"/>
+      <c r="DO3" s="78"/>
+      <c r="DP3" s="78"/>
+      <c r="DQ3" s="78"/>
+      <c r="DR3" s="78"/>
+      <c r="DS3" s="78"/>
+      <c r="DT3" s="78"/>
+      <c r="DU3" s="78"/>
+      <c r="DV3" s="78"/>
+      <c r="DW3" s="78"/>
+      <c r="DX3" s="78"/>
+      <c r="DY3" s="78"/>
+      <c r="DZ3" s="78"/>
+      <c r="EA3" s="78"/>
+      <c r="EB3" s="78"/>
+      <c r="EC3" s="78"/>
+      <c r="ED3" s="78"/>
+      <c r="EE3" s="78"/>
+      <c r="EF3" s="78"/>
+      <c r="EG3" s="78"/>
+      <c r="EH3" s="78"/>
+      <c r="EI3" s="78"/>
+      <c r="EJ3" s="78"/>
+      <c r="EK3" s="78"/>
+      <c r="EL3" s="78"/>
+      <c r="EM3" s="78"/>
+      <c r="EN3" s="78"/>
+      <c r="EO3" s="78"/>
+      <c r="EP3" s="78"/>
+      <c r="EQ3" s="78"/>
+      <c r="ER3" s="78"/>
+      <c r="ES3" s="78"/>
+      <c r="ET3" s="78"/>
+      <c r="EU3" s="78"/>
+      <c r="EV3" s="78"/>
+      <c r="EW3" s="78"/>
+      <c r="EX3" s="78"/>
+      <c r="EY3" s="78"/>
+      <c r="EZ3" s="78"/>
+      <c r="FA3" s="78"/>
+      <c r="FB3" s="78"/>
+      <c r="FC3" s="78"/>
+      <c r="FD3" s="78"/>
+      <c r="FE3" s="78"/>
+      <c r="FF3" s="78"/>
+      <c r="FG3" s="78"/>
+      <c r="FH3" s="78"/>
+      <c r="FI3" s="78"/>
+      <c r="FJ3" s="78"/>
+      <c r="FK3" s="78"/>
+      <c r="FL3" s="78"/>
+      <c r="FM3" s="78"/>
+      <c r="FN3" s="78"/>
+      <c r="FO3" s="78"/>
+      <c r="FP3" s="78"/>
+      <c r="FQ3" s="78"/>
+      <c r="FR3" s="78"/>
+      <c r="FS3" s="78"/>
+      <c r="FT3" s="78"/>
+      <c r="FU3" s="78"/>
+      <c r="FV3" s="78"/>
+      <c r="FW3" s="78"/>
+      <c r="FX3" s="78"/>
+      <c r="FY3" s="78"/>
+      <c r="FZ3" s="78"/>
+      <c r="GA3" s="78"/>
+      <c r="GB3" s="78"/>
+      <c r="GC3" s="78"/>
+      <c r="GD3" s="78"/>
+      <c r="GE3" s="78"/>
+      <c r="GF3" s="78"/>
+      <c r="GG3" s="78"/>
+      <c r="GH3" s="78"/>
+      <c r="GI3" s="78"/>
+      <c r="GJ3" s="78"/>
+      <c r="GK3" s="78"/>
+      <c r="GL3" s="78"/>
+      <c r="GM3" s="78"/>
+      <c r="GN3" s="78"/>
+      <c r="GO3" s="78"/>
+      <c r="GP3" s="78"/>
+      <c r="GQ3" s="78"/>
+      <c r="GR3" s="78"/>
+      <c r="GS3" s="78"/>
+      <c r="GT3" s="78"/>
+      <c r="GU3" s="78"/>
+      <c r="GV3" s="78"/>
+      <c r="GW3" s="78"/>
+      <c r="GX3" s="78"/>
+      <c r="GY3" s="78"/>
+      <c r="GZ3" s="78"/>
+      <c r="HA3" s="78"/>
+      <c r="HB3" s="79"/>
     </row>
     <row r="4" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="39" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="38" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="25"/>
@@ -2077,15 +2075,15 @@
       <c r="HB4" s="27"/>
     </row>
     <row r="5" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="39" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="38" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="25"/>
@@ -2290,15 +2288,15 @@
       <c r="HB5" s="27"/>
     </row>
     <row r="6" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="39" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="38" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="25"/>
@@ -2503,15 +2501,15 @@
       <c r="HB6" s="27"/>
     </row>
     <row r="7" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="39" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="38" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="25"/>
@@ -2716,235 +2714,235 @@
       <c r="HB7" s="27"/>
     </row>
     <row r="8" spans="1:210" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="43"/>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BS8" s="43"/>
-      <c r="BT8" s="43"/>
-      <c r="BU8" s="43"/>
-      <c r="BV8" s="43"/>
-      <c r="BW8" s="43"/>
-      <c r="BX8" s="43"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
-      <c r="CL8" s="43"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
-      <c r="DA8" s="43"/>
-      <c r="DB8" s="43"/>
-      <c r="DC8" s="43"/>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
-      <c r="DI8" s="43"/>
-      <c r="DJ8" s="43"/>
-      <c r="DK8" s="43"/>
-      <c r="DL8" s="43"/>
-      <c r="DM8" s="43"/>
-      <c r="DN8" s="43"/>
-      <c r="DO8" s="43"/>
-      <c r="DP8" s="43"/>
-      <c r="DQ8" s="43"/>
-      <c r="DR8" s="43"/>
-      <c r="DS8" s="43"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="43"/>
-      <c r="DW8" s="43"/>
-      <c r="DX8" s="43"/>
-      <c r="DY8" s="43"/>
-      <c r="DZ8" s="43"/>
-      <c r="EA8" s="43"/>
-      <c r="EB8" s="43"/>
-      <c r="EC8" s="43"/>
-      <c r="ED8" s="43"/>
-      <c r="EE8" s="43"/>
-      <c r="EF8" s="43"/>
-      <c r="EG8" s="43"/>
-      <c r="EH8" s="43"/>
-      <c r="EI8" s="43"/>
-      <c r="EJ8" s="43"/>
-      <c r="EK8" s="43"/>
-      <c r="EL8" s="43"/>
-      <c r="EM8" s="43"/>
-      <c r="EN8" s="43"/>
-      <c r="EO8" s="43"/>
-      <c r="EP8" s="43"/>
-      <c r="EQ8" s="43"/>
-      <c r="ER8" s="43"/>
-      <c r="ES8" s="43"/>
-      <c r="ET8" s="43"/>
-      <c r="EU8" s="43"/>
-      <c r="EV8" s="43"/>
-      <c r="EW8" s="43"/>
-      <c r="EX8" s="43"/>
-      <c r="EY8" s="43"/>
-      <c r="EZ8" s="43"/>
-      <c r="FA8" s="43"/>
-      <c r="FB8" s="43"/>
-      <c r="FC8" s="43"/>
-      <c r="FD8" s="43"/>
-      <c r="FE8" s="43"/>
-      <c r="FF8" s="43"/>
-      <c r="FG8" s="43"/>
-      <c r="FH8" s="43"/>
-      <c r="FI8" s="43"/>
-      <c r="FJ8" s="43"/>
-      <c r="FK8" s="43"/>
-      <c r="FL8" s="43"/>
-      <c r="FM8" s="43"/>
-      <c r="FN8" s="43"/>
-      <c r="FO8" s="43"/>
-      <c r="FP8" s="43"/>
-      <c r="FQ8" s="43"/>
-      <c r="FR8" s="43"/>
-      <c r="FS8" s="43"/>
-      <c r="FT8" s="43"/>
-      <c r="FU8" s="43"/>
-      <c r="FV8" s="43"/>
-      <c r="FW8" s="43"/>
-      <c r="FX8" s="43"/>
-      <c r="FY8" s="43"/>
-      <c r="FZ8" s="43"/>
-      <c r="GA8" s="43"/>
-      <c r="GB8" s="43"/>
-      <c r="GC8" s="43"/>
-      <c r="GD8" s="43"/>
-      <c r="GE8" s="43"/>
-      <c r="GF8" s="43"/>
-      <c r="GG8" s="43"/>
-      <c r="GH8" s="43"/>
-      <c r="GI8" s="43"/>
-      <c r="GJ8" s="43"/>
-      <c r="GK8" s="43"/>
-      <c r="GL8" s="43"/>
-      <c r="GM8" s="43"/>
-      <c r="GN8" s="43"/>
-      <c r="GO8" s="43"/>
-      <c r="GP8" s="43"/>
-      <c r="GQ8" s="43"/>
-      <c r="GR8" s="43"/>
-      <c r="GS8" s="43"/>
-      <c r="GT8" s="43"/>
-      <c r="GU8" s="43"/>
-      <c r="GV8" s="43"/>
-      <c r="GW8" s="43"/>
-      <c r="GX8" s="43"/>
-      <c r="GY8" s="43"/>
-      <c r="GZ8" s="43"/>
-      <c r="HA8" s="43"/>
-      <c r="HB8" s="44"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="42"/>
+      <c r="AX8" s="42"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="42"/>
+      <c r="BA8" s="42"/>
+      <c r="BB8" s="42"/>
+      <c r="BC8" s="42"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="42"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="42"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="42"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="42"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+      <c r="CA8" s="42"/>
+      <c r="CB8" s="42"/>
+      <c r="CC8" s="42"/>
+      <c r="CD8" s="42"/>
+      <c r="CE8" s="42"/>
+      <c r="CF8" s="42"/>
+      <c r="CG8" s="42"/>
+      <c r="CH8" s="42"/>
+      <c r="CI8" s="42"/>
+      <c r="CJ8" s="42"/>
+      <c r="CK8" s="42"/>
+      <c r="CL8" s="42"/>
+      <c r="CM8" s="42"/>
+      <c r="CN8" s="42"/>
+      <c r="CO8" s="42"/>
+      <c r="CP8" s="42"/>
+      <c r="CQ8" s="42"/>
+      <c r="CR8" s="42"/>
+      <c r="CS8" s="42"/>
+      <c r="CT8" s="42"/>
+      <c r="CU8" s="42"/>
+      <c r="CV8" s="42"/>
+      <c r="CW8" s="42"/>
+      <c r="CX8" s="42"/>
+      <c r="CY8" s="42"/>
+      <c r="CZ8" s="42"/>
+      <c r="DA8" s="42"/>
+      <c r="DB8" s="42"/>
+      <c r="DC8" s="42"/>
+      <c r="DD8" s="42"/>
+      <c r="DE8" s="42"/>
+      <c r="DF8" s="42"/>
+      <c r="DG8" s="42"/>
+      <c r="DH8" s="42"/>
+      <c r="DI8" s="42"/>
+      <c r="DJ8" s="42"/>
+      <c r="DK8" s="42"/>
+      <c r="DL8" s="42"/>
+      <c r="DM8" s="42"/>
+      <c r="DN8" s="42"/>
+      <c r="DO8" s="42"/>
+      <c r="DP8" s="42"/>
+      <c r="DQ8" s="42"/>
+      <c r="DR8" s="42"/>
+      <c r="DS8" s="42"/>
+      <c r="DT8" s="42"/>
+      <c r="DU8" s="42"/>
+      <c r="DV8" s="42"/>
+      <c r="DW8" s="42"/>
+      <c r="DX8" s="42"/>
+      <c r="DY8" s="42"/>
+      <c r="DZ8" s="42"/>
+      <c r="EA8" s="42"/>
+      <c r="EB8" s="42"/>
+      <c r="EC8" s="42"/>
+      <c r="ED8" s="42"/>
+      <c r="EE8" s="42"/>
+      <c r="EF8" s="42"/>
+      <c r="EG8" s="42"/>
+      <c r="EH8" s="42"/>
+      <c r="EI8" s="42"/>
+      <c r="EJ8" s="42"/>
+      <c r="EK8" s="42"/>
+      <c r="EL8" s="42"/>
+      <c r="EM8" s="42"/>
+      <c r="EN8" s="42"/>
+      <c r="EO8" s="42"/>
+      <c r="EP8" s="42"/>
+      <c r="EQ8" s="42"/>
+      <c r="ER8" s="42"/>
+      <c r="ES8" s="42"/>
+      <c r="ET8" s="42"/>
+      <c r="EU8" s="42"/>
+      <c r="EV8" s="42"/>
+      <c r="EW8" s="42"/>
+      <c r="EX8" s="42"/>
+      <c r="EY8" s="42"/>
+      <c r="EZ8" s="42"/>
+      <c r="FA8" s="42"/>
+      <c r="FB8" s="42"/>
+      <c r="FC8" s="42"/>
+      <c r="FD8" s="42"/>
+      <c r="FE8" s="42"/>
+      <c r="FF8" s="42"/>
+      <c r="FG8" s="42"/>
+      <c r="FH8" s="42"/>
+      <c r="FI8" s="42"/>
+      <c r="FJ8" s="42"/>
+      <c r="FK8" s="42"/>
+      <c r="FL8" s="42"/>
+      <c r="FM8" s="42"/>
+      <c r="FN8" s="42"/>
+      <c r="FO8" s="42"/>
+      <c r="FP8" s="42"/>
+      <c r="FQ8" s="42"/>
+      <c r="FR8" s="42"/>
+      <c r="FS8" s="42"/>
+      <c r="FT8" s="42"/>
+      <c r="FU8" s="42"/>
+      <c r="FV8" s="42"/>
+      <c r="FW8" s="42"/>
+      <c r="FX8" s="42"/>
+      <c r="FY8" s="42"/>
+      <c r="FZ8" s="42"/>
+      <c r="GA8" s="42"/>
+      <c r="GB8" s="42"/>
+      <c r="GC8" s="42"/>
+      <c r="GD8" s="42"/>
+      <c r="GE8" s="42"/>
+      <c r="GF8" s="42"/>
+      <c r="GG8" s="42"/>
+      <c r="GH8" s="42"/>
+      <c r="GI8" s="42"/>
+      <c r="GJ8" s="42"/>
+      <c r="GK8" s="42"/>
+      <c r="GL8" s="42"/>
+      <c r="GM8" s="42"/>
+      <c r="GN8" s="42"/>
+      <c r="GO8" s="42"/>
+      <c r="GP8" s="42"/>
+      <c r="GQ8" s="42"/>
+      <c r="GR8" s="42"/>
+      <c r="GS8" s="42"/>
+      <c r="GT8" s="42"/>
+      <c r="GU8" s="42"/>
+      <c r="GV8" s="42"/>
+      <c r="GW8" s="42"/>
+      <c r="GX8" s="42"/>
+      <c r="GY8" s="42"/>
+      <c r="GZ8" s="42"/>
+      <c r="HA8" s="42"/>
+      <c r="HB8" s="43"/>
     </row>
     <row r="9" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
@@ -2954,7 +2952,7 @@
     </row>
     <row r="10" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
@@ -2964,7 +2962,7 @@
     </row>
     <row r="11" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
-      <c r="C11" s="50"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
@@ -2974,7 +2972,7 @@
     </row>
     <row r="12" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
@@ -2984,7 +2982,7 @@
     </row>
     <row r="13" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
-      <c r="C13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -2994,7 +2992,7 @@
     </row>
     <row r="14" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
-      <c r="C14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -3004,7 +3002,7 @@
     </row>
     <row r="15" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
-      <c r="C15" s="50"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -3014,7 +3012,7 @@
     </row>
     <row r="16" spans="1:210" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -3024,7 +3022,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
-      <c r="C17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
@@ -3034,7 +3032,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
-      <c r="C18" s="50"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
@@ -3044,7 +3042,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="50"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
@@ -3054,7 +3052,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
@@ -3064,7 +3062,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="50"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
@@ -3074,7 +3072,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
-      <c r="C22" s="50"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
@@ -3084,7 +3082,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
-      <c r="C23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
@@ -3094,7 +3092,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
-      <c r="C24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
@@ -3104,7 +3102,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="50"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -3114,7 +3112,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
-      <c r="C26" s="50"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -3124,7 +3122,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
-      <c r="C27" s="50"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -3134,7 +3132,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
-      <c r="C28" s="50"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -3144,7 +3142,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
-      <c r="C29" s="50"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -3154,7 +3152,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
-      <c r="C30" s="50"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
@@ -3164,7 +3162,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
-      <c r="C31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -3174,7 +3172,7 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
-      <c r="C32" s="50"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
@@ -3184,7 +3182,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
-      <c r="C33" s="50"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -3194,7 +3192,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
-      <c r="C34" s="50"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
@@ -3204,7 +3202,7 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
-      <c r="C35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
@@ -3214,7 +3212,7 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -3224,7 +3222,7 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
-      <c r="C37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
@@ -3234,7 +3232,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
-      <c r="C38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
@@ -3244,7 +3242,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
-      <c r="C39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
@@ -3254,7 +3252,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
-      <c r="C40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
@@ -3264,7 +3262,7 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
-      <c r="C41" s="50"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
@@ -3274,7 +3272,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
-      <c r="C42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
@@ -3284,7 +3282,7 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
-      <c r="C43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
@@ -3294,7 +3292,7 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
-      <c r="C44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
@@ -3304,7 +3302,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
-      <c r="C45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
@@ -3314,7 +3312,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
-      <c r="C46" s="50"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
@@ -3324,7 +3322,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -6013,206 +6011,206 @@
       <c r="I583" s="29"/>
     </row>
     <row r="1048565" spans="11:210" x14ac:dyDescent="0.25">
-      <c r="K1048565" s="37"/>
-      <c r="L1048565" s="35"/>
-      <c r="M1048565" s="35"/>
-      <c r="N1048565" s="35"/>
-      <c r="O1048565" s="35"/>
-      <c r="P1048565" s="35"/>
-      <c r="Q1048565" s="35"/>
-      <c r="R1048565" s="35"/>
-      <c r="S1048565" s="35"/>
-      <c r="T1048565" s="35"/>
-      <c r="U1048565" s="35"/>
-      <c r="V1048565" s="35"/>
-      <c r="W1048565" s="35"/>
-      <c r="X1048565" s="35"/>
-      <c r="Y1048565" s="35"/>
-      <c r="Z1048565" s="35"/>
-      <c r="AA1048565" s="35"/>
-      <c r="AB1048565" s="35"/>
-      <c r="AC1048565" s="35"/>
-      <c r="AD1048565" s="35"/>
-      <c r="AE1048565" s="35"/>
-      <c r="AF1048565" s="35"/>
-      <c r="AG1048565" s="35"/>
-      <c r="AH1048565" s="35"/>
-      <c r="AI1048565" s="35"/>
-      <c r="AJ1048565" s="35"/>
-      <c r="AK1048565" s="35"/>
-      <c r="AL1048565" s="35"/>
-      <c r="AM1048565" s="35"/>
-      <c r="AN1048565" s="35"/>
-      <c r="AO1048565" s="35"/>
-      <c r="AP1048565" s="35"/>
-      <c r="AQ1048565" s="35"/>
-      <c r="AR1048565" s="35"/>
-      <c r="AS1048565" s="35"/>
-      <c r="AT1048565" s="35"/>
-      <c r="AU1048565" s="35"/>
-      <c r="AV1048565" s="35"/>
-      <c r="AW1048565" s="35"/>
-      <c r="AX1048565" s="35"/>
-      <c r="AY1048565" s="35"/>
-      <c r="AZ1048565" s="35"/>
-      <c r="BA1048565" s="35"/>
-      <c r="BB1048565" s="35"/>
-      <c r="BC1048565" s="35"/>
-      <c r="BD1048565" s="35"/>
-      <c r="BE1048565" s="35"/>
-      <c r="BF1048565" s="35"/>
-      <c r="BG1048565" s="35"/>
-      <c r="BH1048565" s="35"/>
-      <c r="BI1048565" s="35"/>
-      <c r="BJ1048565" s="35"/>
-      <c r="BK1048565" s="35"/>
-      <c r="BL1048565" s="35"/>
-      <c r="BM1048565" s="35"/>
-      <c r="BN1048565" s="35"/>
-      <c r="BO1048565" s="35"/>
-      <c r="BP1048565" s="35"/>
-      <c r="BQ1048565" s="35"/>
-      <c r="BR1048565" s="35"/>
-      <c r="BS1048565" s="35"/>
-      <c r="BT1048565" s="35"/>
-      <c r="BU1048565" s="35"/>
-      <c r="BV1048565" s="35"/>
-      <c r="BW1048565" s="35"/>
-      <c r="BX1048565" s="35"/>
-      <c r="BY1048565" s="35"/>
-      <c r="BZ1048565" s="35"/>
-      <c r="CA1048565" s="35"/>
-      <c r="CB1048565" s="35"/>
-      <c r="CC1048565" s="35"/>
-      <c r="CD1048565" s="35"/>
-      <c r="CE1048565" s="35"/>
-      <c r="CF1048565" s="35"/>
-      <c r="CG1048565" s="35"/>
-      <c r="CH1048565" s="35"/>
-      <c r="CI1048565" s="35"/>
-      <c r="CJ1048565" s="35"/>
-      <c r="CK1048565" s="35"/>
-      <c r="CL1048565" s="35"/>
-      <c r="CM1048565" s="35"/>
-      <c r="CN1048565" s="35"/>
-      <c r="CO1048565" s="35"/>
-      <c r="CP1048565" s="35"/>
-      <c r="CQ1048565" s="35"/>
-      <c r="CR1048565" s="35"/>
-      <c r="CS1048565" s="35"/>
-      <c r="CT1048565" s="35"/>
-      <c r="CU1048565" s="35"/>
-      <c r="CV1048565" s="35"/>
-      <c r="CW1048565" s="35"/>
-      <c r="CX1048565" s="35"/>
-      <c r="CY1048565" s="35"/>
-      <c r="CZ1048565" s="35"/>
-      <c r="DA1048565" s="35"/>
-      <c r="DB1048565" s="35"/>
-      <c r="DC1048565" s="35"/>
-      <c r="DD1048565" s="35"/>
-      <c r="DE1048565" s="35"/>
-      <c r="DF1048565" s="35"/>
-      <c r="DG1048565" s="35"/>
-      <c r="DH1048565" s="35"/>
-      <c r="DI1048565" s="35"/>
-      <c r="DJ1048565" s="35"/>
-      <c r="DK1048565" s="35"/>
-      <c r="DL1048565" s="35"/>
-      <c r="DM1048565" s="35"/>
-      <c r="DN1048565" s="35"/>
-      <c r="DO1048565" s="35"/>
-      <c r="DP1048565" s="35"/>
-      <c r="DQ1048565" s="35"/>
-      <c r="DR1048565" s="35"/>
-      <c r="DS1048565" s="35"/>
-      <c r="DT1048565" s="35"/>
-      <c r="DU1048565" s="35"/>
-      <c r="DV1048565" s="35"/>
-      <c r="DW1048565" s="35"/>
-      <c r="DX1048565" s="35"/>
-      <c r="DY1048565" s="35"/>
-      <c r="DZ1048565" s="35"/>
-      <c r="EA1048565" s="35"/>
-      <c r="EB1048565" s="35"/>
-      <c r="EC1048565" s="35"/>
-      <c r="ED1048565" s="35"/>
-      <c r="EE1048565" s="35"/>
-      <c r="EF1048565" s="35"/>
-      <c r="EG1048565" s="35"/>
-      <c r="EH1048565" s="35"/>
-      <c r="EI1048565" s="35"/>
-      <c r="EJ1048565" s="35"/>
-      <c r="EK1048565" s="35"/>
-      <c r="EL1048565" s="35"/>
-      <c r="EM1048565" s="35"/>
-      <c r="EN1048565" s="35"/>
-      <c r="EO1048565" s="35"/>
-      <c r="EP1048565" s="35"/>
-      <c r="EQ1048565" s="35"/>
-      <c r="ER1048565" s="35"/>
-      <c r="ES1048565" s="35"/>
-      <c r="ET1048565" s="35"/>
-      <c r="EU1048565" s="35"/>
-      <c r="EV1048565" s="35"/>
-      <c r="EW1048565" s="35"/>
-      <c r="EX1048565" s="35"/>
-      <c r="EY1048565" s="35"/>
-      <c r="EZ1048565" s="35"/>
-      <c r="FA1048565" s="35"/>
-      <c r="FB1048565" s="35"/>
-      <c r="FC1048565" s="35"/>
-      <c r="FD1048565" s="35"/>
-      <c r="FE1048565" s="35"/>
-      <c r="FF1048565" s="35"/>
-      <c r="FG1048565" s="35"/>
-      <c r="FH1048565" s="35"/>
-      <c r="FI1048565" s="35"/>
-      <c r="FJ1048565" s="35"/>
-      <c r="FK1048565" s="35"/>
-      <c r="FL1048565" s="35"/>
-      <c r="FM1048565" s="35"/>
-      <c r="FN1048565" s="35"/>
-      <c r="FO1048565" s="35"/>
-      <c r="FP1048565" s="35"/>
-      <c r="FQ1048565" s="35"/>
-      <c r="FR1048565" s="35"/>
-      <c r="FS1048565" s="35"/>
-      <c r="FT1048565" s="35"/>
-      <c r="FU1048565" s="35"/>
-      <c r="FV1048565" s="35"/>
-      <c r="FW1048565" s="35"/>
-      <c r="FX1048565" s="35"/>
-      <c r="FY1048565" s="35"/>
-      <c r="FZ1048565" s="35"/>
-      <c r="GA1048565" s="35"/>
-      <c r="GB1048565" s="35"/>
-      <c r="GC1048565" s="35"/>
-      <c r="GD1048565" s="35"/>
-      <c r="GE1048565" s="35"/>
-      <c r="GF1048565" s="35"/>
-      <c r="GG1048565" s="35"/>
-      <c r="GH1048565" s="35"/>
-      <c r="GI1048565" s="35"/>
-      <c r="GJ1048565" s="35"/>
-      <c r="GK1048565" s="35"/>
-      <c r="GL1048565" s="35"/>
-      <c r="GM1048565" s="35"/>
-      <c r="GN1048565" s="35"/>
-      <c r="GO1048565" s="35"/>
-      <c r="GP1048565" s="35"/>
-      <c r="GQ1048565" s="35"/>
-      <c r="GR1048565" s="35"/>
-      <c r="GS1048565" s="35"/>
-      <c r="GT1048565" s="35"/>
-      <c r="GU1048565" s="35"/>
-      <c r="GV1048565" s="35"/>
-      <c r="GW1048565" s="35"/>
-      <c r="GX1048565" s="35"/>
-      <c r="GY1048565" s="35"/>
-      <c r="GZ1048565" s="35"/>
-      <c r="HA1048565" s="35"/>
-      <c r="HB1048565" s="36"/>
+      <c r="K1048565" s="36"/>
+      <c r="L1048565" s="34"/>
+      <c r="M1048565" s="34"/>
+      <c r="N1048565" s="34"/>
+      <c r="O1048565" s="34"/>
+      <c r="P1048565" s="34"/>
+      <c r="Q1048565" s="34"/>
+      <c r="R1048565" s="34"/>
+      <c r="S1048565" s="34"/>
+      <c r="T1048565" s="34"/>
+      <c r="U1048565" s="34"/>
+      <c r="V1048565" s="34"/>
+      <c r="W1048565" s="34"/>
+      <c r="X1048565" s="34"/>
+      <c r="Y1048565" s="34"/>
+      <c r="Z1048565" s="34"/>
+      <c r="AA1048565" s="34"/>
+      <c r="AB1048565" s="34"/>
+      <c r="AC1048565" s="34"/>
+      <c r="AD1048565" s="34"/>
+      <c r="AE1048565" s="34"/>
+      <c r="AF1048565" s="34"/>
+      <c r="AG1048565" s="34"/>
+      <c r="AH1048565" s="34"/>
+      <c r="AI1048565" s="34"/>
+      <c r="AJ1048565" s="34"/>
+      <c r="AK1048565" s="34"/>
+      <c r="AL1048565" s="34"/>
+      <c r="AM1048565" s="34"/>
+      <c r="AN1048565" s="34"/>
+      <c r="AO1048565" s="34"/>
+      <c r="AP1048565" s="34"/>
+      <c r="AQ1048565" s="34"/>
+      <c r="AR1048565" s="34"/>
+      <c r="AS1048565" s="34"/>
+      <c r="AT1048565" s="34"/>
+      <c r="AU1048565" s="34"/>
+      <c r="AV1048565" s="34"/>
+      <c r="AW1048565" s="34"/>
+      <c r="AX1048565" s="34"/>
+      <c r="AY1048565" s="34"/>
+      <c r="AZ1048565" s="34"/>
+      <c r="BA1048565" s="34"/>
+      <c r="BB1048565" s="34"/>
+      <c r="BC1048565" s="34"/>
+      <c r="BD1048565" s="34"/>
+      <c r="BE1048565" s="34"/>
+      <c r="BF1048565" s="34"/>
+      <c r="BG1048565" s="34"/>
+      <c r="BH1048565" s="34"/>
+      <c r="BI1048565" s="34"/>
+      <c r="BJ1048565" s="34"/>
+      <c r="BK1048565" s="34"/>
+      <c r="BL1048565" s="34"/>
+      <c r="BM1048565" s="34"/>
+      <c r="BN1048565" s="34"/>
+      <c r="BO1048565" s="34"/>
+      <c r="BP1048565" s="34"/>
+      <c r="BQ1048565" s="34"/>
+      <c r="BR1048565" s="34"/>
+      <c r="BS1048565" s="34"/>
+      <c r="BT1048565" s="34"/>
+      <c r="BU1048565" s="34"/>
+      <c r="BV1048565" s="34"/>
+      <c r="BW1048565" s="34"/>
+      <c r="BX1048565" s="34"/>
+      <c r="BY1048565" s="34"/>
+      <c r="BZ1048565" s="34"/>
+      <c r="CA1048565" s="34"/>
+      <c r="CB1048565" s="34"/>
+      <c r="CC1048565" s="34"/>
+      <c r="CD1048565" s="34"/>
+      <c r="CE1048565" s="34"/>
+      <c r="CF1048565" s="34"/>
+      <c r="CG1048565" s="34"/>
+      <c r="CH1048565" s="34"/>
+      <c r="CI1048565" s="34"/>
+      <c r="CJ1048565" s="34"/>
+      <c r="CK1048565" s="34"/>
+      <c r="CL1048565" s="34"/>
+      <c r="CM1048565" s="34"/>
+      <c r="CN1048565" s="34"/>
+      <c r="CO1048565" s="34"/>
+      <c r="CP1048565" s="34"/>
+      <c r="CQ1048565" s="34"/>
+      <c r="CR1048565" s="34"/>
+      <c r="CS1048565" s="34"/>
+      <c r="CT1048565" s="34"/>
+      <c r="CU1048565" s="34"/>
+      <c r="CV1048565" s="34"/>
+      <c r="CW1048565" s="34"/>
+      <c r="CX1048565" s="34"/>
+      <c r="CY1048565" s="34"/>
+      <c r="CZ1048565" s="34"/>
+      <c r="DA1048565" s="34"/>
+      <c r="DB1048565" s="34"/>
+      <c r="DC1048565" s="34"/>
+      <c r="DD1048565" s="34"/>
+      <c r="DE1048565" s="34"/>
+      <c r="DF1048565" s="34"/>
+      <c r="DG1048565" s="34"/>
+      <c r="DH1048565" s="34"/>
+      <c r="DI1048565" s="34"/>
+      <c r="DJ1048565" s="34"/>
+      <c r="DK1048565" s="34"/>
+      <c r="DL1048565" s="34"/>
+      <c r="DM1048565" s="34"/>
+      <c r="DN1048565" s="34"/>
+      <c r="DO1048565" s="34"/>
+      <c r="DP1048565" s="34"/>
+      <c r="DQ1048565" s="34"/>
+      <c r="DR1048565" s="34"/>
+      <c r="DS1048565" s="34"/>
+      <c r="DT1048565" s="34"/>
+      <c r="DU1048565" s="34"/>
+      <c r="DV1048565" s="34"/>
+      <c r="DW1048565" s="34"/>
+      <c r="DX1048565" s="34"/>
+      <c r="DY1048565" s="34"/>
+      <c r="DZ1048565" s="34"/>
+      <c r="EA1048565" s="34"/>
+      <c r="EB1048565" s="34"/>
+      <c r="EC1048565" s="34"/>
+      <c r="ED1048565" s="34"/>
+      <c r="EE1048565" s="34"/>
+      <c r="EF1048565" s="34"/>
+      <c r="EG1048565" s="34"/>
+      <c r="EH1048565" s="34"/>
+      <c r="EI1048565" s="34"/>
+      <c r="EJ1048565" s="34"/>
+      <c r="EK1048565" s="34"/>
+      <c r="EL1048565" s="34"/>
+      <c r="EM1048565" s="34"/>
+      <c r="EN1048565" s="34"/>
+      <c r="EO1048565" s="34"/>
+      <c r="EP1048565" s="34"/>
+      <c r="EQ1048565" s="34"/>
+      <c r="ER1048565" s="34"/>
+      <c r="ES1048565" s="34"/>
+      <c r="ET1048565" s="34"/>
+      <c r="EU1048565" s="34"/>
+      <c r="EV1048565" s="34"/>
+      <c r="EW1048565" s="34"/>
+      <c r="EX1048565" s="34"/>
+      <c r="EY1048565" s="34"/>
+      <c r="EZ1048565" s="34"/>
+      <c r="FA1048565" s="34"/>
+      <c r="FB1048565" s="34"/>
+      <c r="FC1048565" s="34"/>
+      <c r="FD1048565" s="34"/>
+      <c r="FE1048565" s="34"/>
+      <c r="FF1048565" s="34"/>
+      <c r="FG1048565" s="34"/>
+      <c r="FH1048565" s="34"/>
+      <c r="FI1048565" s="34"/>
+      <c r="FJ1048565" s="34"/>
+      <c r="FK1048565" s="34"/>
+      <c r="FL1048565" s="34"/>
+      <c r="FM1048565" s="34"/>
+      <c r="FN1048565" s="34"/>
+      <c r="FO1048565" s="34"/>
+      <c r="FP1048565" s="34"/>
+      <c r="FQ1048565" s="34"/>
+      <c r="FR1048565" s="34"/>
+      <c r="FS1048565" s="34"/>
+      <c r="FT1048565" s="34"/>
+      <c r="FU1048565" s="34"/>
+      <c r="FV1048565" s="34"/>
+      <c r="FW1048565" s="34"/>
+      <c r="FX1048565" s="34"/>
+      <c r="FY1048565" s="34"/>
+      <c r="FZ1048565" s="34"/>
+      <c r="GA1048565" s="34"/>
+      <c r="GB1048565" s="34"/>
+      <c r="GC1048565" s="34"/>
+      <c r="GD1048565" s="34"/>
+      <c r="GE1048565" s="34"/>
+      <c r="GF1048565" s="34"/>
+      <c r="GG1048565" s="34"/>
+      <c r="GH1048565" s="34"/>
+      <c r="GI1048565" s="34"/>
+      <c r="GJ1048565" s="34"/>
+      <c r="GK1048565" s="34"/>
+      <c r="GL1048565" s="34"/>
+      <c r="GM1048565" s="34"/>
+      <c r="GN1048565" s="34"/>
+      <c r="GO1048565" s="34"/>
+      <c r="GP1048565" s="34"/>
+      <c r="GQ1048565" s="34"/>
+      <c r="GR1048565" s="34"/>
+      <c r="GS1048565" s="34"/>
+      <c r="GT1048565" s="34"/>
+      <c r="GU1048565" s="34"/>
+      <c r="GV1048565" s="34"/>
+      <c r="GW1048565" s="34"/>
+      <c r="GX1048565" s="34"/>
+      <c r="GY1048565" s="34"/>
+      <c r="GZ1048565" s="34"/>
+      <c r="HA1048565" s="34"/>
+      <c r="HB1048565" s="35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>

--- a/form_reporting_templates/Form-7PR.xlsx
+++ b/form_reporting_templates/Form-7PR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9816C2CB-156B-4E11-93DD-BEB4EF082183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CB059-E3DE-42FD-A551-29C7CCF9AD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Focal point</t>
   </si>
@@ -102,9 +102,6 @@
     <t>7PR</t>
   </si>
   <si>
-    <t>Ocean</t>
-  </si>
-  <si>
     <t>Pricing location</t>
   </si>
   <si>
@@ -135,7 +132,7 @@
     <t>Prices by species, processing, product type, and preservation method</t>
   </si>
   <si>
-    <t>Quarter/Month</t>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -143,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +216,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,13 +546,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -685,14 +674,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -721,11 +702,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -769,9 +748,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1114,24 +1092,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1181,15 +1159,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="67"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1232,7 +1210,7 @@
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="80"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1243,7 +1221,7 @@
       <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="80"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1360,11 +1338,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,37 +1382,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:HB1048565"/>
+  <dimension ref="A1:HA1048565"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="10" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="44"/>
-    <col min="12" max="209" width="9.140625" style="45"/>
-    <col min="210" max="210" width="9.140625" style="46"/>
-    <col min="211" max="16384" width="9.140625" style="24"/>
+    <col min="3" max="3" width="15.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="14" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="44"/>
+    <col min="11" max="208" width="9.140625" style="45"/>
+    <col min="209" max="209" width="9.140625" style="46"/>
+    <col min="210" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:210" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:210" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
-        <v>25</v>
+    <row r="1" spans="1:209" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:209" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="52" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -1642,225 +1618,223 @@
       <c r="GX2" s="30"/>
       <c r="GY2" s="30"/>
       <c r="GZ2" s="30"/>
-      <c r="HA2" s="30"/>
-      <c r="HB2" s="31"/>
-    </row>
-    <row r="3" spans="1:210" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="HA2" s="31"/>
+    </row>
+    <row r="3" spans="1:209" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="77" t="s">
-        <v>31</v>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="74" t="s">
+        <v>30</v>
       </c>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="78"/>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
-      <c r="BS3" s="78"/>
-      <c r="BT3" s="78"/>
-      <c r="BU3" s="78"/>
-      <c r="BV3" s="78"/>
-      <c r="BW3" s="78"/>
-      <c r="BX3" s="78"/>
-      <c r="BY3" s="78"/>
-      <c r="BZ3" s="78"/>
-      <c r="CA3" s="78"/>
-      <c r="CB3" s="78"/>
-      <c r="CC3" s="78"/>
-      <c r="CD3" s="78"/>
-      <c r="CE3" s="78"/>
-      <c r="CF3" s="78"/>
-      <c r="CG3" s="78"/>
-      <c r="CH3" s="78"/>
-      <c r="CI3" s="78"/>
-      <c r="CJ3" s="78"/>
-      <c r="CK3" s="78"/>
-      <c r="CL3" s="78"/>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="78"/>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="78"/>
-      <c r="CS3" s="78"/>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="78"/>
-      <c r="CV3" s="78"/>
-      <c r="CW3" s="78"/>
-      <c r="CX3" s="78"/>
-      <c r="CY3" s="78"/>
-      <c r="CZ3" s="78"/>
-      <c r="DA3" s="78"/>
-      <c r="DB3" s="78"/>
-      <c r="DC3" s="78"/>
-      <c r="DD3" s="78"/>
-      <c r="DE3" s="78"/>
-      <c r="DF3" s="78"/>
-      <c r="DG3" s="78"/>
-      <c r="DH3" s="78"/>
-      <c r="DI3" s="78"/>
-      <c r="DJ3" s="78"/>
-      <c r="DK3" s="78"/>
-      <c r="DL3" s="78"/>
-      <c r="DM3" s="78"/>
-      <c r="DN3" s="78"/>
-      <c r="DO3" s="78"/>
-      <c r="DP3" s="78"/>
-      <c r="DQ3" s="78"/>
-      <c r="DR3" s="78"/>
-      <c r="DS3" s="78"/>
-      <c r="DT3" s="78"/>
-      <c r="DU3" s="78"/>
-      <c r="DV3" s="78"/>
-      <c r="DW3" s="78"/>
-      <c r="DX3" s="78"/>
-      <c r="DY3" s="78"/>
-      <c r="DZ3" s="78"/>
-      <c r="EA3" s="78"/>
-      <c r="EB3" s="78"/>
-      <c r="EC3" s="78"/>
-      <c r="ED3" s="78"/>
-      <c r="EE3" s="78"/>
-      <c r="EF3" s="78"/>
-      <c r="EG3" s="78"/>
-      <c r="EH3" s="78"/>
-      <c r="EI3" s="78"/>
-      <c r="EJ3" s="78"/>
-      <c r="EK3" s="78"/>
-      <c r="EL3" s="78"/>
-      <c r="EM3" s="78"/>
-      <c r="EN3" s="78"/>
-      <c r="EO3" s="78"/>
-      <c r="EP3" s="78"/>
-      <c r="EQ3" s="78"/>
-      <c r="ER3" s="78"/>
-      <c r="ES3" s="78"/>
-      <c r="ET3" s="78"/>
-      <c r="EU3" s="78"/>
-      <c r="EV3" s="78"/>
-      <c r="EW3" s="78"/>
-      <c r="EX3" s="78"/>
-      <c r="EY3" s="78"/>
-      <c r="EZ3" s="78"/>
-      <c r="FA3" s="78"/>
-      <c r="FB3" s="78"/>
-      <c r="FC3" s="78"/>
-      <c r="FD3" s="78"/>
-      <c r="FE3" s="78"/>
-      <c r="FF3" s="78"/>
-      <c r="FG3" s="78"/>
-      <c r="FH3" s="78"/>
-      <c r="FI3" s="78"/>
-      <c r="FJ3" s="78"/>
-      <c r="FK3" s="78"/>
-      <c r="FL3" s="78"/>
-      <c r="FM3" s="78"/>
-      <c r="FN3" s="78"/>
-      <c r="FO3" s="78"/>
-      <c r="FP3" s="78"/>
-      <c r="FQ3" s="78"/>
-      <c r="FR3" s="78"/>
-      <c r="FS3" s="78"/>
-      <c r="FT3" s="78"/>
-      <c r="FU3" s="78"/>
-      <c r="FV3" s="78"/>
-      <c r="FW3" s="78"/>
-      <c r="FX3" s="78"/>
-      <c r="FY3" s="78"/>
-      <c r="FZ3" s="78"/>
-      <c r="GA3" s="78"/>
-      <c r="GB3" s="78"/>
-      <c r="GC3" s="78"/>
-      <c r="GD3" s="78"/>
-      <c r="GE3" s="78"/>
-      <c r="GF3" s="78"/>
-      <c r="GG3" s="78"/>
-      <c r="GH3" s="78"/>
-      <c r="GI3" s="78"/>
-      <c r="GJ3" s="78"/>
-      <c r="GK3" s="78"/>
-      <c r="GL3" s="78"/>
-      <c r="GM3" s="78"/>
-      <c r="GN3" s="78"/>
-      <c r="GO3" s="78"/>
-      <c r="GP3" s="78"/>
-      <c r="GQ3" s="78"/>
-      <c r="GR3" s="78"/>
-      <c r="GS3" s="78"/>
-      <c r="GT3" s="78"/>
-      <c r="GU3" s="78"/>
-      <c r="GV3" s="78"/>
-      <c r="GW3" s="78"/>
-      <c r="GX3" s="78"/>
-      <c r="GY3" s="78"/>
-      <c r="GZ3" s="78"/>
-      <c r="HA3" s="78"/>
-      <c r="HB3" s="79"/>
-    </row>
-    <row r="4" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="75"/>
+      <c r="AN3" s="75"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="75"/>
+      <c r="AQ3" s="75"/>
+      <c r="AR3" s="75"/>
+      <c r="AS3" s="75"/>
+      <c r="AT3" s="75"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="75"/>
+      <c r="AW3" s="75"/>
+      <c r="AX3" s="75"/>
+      <c r="AY3" s="75"/>
+      <c r="AZ3" s="75"/>
+      <c r="BA3" s="75"/>
+      <c r="BB3" s="75"/>
+      <c r="BC3" s="75"/>
+      <c r="BD3" s="75"/>
+      <c r="BE3" s="75"/>
+      <c r="BF3" s="75"/>
+      <c r="BG3" s="75"/>
+      <c r="BH3" s="75"/>
+      <c r="BI3" s="75"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+      <c r="BR3" s="75"/>
+      <c r="BS3" s="75"/>
+      <c r="BT3" s="75"/>
+      <c r="BU3" s="75"/>
+      <c r="BV3" s="75"/>
+      <c r="BW3" s="75"/>
+      <c r="BX3" s="75"/>
+      <c r="BY3" s="75"/>
+      <c r="BZ3" s="75"/>
+      <c r="CA3" s="75"/>
+      <c r="CB3" s="75"/>
+      <c r="CC3" s="75"/>
+      <c r="CD3" s="75"/>
+      <c r="CE3" s="75"/>
+      <c r="CF3" s="75"/>
+      <c r="CG3" s="75"/>
+      <c r="CH3" s="75"/>
+      <c r="CI3" s="75"/>
+      <c r="CJ3" s="75"/>
+      <c r="CK3" s="75"/>
+      <c r="CL3" s="75"/>
+      <c r="CM3" s="75"/>
+      <c r="CN3" s="75"/>
+      <c r="CO3" s="75"/>
+      <c r="CP3" s="75"/>
+      <c r="CQ3" s="75"/>
+      <c r="CR3" s="75"/>
+      <c r="CS3" s="75"/>
+      <c r="CT3" s="75"/>
+      <c r="CU3" s="75"/>
+      <c r="CV3" s="75"/>
+      <c r="CW3" s="75"/>
+      <c r="CX3" s="75"/>
+      <c r="CY3" s="75"/>
+      <c r="CZ3" s="75"/>
+      <c r="DA3" s="75"/>
+      <c r="DB3" s="75"/>
+      <c r="DC3" s="75"/>
+      <c r="DD3" s="75"/>
+      <c r="DE3" s="75"/>
+      <c r="DF3" s="75"/>
+      <c r="DG3" s="75"/>
+      <c r="DH3" s="75"/>
+      <c r="DI3" s="75"/>
+      <c r="DJ3" s="75"/>
+      <c r="DK3" s="75"/>
+      <c r="DL3" s="75"/>
+      <c r="DM3" s="75"/>
+      <c r="DN3" s="75"/>
+      <c r="DO3" s="75"/>
+      <c r="DP3" s="75"/>
+      <c r="DQ3" s="75"/>
+      <c r="DR3" s="75"/>
+      <c r="DS3" s="75"/>
+      <c r="DT3" s="75"/>
+      <c r="DU3" s="75"/>
+      <c r="DV3" s="75"/>
+      <c r="DW3" s="75"/>
+      <c r="DX3" s="75"/>
+      <c r="DY3" s="75"/>
+      <c r="DZ3" s="75"/>
+      <c r="EA3" s="75"/>
+      <c r="EB3" s="75"/>
+      <c r="EC3" s="75"/>
+      <c r="ED3" s="75"/>
+      <c r="EE3" s="75"/>
+      <c r="EF3" s="75"/>
+      <c r="EG3" s="75"/>
+      <c r="EH3" s="75"/>
+      <c r="EI3" s="75"/>
+      <c r="EJ3" s="75"/>
+      <c r="EK3" s="75"/>
+      <c r="EL3" s="75"/>
+      <c r="EM3" s="75"/>
+      <c r="EN3" s="75"/>
+      <c r="EO3" s="75"/>
+      <c r="EP3" s="75"/>
+      <c r="EQ3" s="75"/>
+      <c r="ER3" s="75"/>
+      <c r="ES3" s="75"/>
+      <c r="ET3" s="75"/>
+      <c r="EU3" s="75"/>
+      <c r="EV3" s="75"/>
+      <c r="EW3" s="75"/>
+      <c r="EX3" s="75"/>
+      <c r="EY3" s="75"/>
+      <c r="EZ3" s="75"/>
+      <c r="FA3" s="75"/>
+      <c r="FB3" s="75"/>
+      <c r="FC3" s="75"/>
+      <c r="FD3" s="75"/>
+      <c r="FE3" s="75"/>
+      <c r="FF3" s="75"/>
+      <c r="FG3" s="75"/>
+      <c r="FH3" s="75"/>
+      <c r="FI3" s="75"/>
+      <c r="FJ3" s="75"/>
+      <c r="FK3" s="75"/>
+      <c r="FL3" s="75"/>
+      <c r="FM3" s="75"/>
+      <c r="FN3" s="75"/>
+      <c r="FO3" s="75"/>
+      <c r="FP3" s="75"/>
+      <c r="FQ3" s="75"/>
+      <c r="FR3" s="75"/>
+      <c r="FS3" s="75"/>
+      <c r="FT3" s="75"/>
+      <c r="FU3" s="75"/>
+      <c r="FV3" s="75"/>
+      <c r="FW3" s="75"/>
+      <c r="FX3" s="75"/>
+      <c r="FY3" s="75"/>
+      <c r="FZ3" s="75"/>
+      <c r="GA3" s="75"/>
+      <c r="GB3" s="75"/>
+      <c r="GC3" s="75"/>
+      <c r="GD3" s="75"/>
+      <c r="GE3" s="75"/>
+      <c r="GF3" s="75"/>
+      <c r="GG3" s="75"/>
+      <c r="GH3" s="75"/>
+      <c r="GI3" s="75"/>
+      <c r="GJ3" s="75"/>
+      <c r="GK3" s="75"/>
+      <c r="GL3" s="75"/>
+      <c r="GM3" s="75"/>
+      <c r="GN3" s="75"/>
+      <c r="GO3" s="75"/>
+      <c r="GP3" s="75"/>
+      <c r="GQ3" s="75"/>
+      <c r="GR3" s="75"/>
+      <c r="GS3" s="75"/>
+      <c r="GT3" s="75"/>
+      <c r="GU3" s="75"/>
+      <c r="GV3" s="75"/>
+      <c r="GW3" s="75"/>
+      <c r="GX3" s="75"/>
+      <c r="GY3" s="75"/>
+      <c r="GZ3" s="75"/>
+      <c r="HA3" s="76"/>
+    </row>
+    <row r="4" spans="1:209" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4"/>
@@ -1868,12 +1842,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="38" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -2071,22 +2045,21 @@
       <c r="GX4" s="26"/>
       <c r="GY4" s="26"/>
       <c r="GZ4" s="26"/>
-      <c r="HA4" s="26"/>
-      <c r="HB4" s="27"/>
-    </row>
-    <row r="5" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
+      <c r="HA4" s="27"/>
+    </row>
+    <row r="5" spans="1:209" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="57"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="38" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -2284,22 +2257,21 @@
       <c r="GX5" s="26"/>
       <c r="GY5" s="26"/>
       <c r="GZ5" s="26"/>
-      <c r="HA5" s="26"/>
-      <c r="HB5" s="27"/>
-    </row>
-    <row r="6" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
+      <c r="HA5" s="27"/>
+    </row>
+    <row r="6" spans="1:209" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="57"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="38" t="s">
-        <v>26</v>
+      <c r="H6" s="61"/>
+      <c r="I6" s="38" t="s">
+        <v>25</v>
       </c>
-      <c r="K6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -2497,22 +2469,21 @@
       <c r="GX6" s="26"/>
       <c r="GY6" s="26"/>
       <c r="GZ6" s="26"/>
-      <c r="HA6" s="26"/>
-      <c r="HB6" s="27"/>
-    </row>
-    <row r="7" spans="1:210" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="38" t="s">
-        <v>27</v>
+      <c r="HA6" s="27"/>
+    </row>
+    <row r="7" spans="1:209" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="38" t="s">
+        <v>26</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -2710,36 +2681,33 @@
       <c r="GX7" s="26"/>
       <c r="GY7" s="26"/>
       <c r="GZ7" s="26"/>
-      <c r="HA7" s="26"/>
-      <c r="HB7" s="27"/>
-    </row>
-    <row r="8" spans="1:210" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57" t="s">
-        <v>32</v>
+      <c r="HA7" s="27"/>
+    </row>
+    <row r="8" spans="1:209" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>31</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>24</v>
+      <c r="F8" s="55" t="s">
+        <v>27</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="41"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
@@ -2937,3081 +2905,3042 @@
       <c r="GX8" s="42"/>
       <c r="GY8" s="42"/>
       <c r="GZ8" s="42"/>
-      <c r="HA8" s="42"/>
-      <c r="HB8" s="43"/>
-    </row>
-    <row r="9" spans="1:210" x14ac:dyDescent="0.25">
+      <c r="HA8" s="43"/>
+    </row>
+    <row r="9" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B10" s="28"/>
-      <c r="C10" s="49"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
-      <c r="C11" s="49"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B12" s="28"/>
-      <c r="C12" s="49"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
-      <c r="C13" s="49"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
-      <c r="C14" s="49"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B15" s="28"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:209" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
-      <c r="C17" s="49"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
-      <c r="C18" s="49"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="28"/>
-      <c r="C19" s="49"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
-      <c r="C20" s="49"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
-      <c r="C21" s="49"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
-      <c r="C22" s="49"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
-      <c r="C24" s="49"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
-      <c r="C25" s="49"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
-      <c r="C26" s="49"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="28"/>
-      <c r="C27" s="49"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
-      <c r="C28" s="49"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="28"/>
-      <c r="C29" s="49"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
-      <c r="C30" s="49"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
-      <c r="C31" s="49"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
-      <c r="C32" s="49"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
-      <c r="C33" s="49"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
-      <c r="C34" s="49"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="28"/>
-      <c r="C35" s="49"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
-      <c r="C36" s="49"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
-      <c r="C37" s="49"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
-      <c r="C38" s="49"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28"/>
-      <c r="C39" s="49"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
-      <c r="C40" s="49"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
-      <c r="C41" s="49"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="29"/>
       <c r="E41" s="29"/>
       <c r="F41" s="29"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
-      <c r="C42" s="49"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="29"/>
       <c r="F42" s="29"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="28"/>
-      <c r="C43" s="49"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="29"/>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
-      <c r="C44" s="49"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
-      <c r="C45" s="49"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="29"/>
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="28"/>
-      <c r="C46" s="49"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
-      <c r="C47" s="49"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="29"/>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-    </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-    </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-    </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-    </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-    </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-    </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-    </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="29"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F60" s="29"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-    </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F61" s="29"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-    </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F62" s="29"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-    </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F63" s="29"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="29"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F65" s="29"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-    </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F66" s="29"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-    </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="29"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-    </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="29"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F69" s="29"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-    </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F70" s="29"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-    </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F71" s="29"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-    </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="29"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
-      <c r="I72" s="29"/>
-    </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F73" s="29"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
-    </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F74" s="29"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-    </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F75" s="29"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-    </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F76" s="29"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
-      <c r="I76" s="29"/>
-    </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F77" s="29"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
-      <c r="I77" s="29"/>
-    </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F78" s="29"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-    </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F79" s="29"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-    </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F80" s="29"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-    </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F81" s="29"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
-      <c r="I81" s="29"/>
-    </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-    </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F83" s="29"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-    </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F84" s="29"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-    </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F85" s="29"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
-      <c r="I85" s="29"/>
-    </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F86" s="29"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
-      <c r="I86" s="29"/>
-    </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F87" s="29"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
-      <c r="I87" s="29"/>
-    </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F88" s="29"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
-      <c r="I88" s="29"/>
-    </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F89" s="29"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
-      <c r="I89" s="29"/>
-    </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F90" s="29"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-    </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F91" s="29"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-    </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F92" s="29"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-    </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
-      <c r="I93" s="29"/>
-    </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F94" s="29"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-    </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F95" s="29"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
-      <c r="I95" s="29"/>
-    </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F96" s="29"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-    </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F97" s="29"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
-      <c r="I97" s="29"/>
-    </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F98" s="29"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-    </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F99" s="29"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-    </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-    </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F101" s="29"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-    </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F102" s="29"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-    </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="29"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-    </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="29"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-    </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F105" s="29"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-    </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F106" s="29"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="29"/>
-    </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F107" s="29"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="29"/>
-    </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F108" s="29"/>
       <c r="G108" s="29"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="29"/>
-    </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="29"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-    </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="29"/>
       <c r="G110" s="29"/>
       <c r="H110" s="29"/>
-      <c r="I110" s="29"/>
-    </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F111" s="29"/>
       <c r="G111" s="29"/>
       <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-    </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F112" s="29"/>
       <c r="G112" s="29"/>
       <c r="H112" s="29"/>
-      <c r="I112" s="29"/>
-    </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F113" s="29"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
-      <c r="I113" s="29"/>
-    </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F114" s="29"/>
       <c r="G114" s="29"/>
       <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-    </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F115" s="29"/>
       <c r="G115" s="29"/>
       <c r="H115" s="29"/>
-      <c r="I115" s="29"/>
-    </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F116" s="29"/>
       <c r="G116" s="29"/>
       <c r="H116" s="29"/>
-      <c r="I116" s="29"/>
-    </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F117" s="29"/>
       <c r="G117" s="29"/>
       <c r="H117" s="29"/>
-      <c r="I117" s="29"/>
-    </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F118" s="29"/>
       <c r="G118" s="29"/>
       <c r="H118" s="29"/>
-      <c r="I118" s="29"/>
-    </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F119" s="29"/>
       <c r="G119" s="29"/>
       <c r="H119" s="29"/>
-      <c r="I119" s="29"/>
-    </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F120" s="29"/>
       <c r="G120" s="29"/>
       <c r="H120" s="29"/>
-      <c r="I120" s="29"/>
-    </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F121" s="29"/>
       <c r="G121" s="29"/>
       <c r="H121" s="29"/>
-      <c r="I121" s="29"/>
-    </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F122" s="29"/>
       <c r="G122" s="29"/>
       <c r="H122" s="29"/>
-      <c r="I122" s="29"/>
-    </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F123" s="29"/>
       <c r="G123" s="29"/>
       <c r="H123" s="29"/>
-      <c r="I123" s="29"/>
-    </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F124" s="29"/>
       <c r="G124" s="29"/>
       <c r="H124" s="29"/>
-      <c r="I124" s="29"/>
-    </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F125" s="29"/>
       <c r="G125" s="29"/>
       <c r="H125" s="29"/>
-      <c r="I125" s="29"/>
-    </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F126" s="29"/>
       <c r="G126" s="29"/>
       <c r="H126" s="29"/>
-      <c r="I126" s="29"/>
-    </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F127" s="29"/>
       <c r="G127" s="29"/>
       <c r="H127" s="29"/>
-      <c r="I127" s="29"/>
-    </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F128" s="29"/>
       <c r="G128" s="29"/>
       <c r="H128" s="29"/>
-      <c r="I128" s="29"/>
-    </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F129" s="29"/>
       <c r="G129" s="29"/>
       <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-    </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F130" s="29"/>
       <c r="G130" s="29"/>
       <c r="H130" s="29"/>
-      <c r="I130" s="29"/>
-    </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F131" s="29"/>
       <c r="G131" s="29"/>
       <c r="H131" s="29"/>
-      <c r="I131" s="29"/>
-    </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F132" s="29"/>
       <c r="G132" s="29"/>
       <c r="H132" s="29"/>
-      <c r="I132" s="29"/>
-    </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F133" s="29"/>
       <c r="G133" s="29"/>
       <c r="H133" s="29"/>
-      <c r="I133" s="29"/>
-    </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F134" s="29"/>
       <c r="G134" s="29"/>
       <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-    </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F135" s="29"/>
       <c r="G135" s="29"/>
       <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-    </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F136" s="29"/>
       <c r="G136" s="29"/>
       <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-    </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F137" s="29"/>
       <c r="G137" s="29"/>
       <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-    </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F138" s="29"/>
       <c r="G138" s="29"/>
       <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-    </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F139" s="29"/>
       <c r="G139" s="29"/>
       <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-    </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F140" s="29"/>
       <c r="G140" s="29"/>
       <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
-    </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F141" s="29"/>
       <c r="G141" s="29"/>
       <c r="H141" s="29"/>
-      <c r="I141" s="29"/>
-    </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F142" s="29"/>
       <c r="G142" s="29"/>
       <c r="H142" s="29"/>
-      <c r="I142" s="29"/>
-    </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F143" s="29"/>
       <c r="G143" s="29"/>
       <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-    </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F144" s="29"/>
       <c r="G144" s="29"/>
       <c r="H144" s="29"/>
-      <c r="I144" s="29"/>
-    </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F145" s="29"/>
       <c r="G145" s="29"/>
       <c r="H145" s="29"/>
-      <c r="I145" s="29"/>
-    </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F146" s="29"/>
       <c r="G146" s="29"/>
       <c r="H146" s="29"/>
-      <c r="I146" s="29"/>
-    </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F147" s="29"/>
       <c r="G147" s="29"/>
       <c r="H147" s="29"/>
-      <c r="I147" s="29"/>
-    </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F148" s="29"/>
       <c r="G148" s="29"/>
       <c r="H148" s="29"/>
-      <c r="I148" s="29"/>
-    </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F149" s="29"/>
       <c r="G149" s="29"/>
       <c r="H149" s="29"/>
-      <c r="I149" s="29"/>
-    </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F150" s="29"/>
       <c r="G150" s="29"/>
       <c r="H150" s="29"/>
-      <c r="I150" s="29"/>
-    </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F151" s="29"/>
       <c r="G151" s="29"/>
       <c r="H151" s="29"/>
-      <c r="I151" s="29"/>
-    </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F152" s="29"/>
       <c r="G152" s="29"/>
       <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-    </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F153" s="29"/>
       <c r="G153" s="29"/>
       <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-    </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F154" s="29"/>
       <c r="G154" s="29"/>
       <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-    </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F155" s="29"/>
       <c r="G155" s="29"/>
       <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-    </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F156" s="29"/>
       <c r="G156" s="29"/>
       <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-    </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F157" s="29"/>
       <c r="G157" s="29"/>
       <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-    </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F158" s="29"/>
       <c r="G158" s="29"/>
       <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-    </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F159" s="29"/>
       <c r="G159" s="29"/>
       <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-    </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F160" s="29"/>
       <c r="G160" s="29"/>
       <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-    </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F161" s="29"/>
       <c r="G161" s="29"/>
       <c r="H161" s="29"/>
-      <c r="I161" s="29"/>
-    </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F162" s="29"/>
       <c r="G162" s="29"/>
       <c r="H162" s="29"/>
-      <c r="I162" s="29"/>
-    </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F163" s="29"/>
       <c r="G163" s="29"/>
       <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-    </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F164" s="29"/>
       <c r="G164" s="29"/>
       <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-    </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F165" s="29"/>
       <c r="G165" s="29"/>
       <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-    </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F166" s="29"/>
       <c r="G166" s="29"/>
       <c r="H166" s="29"/>
-      <c r="I166" s="29"/>
-    </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F167" s="29"/>
       <c r="G167" s="29"/>
       <c r="H167" s="29"/>
-      <c r="I167" s="29"/>
-    </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F168" s="29"/>
       <c r="G168" s="29"/>
       <c r="H168" s="29"/>
-      <c r="I168" s="29"/>
-    </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F169" s="29"/>
       <c r="G169" s="29"/>
       <c r="H169" s="29"/>
-      <c r="I169" s="29"/>
-    </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F170" s="29"/>
       <c r="G170" s="29"/>
       <c r="H170" s="29"/>
-      <c r="I170" s="29"/>
-    </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F171" s="29"/>
       <c r="G171" s="29"/>
       <c r="H171" s="29"/>
-      <c r="I171" s="29"/>
-    </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F172" s="29"/>
       <c r="G172" s="29"/>
       <c r="H172" s="29"/>
-      <c r="I172" s="29"/>
-    </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F173" s="29"/>
       <c r="G173" s="29"/>
       <c r="H173" s="29"/>
-      <c r="I173" s="29"/>
-    </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F174" s="29"/>
       <c r="G174" s="29"/>
       <c r="H174" s="29"/>
-      <c r="I174" s="29"/>
-    </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F175" s="29"/>
       <c r="G175" s="29"/>
       <c r="H175" s="29"/>
-      <c r="I175" s="29"/>
-    </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F176" s="29"/>
       <c r="G176" s="29"/>
       <c r="H176" s="29"/>
-      <c r="I176" s="29"/>
-    </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F177" s="29"/>
       <c r="G177" s="29"/>
       <c r="H177" s="29"/>
-      <c r="I177" s="29"/>
-    </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F178" s="29"/>
       <c r="G178" s="29"/>
       <c r="H178" s="29"/>
-      <c r="I178" s="29"/>
-    </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F179" s="29"/>
       <c r="G179" s="29"/>
       <c r="H179" s="29"/>
-      <c r="I179" s="29"/>
-    </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F180" s="29"/>
       <c r="G180" s="29"/>
       <c r="H180" s="29"/>
-      <c r="I180" s="29"/>
-    </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F181" s="29"/>
       <c r="G181" s="29"/>
       <c r="H181" s="29"/>
-      <c r="I181" s="29"/>
-    </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F182" s="29"/>
       <c r="G182" s="29"/>
       <c r="H182" s="29"/>
-      <c r="I182" s="29"/>
-    </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F183" s="29"/>
       <c r="G183" s="29"/>
       <c r="H183" s="29"/>
-      <c r="I183" s="29"/>
-    </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F184" s="29"/>
       <c r="G184" s="29"/>
       <c r="H184" s="29"/>
-      <c r="I184" s="29"/>
-    </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F185" s="29"/>
       <c r="G185" s="29"/>
       <c r="H185" s="29"/>
-      <c r="I185" s="29"/>
-    </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F186" s="29"/>
       <c r="G186" s="29"/>
       <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
-    </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F187" s="29"/>
       <c r="G187" s="29"/>
       <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-    </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F188" s="29"/>
       <c r="G188" s="29"/>
       <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
-    </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F189" s="29"/>
       <c r="G189" s="29"/>
       <c r="H189" s="29"/>
-      <c r="I189" s="29"/>
-    </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F190" s="29"/>
       <c r="G190" s="29"/>
       <c r="H190" s="29"/>
-      <c r="I190" s="29"/>
-    </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F191" s="29"/>
       <c r="G191" s="29"/>
       <c r="H191" s="29"/>
-      <c r="I191" s="29"/>
-    </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F192" s="29"/>
       <c r="G192" s="29"/>
       <c r="H192" s="29"/>
-      <c r="I192" s="29"/>
-    </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F193" s="29"/>
       <c r="G193" s="29"/>
       <c r="H193" s="29"/>
-      <c r="I193" s="29"/>
-    </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F194" s="29"/>
       <c r="G194" s="29"/>
       <c r="H194" s="29"/>
-      <c r="I194" s="29"/>
-    </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F195" s="29"/>
       <c r="G195" s="29"/>
       <c r="H195" s="29"/>
-      <c r="I195" s="29"/>
-    </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F196" s="29"/>
       <c r="G196" s="29"/>
       <c r="H196" s="29"/>
-      <c r="I196" s="29"/>
-    </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F197" s="29"/>
       <c r="G197" s="29"/>
       <c r="H197" s="29"/>
-      <c r="I197" s="29"/>
-    </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F198" s="29"/>
       <c r="G198" s="29"/>
       <c r="H198" s="29"/>
-      <c r="I198" s="29"/>
-    </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F199" s="29"/>
       <c r="G199" s="29"/>
       <c r="H199" s="29"/>
-      <c r="I199" s="29"/>
-    </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F200" s="29"/>
       <c r="G200" s="29"/>
       <c r="H200" s="29"/>
-      <c r="I200" s="29"/>
-    </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F201" s="29"/>
       <c r="G201" s="29"/>
       <c r="H201" s="29"/>
-      <c r="I201" s="29"/>
-    </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F202" s="29"/>
       <c r="G202" s="29"/>
       <c r="H202" s="29"/>
-      <c r="I202" s="29"/>
-    </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F203" s="29"/>
       <c r="G203" s="29"/>
       <c r="H203" s="29"/>
-      <c r="I203" s="29"/>
-    </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F204" s="29"/>
       <c r="G204" s="29"/>
       <c r="H204" s="29"/>
-      <c r="I204" s="29"/>
-    </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F205" s="29"/>
       <c r="G205" s="29"/>
       <c r="H205" s="29"/>
-      <c r="I205" s="29"/>
-    </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F206" s="29"/>
       <c r="G206" s="29"/>
       <c r="H206" s="29"/>
-      <c r="I206" s="29"/>
-    </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F207" s="29"/>
       <c r="G207" s="29"/>
       <c r="H207" s="29"/>
-      <c r="I207" s="29"/>
-    </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F208" s="29"/>
       <c r="G208" s="29"/>
       <c r="H208" s="29"/>
-      <c r="I208" s="29"/>
-    </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F209" s="29"/>
       <c r="G209" s="29"/>
       <c r="H209" s="29"/>
-      <c r="I209" s="29"/>
-    </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F210" s="29"/>
       <c r="G210" s="29"/>
       <c r="H210" s="29"/>
-      <c r="I210" s="29"/>
-    </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F211" s="29"/>
       <c r="G211" s="29"/>
       <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-    </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F212" s="29"/>
       <c r="G212" s="29"/>
       <c r="H212" s="29"/>
-      <c r="I212" s="29"/>
-    </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F213" s="29"/>
       <c r="G213" s="29"/>
       <c r="H213" s="29"/>
-      <c r="I213" s="29"/>
-    </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F214" s="29"/>
       <c r="G214" s="29"/>
       <c r="H214" s="29"/>
-      <c r="I214" s="29"/>
-    </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F215" s="29"/>
       <c r="G215" s="29"/>
       <c r="H215" s="29"/>
-      <c r="I215" s="29"/>
-    </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F216" s="29"/>
       <c r="G216" s="29"/>
       <c r="H216" s="29"/>
-      <c r="I216" s="29"/>
-    </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F217" s="29"/>
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
-      <c r="I217" s="29"/>
-    </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F218" s="29"/>
       <c r="G218" s="29"/>
       <c r="H218" s="29"/>
-      <c r="I218" s="29"/>
-    </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F219" s="29"/>
       <c r="G219" s="29"/>
       <c r="H219" s="29"/>
-      <c r="I219" s="29"/>
-    </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F220" s="29"/>
       <c r="G220" s="29"/>
       <c r="H220" s="29"/>
-      <c r="I220" s="29"/>
-    </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F221" s="29"/>
       <c r="G221" s="29"/>
       <c r="H221" s="29"/>
-      <c r="I221" s="29"/>
-    </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F222" s="29"/>
       <c r="G222" s="29"/>
       <c r="H222" s="29"/>
-      <c r="I222" s="29"/>
-    </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F223" s="29"/>
       <c r="G223" s="29"/>
       <c r="H223" s="29"/>
-      <c r="I223" s="29"/>
-    </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F224" s="29"/>
       <c r="G224" s="29"/>
       <c r="H224" s="29"/>
-      <c r="I224" s="29"/>
-    </row>
-    <row r="225" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F225" s="29"/>
       <c r="G225" s="29"/>
       <c r="H225" s="29"/>
-      <c r="I225" s="29"/>
-    </row>
-    <row r="226" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F226" s="29"/>
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
-      <c r="I226" s="29"/>
-    </row>
-    <row r="227" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F227" s="29"/>
       <c r="G227" s="29"/>
       <c r="H227" s="29"/>
-      <c r="I227" s="29"/>
-    </row>
-    <row r="228" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F228" s="29"/>
       <c r="G228" s="29"/>
       <c r="H228" s="29"/>
-      <c r="I228" s="29"/>
-    </row>
-    <row r="229" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F229" s="29"/>
       <c r="G229" s="29"/>
       <c r="H229" s="29"/>
-      <c r="I229" s="29"/>
-    </row>
-    <row r="230" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F230" s="29"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
-      <c r="I230" s="29"/>
-    </row>
-    <row r="231" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F231" s="29"/>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
-      <c r="I231" s="29"/>
-    </row>
-    <row r="232" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F232" s="29"/>
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
-      <c r="I232" s="29"/>
-    </row>
-    <row r="233" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F233" s="29"/>
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
-      <c r="I233" s="29"/>
-    </row>
-    <row r="234" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F234" s="29"/>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
-    </row>
-    <row r="235" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F235" s="29"/>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
-      <c r="I235" s="29"/>
-    </row>
-    <row r="236" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F236" s="29"/>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
-      <c r="I236" s="29"/>
-    </row>
-    <row r="237" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F237" s="29"/>
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
-      <c r="I237" s="29"/>
-    </row>
-    <row r="238" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F238" s="29"/>
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
-      <c r="I238" s="29"/>
-    </row>
-    <row r="239" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F239" s="29"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29"/>
-      <c r="I239" s="29"/>
-    </row>
-    <row r="240" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F240" s="29"/>
       <c r="G240" s="29"/>
       <c r="H240" s="29"/>
-      <c r="I240" s="29"/>
-    </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F241" s="29"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
-      <c r="I241" s="29"/>
-    </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F242" s="29"/>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
-      <c r="I242" s="29"/>
-    </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F243" s="29"/>
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
-      <c r="I243" s="29"/>
-    </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F244" s="29"/>
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
-      <c r="I244" s="29"/>
-    </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F245" s="29"/>
       <c r="G245" s="29"/>
       <c r="H245" s="29"/>
-      <c r="I245" s="29"/>
-    </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F246" s="29"/>
       <c r="G246" s="29"/>
       <c r="H246" s="29"/>
-      <c r="I246" s="29"/>
-    </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F247" s="29"/>
       <c r="G247" s="29"/>
       <c r="H247" s="29"/>
-      <c r="I247" s="29"/>
-    </row>
-    <row r="248" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F248" s="29"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
-      <c r="I248" s="29"/>
-    </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F249" s="29"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
-      <c r="I249" s="29"/>
-    </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F250" s="29"/>
       <c r="G250" s="29"/>
       <c r="H250" s="29"/>
-      <c r="I250" s="29"/>
-    </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F251" s="29"/>
       <c r="G251" s="29"/>
       <c r="H251" s="29"/>
-      <c r="I251" s="29"/>
-    </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F252" s="29"/>
       <c r="G252" s="29"/>
       <c r="H252" s="29"/>
-      <c r="I252" s="29"/>
-    </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F253" s="29"/>
       <c r="G253" s="29"/>
       <c r="H253" s="29"/>
-      <c r="I253" s="29"/>
-    </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F254" s="29"/>
       <c r="G254" s="29"/>
       <c r="H254" s="29"/>
-      <c r="I254" s="29"/>
-    </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F255" s="29"/>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
-      <c r="I255" s="29"/>
-    </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F256" s="29"/>
       <c r="G256" s="29"/>
       <c r="H256" s="29"/>
-      <c r="I256" s="29"/>
-    </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F257" s="29"/>
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
-      <c r="I257" s="29"/>
-    </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F258" s="29"/>
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
-      <c r="I258" s="29"/>
-    </row>
-    <row r="259" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F259" s="29"/>
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
-      <c r="I259" s="29"/>
-    </row>
-    <row r="260" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F260" s="29"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
-      <c r="I260" s="29"/>
-    </row>
-    <row r="261" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F261" s="29"/>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
-      <c r="I261" s="29"/>
-    </row>
-    <row r="262" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F262" s="29"/>
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
-      <c r="I262" s="29"/>
-    </row>
-    <row r="263" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F263" s="29"/>
       <c r="G263" s="29"/>
       <c r="H263" s="29"/>
-      <c r="I263" s="29"/>
-    </row>
-    <row r="264" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F264" s="29"/>
       <c r="G264" s="29"/>
       <c r="H264" s="29"/>
-      <c r="I264" s="29"/>
-    </row>
-    <row r="265" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F265" s="29"/>
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
-      <c r="I265" s="29"/>
-    </row>
-    <row r="266" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F266" s="29"/>
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
-      <c r="I266" s="29"/>
-    </row>
-    <row r="267" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F267" s="29"/>
       <c r="G267" s="29"/>
       <c r="H267" s="29"/>
-      <c r="I267" s="29"/>
-    </row>
-    <row r="268" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F268" s="29"/>
       <c r="G268" s="29"/>
       <c r="H268" s="29"/>
-      <c r="I268" s="29"/>
-    </row>
-    <row r="269" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F269" s="29"/>
       <c r="G269" s="29"/>
       <c r="H269" s="29"/>
-      <c r="I269" s="29"/>
-    </row>
-    <row r="270" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F270" s="29"/>
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
-      <c r="I270" s="29"/>
-    </row>
-    <row r="271" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F271" s="29"/>
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
-      <c r="I271" s="29"/>
-    </row>
-    <row r="272" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F272" s="29"/>
       <c r="G272" s="29"/>
       <c r="H272" s="29"/>
-      <c r="I272" s="29"/>
-    </row>
-    <row r="273" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F273" s="29"/>
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
-      <c r="I273" s="29"/>
-    </row>
-    <row r="274" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F274" s="29"/>
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
-      <c r="I274" s="29"/>
-    </row>
-    <row r="275" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F275" s="29"/>
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
-      <c r="I275" s="29"/>
-    </row>
-    <row r="276" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F276" s="29"/>
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
-      <c r="I276" s="29"/>
-    </row>
-    <row r="277" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F277" s="29"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
-      <c r="I277" s="29"/>
-    </row>
-    <row r="278" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F278" s="29"/>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
-      <c r="I278" s="29"/>
-    </row>
-    <row r="279" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F279" s="29"/>
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
-      <c r="I279" s="29"/>
-    </row>
-    <row r="280" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F280" s="29"/>
       <c r="G280" s="29"/>
       <c r="H280" s="29"/>
-      <c r="I280" s="29"/>
-    </row>
-    <row r="281" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F281" s="29"/>
       <c r="G281" s="29"/>
       <c r="H281" s="29"/>
-      <c r="I281" s="29"/>
-    </row>
-    <row r="282" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F282" s="29"/>
       <c r="G282" s="29"/>
       <c r="H282" s="29"/>
-      <c r="I282" s="29"/>
-    </row>
-    <row r="283" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F283" s="29"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
-      <c r="I283" s="29"/>
-    </row>
-    <row r="284" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F284" s="29"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
-      <c r="I284" s="29"/>
-    </row>
-    <row r="285" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F285" s="29"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
-      <c r="I285" s="29"/>
-    </row>
-    <row r="286" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F286" s="29"/>
       <c r="G286" s="29"/>
       <c r="H286" s="29"/>
-      <c r="I286" s="29"/>
-    </row>
-    <row r="287" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F287" s="29"/>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
-      <c r="I287" s="29"/>
-    </row>
-    <row r="288" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F288" s="29"/>
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
-      <c r="I288" s="29"/>
-    </row>
-    <row r="289" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F289" s="29"/>
       <c r="G289" s="29"/>
       <c r="H289" s="29"/>
-      <c r="I289" s="29"/>
-    </row>
-    <row r="290" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F290" s="29"/>
       <c r="G290" s="29"/>
       <c r="H290" s="29"/>
-      <c r="I290" s="29"/>
-    </row>
-    <row r="291" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F291" s="29"/>
       <c r="G291" s="29"/>
       <c r="H291" s="29"/>
-      <c r="I291" s="29"/>
-    </row>
-    <row r="292" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F292" s="29"/>
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
-      <c r="I292" s="29"/>
-    </row>
-    <row r="293" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F293" s="29"/>
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
-      <c r="I293" s="29"/>
-    </row>
-    <row r="294" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F294" s="29"/>
       <c r="G294" s="29"/>
       <c r="H294" s="29"/>
-      <c r="I294" s="29"/>
-    </row>
-    <row r="295" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F295" s="29"/>
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
-      <c r="I295" s="29"/>
-    </row>
-    <row r="296" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F296" s="29"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
-      <c r="I296" s="29"/>
-    </row>
-    <row r="297" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F297" s="29"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
-      <c r="I297" s="29"/>
-    </row>
-    <row r="298" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F298" s="29"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
-      <c r="I298" s="29"/>
-    </row>
-    <row r="299" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F299" s="29"/>
       <c r="G299" s="29"/>
       <c r="H299" s="29"/>
-      <c r="I299" s="29"/>
-    </row>
-    <row r="300" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F300" s="29"/>
       <c r="G300" s="29"/>
       <c r="H300" s="29"/>
-      <c r="I300" s="29"/>
-    </row>
-    <row r="301" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F301" s="29"/>
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
-      <c r="I301" s="29"/>
-    </row>
-    <row r="302" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F302" s="29"/>
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
-      <c r="I302" s="29"/>
-    </row>
-    <row r="303" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F303" s="29"/>
       <c r="G303" s="29"/>
       <c r="H303" s="29"/>
-      <c r="I303" s="29"/>
-    </row>
-    <row r="304" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F304" s="29"/>
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
-      <c r="I304" s="29"/>
-    </row>
-    <row r="305" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F305" s="29"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
-      <c r="I305" s="29"/>
-    </row>
-    <row r="306" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F306" s="29"/>
       <c r="G306" s="29"/>
       <c r="H306" s="29"/>
-      <c r="I306" s="29"/>
-    </row>
-    <row r="307" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F307" s="29"/>
       <c r="G307" s="29"/>
       <c r="H307" s="29"/>
-      <c r="I307" s="29"/>
-    </row>
-    <row r="308" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F308" s="29"/>
       <c r="G308" s="29"/>
       <c r="H308" s="29"/>
-      <c r="I308" s="29"/>
-    </row>
-    <row r="309" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F309" s="29"/>
       <c r="G309" s="29"/>
       <c r="H309" s="29"/>
-      <c r="I309" s="29"/>
-    </row>
-    <row r="310" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F310" s="29"/>
       <c r="G310" s="29"/>
       <c r="H310" s="29"/>
-      <c r="I310" s="29"/>
-    </row>
-    <row r="311" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F311" s="29"/>
       <c r="G311" s="29"/>
       <c r="H311" s="29"/>
-      <c r="I311" s="29"/>
-    </row>
-    <row r="312" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F312" s="29"/>
       <c r="G312" s="29"/>
       <c r="H312" s="29"/>
-      <c r="I312" s="29"/>
-    </row>
-    <row r="313" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F313" s="29"/>
       <c r="G313" s="29"/>
       <c r="H313" s="29"/>
-      <c r="I313" s="29"/>
-    </row>
-    <row r="314" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F314" s="29"/>
       <c r="G314" s="29"/>
       <c r="H314" s="29"/>
-      <c r="I314" s="29"/>
-    </row>
-    <row r="315" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F315" s="29"/>
       <c r="G315" s="29"/>
       <c r="H315" s="29"/>
-      <c r="I315" s="29"/>
-    </row>
-    <row r="316" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F316" s="29"/>
       <c r="G316" s="29"/>
       <c r="H316" s="29"/>
-      <c r="I316" s="29"/>
-    </row>
-    <row r="317" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F317" s="29"/>
       <c r="G317" s="29"/>
       <c r="H317" s="29"/>
-      <c r="I317" s="29"/>
-    </row>
-    <row r="318" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F318" s="29"/>
       <c r="G318" s="29"/>
       <c r="H318" s="29"/>
-      <c r="I318" s="29"/>
-    </row>
-    <row r="319" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F319" s="29"/>
       <c r="G319" s="29"/>
       <c r="H319" s="29"/>
-      <c r="I319" s="29"/>
-    </row>
-    <row r="320" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F320" s="29"/>
       <c r="G320" s="29"/>
       <c r="H320" s="29"/>
-      <c r="I320" s="29"/>
-    </row>
-    <row r="321" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F321" s="29"/>
       <c r="G321" s="29"/>
       <c r="H321" s="29"/>
-      <c r="I321" s="29"/>
-    </row>
-    <row r="322" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F322" s="29"/>
       <c r="G322" s="29"/>
       <c r="H322" s="29"/>
-      <c r="I322" s="29"/>
-    </row>
-    <row r="323" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F323" s="29"/>
       <c r="G323" s="29"/>
       <c r="H323" s="29"/>
-      <c r="I323" s="29"/>
-    </row>
-    <row r="324" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F324" s="29"/>
       <c r="G324" s="29"/>
       <c r="H324" s="29"/>
-      <c r="I324" s="29"/>
-    </row>
-    <row r="325" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F325" s="29"/>
       <c r="G325" s="29"/>
       <c r="H325" s="29"/>
-      <c r="I325" s="29"/>
-    </row>
-    <row r="326" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F326" s="29"/>
       <c r="G326" s="29"/>
       <c r="H326" s="29"/>
-      <c r="I326" s="29"/>
-    </row>
-    <row r="327" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F327" s="29"/>
       <c r="G327" s="29"/>
       <c r="H327" s="29"/>
-      <c r="I327" s="29"/>
-    </row>
-    <row r="328" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F328" s="29"/>
       <c r="G328" s="29"/>
       <c r="H328" s="29"/>
-      <c r="I328" s="29"/>
-    </row>
-    <row r="329" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F329" s="29"/>
       <c r="G329" s="29"/>
       <c r="H329" s="29"/>
-      <c r="I329" s="29"/>
-    </row>
-    <row r="330" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F330" s="29"/>
       <c r="G330" s="29"/>
       <c r="H330" s="29"/>
-      <c r="I330" s="29"/>
-    </row>
-    <row r="331" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F331" s="29"/>
       <c r="G331" s="29"/>
       <c r="H331" s="29"/>
-      <c r="I331" s="29"/>
-    </row>
-    <row r="332" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F332" s="29"/>
       <c r="G332" s="29"/>
       <c r="H332" s="29"/>
-      <c r="I332" s="29"/>
-    </row>
-    <row r="333" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F333" s="29"/>
       <c r="G333" s="29"/>
       <c r="H333" s="29"/>
-      <c r="I333" s="29"/>
-    </row>
-    <row r="334" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F334" s="29"/>
       <c r="G334" s="29"/>
       <c r="H334" s="29"/>
-      <c r="I334" s="29"/>
-    </row>
-    <row r="335" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F335" s="29"/>
       <c r="G335" s="29"/>
       <c r="H335" s="29"/>
-      <c r="I335" s="29"/>
-    </row>
-    <row r="336" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F336" s="29"/>
       <c r="G336" s="29"/>
       <c r="H336" s="29"/>
-      <c r="I336" s="29"/>
-    </row>
-    <row r="337" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F337" s="29"/>
       <c r="G337" s="29"/>
       <c r="H337" s="29"/>
-      <c r="I337" s="29"/>
-    </row>
-    <row r="338" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F338" s="29"/>
       <c r="G338" s="29"/>
       <c r="H338" s="29"/>
-      <c r="I338" s="29"/>
-    </row>
-    <row r="339" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F339" s="29"/>
       <c r="G339" s="29"/>
       <c r="H339" s="29"/>
-      <c r="I339" s="29"/>
-    </row>
-    <row r="340" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F340" s="29"/>
       <c r="G340" s="29"/>
       <c r="H340" s="29"/>
-      <c r="I340" s="29"/>
-    </row>
-    <row r="341" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F341" s="29"/>
       <c r="G341" s="29"/>
       <c r="H341" s="29"/>
-      <c r="I341" s="29"/>
-    </row>
-    <row r="342" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F342" s="29"/>
       <c r="G342" s="29"/>
       <c r="H342" s="29"/>
-      <c r="I342" s="29"/>
-    </row>
-    <row r="343" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F343" s="29"/>
       <c r="G343" s="29"/>
       <c r="H343" s="29"/>
-      <c r="I343" s="29"/>
-    </row>
-    <row r="344" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F344" s="29"/>
       <c r="G344" s="29"/>
       <c r="H344" s="29"/>
-      <c r="I344" s="29"/>
-    </row>
-    <row r="345" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F345" s="29"/>
       <c r="G345" s="29"/>
       <c r="H345" s="29"/>
-      <c r="I345" s="29"/>
-    </row>
-    <row r="346" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F346" s="29"/>
       <c r="G346" s="29"/>
       <c r="H346" s="29"/>
-      <c r="I346" s="29"/>
-    </row>
-    <row r="347" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F347" s="29"/>
       <c r="G347" s="29"/>
       <c r="H347" s="29"/>
-      <c r="I347" s="29"/>
-    </row>
-    <row r="348" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F348" s="29"/>
       <c r="G348" s="29"/>
       <c r="H348" s="29"/>
-      <c r="I348" s="29"/>
-    </row>
-    <row r="349" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F349" s="29"/>
       <c r="G349" s="29"/>
       <c r="H349" s="29"/>
-      <c r="I349" s="29"/>
-    </row>
-    <row r="350" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F350" s="29"/>
       <c r="G350" s="29"/>
       <c r="H350" s="29"/>
-      <c r="I350" s="29"/>
-    </row>
-    <row r="351" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F351" s="29"/>
       <c r="G351" s="29"/>
       <c r="H351" s="29"/>
-      <c r="I351" s="29"/>
-    </row>
-    <row r="352" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F352" s="29"/>
       <c r="G352" s="29"/>
       <c r="H352" s="29"/>
-      <c r="I352" s="29"/>
-    </row>
-    <row r="353" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F353" s="29"/>
       <c r="G353" s="29"/>
       <c r="H353" s="29"/>
-      <c r="I353" s="29"/>
-    </row>
-    <row r="354" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F354" s="29"/>
       <c r="G354" s="29"/>
       <c r="H354" s="29"/>
-      <c r="I354" s="29"/>
-    </row>
-    <row r="355" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F355" s="29"/>
       <c r="G355" s="29"/>
       <c r="H355" s="29"/>
-      <c r="I355" s="29"/>
-    </row>
-    <row r="356" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F356" s="29"/>
       <c r="G356" s="29"/>
       <c r="H356" s="29"/>
-      <c r="I356" s="29"/>
-    </row>
-    <row r="357" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F357" s="29"/>
       <c r="G357" s="29"/>
       <c r="H357" s="29"/>
-      <c r="I357" s="29"/>
-    </row>
-    <row r="358" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F358" s="29"/>
       <c r="G358" s="29"/>
       <c r="H358" s="29"/>
-      <c r="I358" s="29"/>
-    </row>
-    <row r="359" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F359" s="29"/>
       <c r="G359" s="29"/>
       <c r="H359" s="29"/>
-      <c r="I359" s="29"/>
-    </row>
-    <row r="360" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F360" s="29"/>
       <c r="G360" s="29"/>
       <c r="H360" s="29"/>
-      <c r="I360" s="29"/>
-    </row>
-    <row r="361" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F361" s="29"/>
       <c r="G361" s="29"/>
       <c r="H361" s="29"/>
-      <c r="I361" s="29"/>
-    </row>
-    <row r="362" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F362" s="29"/>
       <c r="G362" s="29"/>
       <c r="H362" s="29"/>
-      <c r="I362" s="29"/>
-    </row>
-    <row r="363" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F363" s="29"/>
       <c r="G363" s="29"/>
       <c r="H363" s="29"/>
-      <c r="I363" s="29"/>
-    </row>
-    <row r="364" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F364" s="29"/>
       <c r="G364" s="29"/>
       <c r="H364" s="29"/>
-      <c r="I364" s="29"/>
-    </row>
-    <row r="365" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F365" s="29"/>
       <c r="G365" s="29"/>
       <c r="H365" s="29"/>
-      <c r="I365" s="29"/>
-    </row>
-    <row r="366" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F366" s="29"/>
       <c r="G366" s="29"/>
       <c r="H366" s="29"/>
-      <c r="I366" s="29"/>
-    </row>
-    <row r="367" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F367" s="29"/>
       <c r="G367" s="29"/>
       <c r="H367" s="29"/>
-      <c r="I367" s="29"/>
-    </row>
-    <row r="368" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F368" s="29"/>
       <c r="G368" s="29"/>
       <c r="H368" s="29"/>
-      <c r="I368" s="29"/>
-    </row>
-    <row r="369" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F369" s="29"/>
       <c r="G369" s="29"/>
       <c r="H369" s="29"/>
-      <c r="I369" s="29"/>
-    </row>
-    <row r="370" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F370" s="29"/>
       <c r="G370" s="29"/>
       <c r="H370" s="29"/>
-      <c r="I370" s="29"/>
-    </row>
-    <row r="371" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F371" s="29"/>
       <c r="G371" s="29"/>
       <c r="H371" s="29"/>
-      <c r="I371" s="29"/>
-    </row>
-    <row r="372" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F372" s="29"/>
       <c r="G372" s="29"/>
       <c r="H372" s="29"/>
-      <c r="I372" s="29"/>
-    </row>
-    <row r="373" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F373" s="29"/>
       <c r="G373" s="29"/>
       <c r="H373" s="29"/>
-      <c r="I373" s="29"/>
-    </row>
-    <row r="374" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F374" s="29"/>
       <c r="G374" s="29"/>
       <c r="H374" s="29"/>
-      <c r="I374" s="29"/>
-    </row>
-    <row r="375" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F375" s="29"/>
       <c r="G375" s="29"/>
       <c r="H375" s="29"/>
-      <c r="I375" s="29"/>
-    </row>
-    <row r="376" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F376" s="29"/>
       <c r="G376" s="29"/>
       <c r="H376" s="29"/>
-      <c r="I376" s="29"/>
-    </row>
-    <row r="377" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F377" s="29"/>
       <c r="G377" s="29"/>
       <c r="H377" s="29"/>
-      <c r="I377" s="29"/>
-    </row>
-    <row r="378" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F378" s="29"/>
       <c r="G378" s="29"/>
       <c r="H378" s="29"/>
-      <c r="I378" s="29"/>
-    </row>
-    <row r="379" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F379" s="29"/>
       <c r="G379" s="29"/>
       <c r="H379" s="29"/>
-      <c r="I379" s="29"/>
-    </row>
-    <row r="380" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F380" s="29"/>
       <c r="G380" s="29"/>
       <c r="H380" s="29"/>
-      <c r="I380" s="29"/>
-    </row>
-    <row r="381" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F381" s="29"/>
       <c r="G381" s="29"/>
       <c r="H381" s="29"/>
-      <c r="I381" s="29"/>
-    </row>
-    <row r="382" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F382" s="29"/>
       <c r="G382" s="29"/>
       <c r="H382" s="29"/>
-      <c r="I382" s="29"/>
-    </row>
-    <row r="383" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F383" s="29"/>
       <c r="G383" s="29"/>
       <c r="H383" s="29"/>
-      <c r="I383" s="29"/>
-    </row>
-    <row r="384" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F384" s="29"/>
       <c r="G384" s="29"/>
       <c r="H384" s="29"/>
-      <c r="I384" s="29"/>
-    </row>
-    <row r="385" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F385" s="29"/>
       <c r="G385" s="29"/>
       <c r="H385" s="29"/>
-      <c r="I385" s="29"/>
-    </row>
-    <row r="386" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F386" s="29"/>
       <c r="G386" s="29"/>
       <c r="H386" s="29"/>
-      <c r="I386" s="29"/>
-    </row>
-    <row r="387" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F387" s="29"/>
       <c r="G387" s="29"/>
       <c r="H387" s="29"/>
-      <c r="I387" s="29"/>
-    </row>
-    <row r="388" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F388" s="29"/>
       <c r="G388" s="29"/>
       <c r="H388" s="29"/>
-      <c r="I388" s="29"/>
-    </row>
-    <row r="389" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F389" s="29"/>
       <c r="G389" s="29"/>
       <c r="H389" s="29"/>
-      <c r="I389" s="29"/>
-    </row>
-    <row r="390" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F390" s="29"/>
       <c r="G390" s="29"/>
       <c r="H390" s="29"/>
-      <c r="I390" s="29"/>
-    </row>
-    <row r="391" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F391" s="29"/>
       <c r="G391" s="29"/>
       <c r="H391" s="29"/>
-      <c r="I391" s="29"/>
-    </row>
-    <row r="392" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F392" s="29"/>
       <c r="G392" s="29"/>
       <c r="H392" s="29"/>
-      <c r="I392" s="29"/>
-    </row>
-    <row r="393" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F393" s="29"/>
       <c r="G393" s="29"/>
       <c r="H393" s="29"/>
-      <c r="I393" s="29"/>
-    </row>
-    <row r="394" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F394" s="29"/>
       <c r="G394" s="29"/>
       <c r="H394" s="29"/>
-      <c r="I394" s="29"/>
-    </row>
-    <row r="395" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F395" s="29"/>
       <c r="G395" s="29"/>
       <c r="H395" s="29"/>
-      <c r="I395" s="29"/>
-    </row>
-    <row r="396" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F396" s="29"/>
       <c r="G396" s="29"/>
       <c r="H396" s="29"/>
-      <c r="I396" s="29"/>
-    </row>
-    <row r="397" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F397" s="29"/>
       <c r="G397" s="29"/>
       <c r="H397" s="29"/>
-      <c r="I397" s="29"/>
-    </row>
-    <row r="398" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F398" s="29"/>
       <c r="G398" s="29"/>
       <c r="H398" s="29"/>
-      <c r="I398" s="29"/>
-    </row>
-    <row r="399" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F399" s="29"/>
       <c r="G399" s="29"/>
       <c r="H399" s="29"/>
-      <c r="I399" s="29"/>
-    </row>
-    <row r="400" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F400" s="29"/>
       <c r="G400" s="29"/>
       <c r="H400" s="29"/>
-      <c r="I400" s="29"/>
-    </row>
-    <row r="401" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F401" s="29"/>
       <c r="G401" s="29"/>
       <c r="H401" s="29"/>
-      <c r="I401" s="29"/>
-    </row>
-    <row r="402" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F402" s="29"/>
       <c r="G402" s="29"/>
       <c r="H402" s="29"/>
-      <c r="I402" s="29"/>
-    </row>
-    <row r="403" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F403" s="29"/>
       <c r="G403" s="29"/>
       <c r="H403" s="29"/>
-      <c r="I403" s="29"/>
-    </row>
-    <row r="404" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F404" s="29"/>
       <c r="G404" s="29"/>
       <c r="H404" s="29"/>
-      <c r="I404" s="29"/>
-    </row>
-    <row r="405" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F405" s="29"/>
       <c r="G405" s="29"/>
       <c r="H405" s="29"/>
-      <c r="I405" s="29"/>
-    </row>
-    <row r="406" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F406" s="29"/>
       <c r="G406" s="29"/>
       <c r="H406" s="29"/>
-      <c r="I406" s="29"/>
-    </row>
-    <row r="407" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F407" s="29"/>
       <c r="G407" s="29"/>
       <c r="H407" s="29"/>
-      <c r="I407" s="29"/>
-    </row>
-    <row r="408" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F408" s="29"/>
       <c r="G408" s="29"/>
       <c r="H408" s="29"/>
-      <c r="I408" s="29"/>
-    </row>
-    <row r="409" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F409" s="29"/>
       <c r="G409" s="29"/>
       <c r="H409" s="29"/>
-      <c r="I409" s="29"/>
-    </row>
-    <row r="410" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F410" s="29"/>
       <c r="G410" s="29"/>
       <c r="H410" s="29"/>
-      <c r="I410" s="29"/>
-    </row>
-    <row r="411" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F411" s="29"/>
       <c r="G411" s="29"/>
       <c r="H411" s="29"/>
-      <c r="I411" s="29"/>
-    </row>
-    <row r="412" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F412" s="29"/>
       <c r="G412" s="29"/>
       <c r="H412" s="29"/>
-      <c r="I412" s="29"/>
-    </row>
-    <row r="413" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F413" s="29"/>
       <c r="G413" s="29"/>
       <c r="H413" s="29"/>
-      <c r="I413" s="29"/>
-    </row>
-    <row r="414" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F414" s="29"/>
       <c r="G414" s="29"/>
       <c r="H414" s="29"/>
-      <c r="I414" s="29"/>
-    </row>
-    <row r="415" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F415" s="29"/>
       <c r="G415" s="29"/>
       <c r="H415" s="29"/>
-      <c r="I415" s="29"/>
-    </row>
-    <row r="416" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F416" s="29"/>
       <c r="G416" s="29"/>
       <c r="H416" s="29"/>
-      <c r="I416" s="29"/>
-    </row>
-    <row r="417" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F417" s="29"/>
       <c r="G417" s="29"/>
       <c r="H417" s="29"/>
-      <c r="I417" s="29"/>
-    </row>
-    <row r="418" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F418" s="29"/>
       <c r="G418" s="29"/>
       <c r="H418" s="29"/>
-      <c r="I418" s="29"/>
-    </row>
-    <row r="419" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F419" s="29"/>
       <c r="G419" s="29"/>
       <c r="H419" s="29"/>
-      <c r="I419" s="29"/>
-    </row>
-    <row r="420" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F420" s="29"/>
       <c r="G420" s="29"/>
       <c r="H420" s="29"/>
-      <c r="I420" s="29"/>
-    </row>
-    <row r="421" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F421" s="29"/>
       <c r="G421" s="29"/>
       <c r="H421" s="29"/>
-      <c r="I421" s="29"/>
-    </row>
-    <row r="422" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F422" s="29"/>
       <c r="G422" s="29"/>
       <c r="H422" s="29"/>
-      <c r="I422" s="29"/>
-    </row>
-    <row r="423" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F423" s="29"/>
       <c r="G423" s="29"/>
       <c r="H423" s="29"/>
-      <c r="I423" s="29"/>
-    </row>
-    <row r="424" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F424" s="29"/>
       <c r="G424" s="29"/>
       <c r="H424" s="29"/>
-      <c r="I424" s="29"/>
-    </row>
-    <row r="425" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F425" s="29"/>
       <c r="G425" s="29"/>
       <c r="H425" s="29"/>
-      <c r="I425" s="29"/>
-    </row>
-    <row r="426" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F426" s="29"/>
       <c r="G426" s="29"/>
       <c r="H426" s="29"/>
-      <c r="I426" s="29"/>
-    </row>
-    <row r="427" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F427" s="29"/>
       <c r="G427" s="29"/>
       <c r="H427" s="29"/>
-      <c r="I427" s="29"/>
-    </row>
-    <row r="428" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F428" s="29"/>
       <c r="G428" s="29"/>
       <c r="H428" s="29"/>
-      <c r="I428" s="29"/>
-    </row>
-    <row r="429" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F429" s="29"/>
       <c r="G429" s="29"/>
       <c r="H429" s="29"/>
-      <c r="I429" s="29"/>
-    </row>
-    <row r="430" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F430" s="29"/>
       <c r="G430" s="29"/>
       <c r="H430" s="29"/>
-      <c r="I430" s="29"/>
-    </row>
-    <row r="431" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F431" s="29"/>
       <c r="G431" s="29"/>
       <c r="H431" s="29"/>
-      <c r="I431" s="29"/>
-    </row>
-    <row r="432" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F432" s="29"/>
       <c r="G432" s="29"/>
       <c r="H432" s="29"/>
-      <c r="I432" s="29"/>
-    </row>
-    <row r="433" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F433" s="29"/>
       <c r="G433" s="29"/>
       <c r="H433" s="29"/>
-      <c r="I433" s="29"/>
-    </row>
-    <row r="434" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F434" s="29"/>
       <c r="G434" s="29"/>
       <c r="H434" s="29"/>
-      <c r="I434" s="29"/>
-    </row>
-    <row r="435" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F435" s="29"/>
       <c r="G435" s="29"/>
       <c r="H435" s="29"/>
-      <c r="I435" s="29"/>
-    </row>
-    <row r="436" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F436" s="29"/>
       <c r="G436" s="29"/>
       <c r="H436" s="29"/>
-      <c r="I436" s="29"/>
-    </row>
-    <row r="437" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F437" s="29"/>
       <c r="G437" s="29"/>
       <c r="H437" s="29"/>
-      <c r="I437" s="29"/>
-    </row>
-    <row r="438" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F438" s="29"/>
       <c r="G438" s="29"/>
       <c r="H438" s="29"/>
-      <c r="I438" s="29"/>
-    </row>
-    <row r="439" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F439" s="29"/>
       <c r="G439" s="29"/>
       <c r="H439" s="29"/>
-      <c r="I439" s="29"/>
-    </row>
-    <row r="440" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F440" s="29"/>
       <c r="G440" s="29"/>
       <c r="H440" s="29"/>
-      <c r="I440" s="29"/>
-    </row>
-    <row r="441" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F441" s="29"/>
       <c r="G441" s="29"/>
       <c r="H441" s="29"/>
-      <c r="I441" s="29"/>
-    </row>
-    <row r="442" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F442" s="29"/>
       <c r="G442" s="29"/>
       <c r="H442" s="29"/>
-      <c r="I442" s="29"/>
-    </row>
-    <row r="443" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F443" s="29"/>
       <c r="G443" s="29"/>
       <c r="H443" s="29"/>
-      <c r="I443" s="29"/>
-    </row>
-    <row r="444" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F444" s="29"/>
       <c r="G444" s="29"/>
       <c r="H444" s="29"/>
-      <c r="I444" s="29"/>
-    </row>
-    <row r="445" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F445" s="29"/>
       <c r="G445" s="29"/>
       <c r="H445" s="29"/>
-      <c r="I445" s="29"/>
-    </row>
-    <row r="446" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F446" s="29"/>
       <c r="G446" s="29"/>
       <c r="H446" s="29"/>
-      <c r="I446" s="29"/>
-    </row>
-    <row r="447" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F447" s="29"/>
       <c r="G447" s="29"/>
       <c r="H447" s="29"/>
-      <c r="I447" s="29"/>
-    </row>
-    <row r="448" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F448" s="29"/>
       <c r="G448" s="29"/>
       <c r="H448" s="29"/>
-      <c r="I448" s="29"/>
-    </row>
-    <row r="449" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F449" s="29"/>
       <c r="G449" s="29"/>
       <c r="H449" s="29"/>
-      <c r="I449" s="29"/>
-    </row>
-    <row r="450" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F450" s="29"/>
       <c r="G450" s="29"/>
       <c r="H450" s="29"/>
-      <c r="I450" s="29"/>
-    </row>
-    <row r="451" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F451" s="29"/>
       <c r="G451" s="29"/>
       <c r="H451" s="29"/>
-      <c r="I451" s="29"/>
-    </row>
-    <row r="452" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F452" s="29"/>
       <c r="G452" s="29"/>
       <c r="H452" s="29"/>
-      <c r="I452" s="29"/>
-    </row>
-    <row r="453" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F453" s="29"/>
       <c r="G453" s="29"/>
       <c r="H453" s="29"/>
-      <c r="I453" s="29"/>
-    </row>
-    <row r="454" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F454" s="29"/>
       <c r="G454" s="29"/>
       <c r="H454" s="29"/>
-      <c r="I454" s="29"/>
-    </row>
-    <row r="455" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F455" s="29"/>
       <c r="G455" s="29"/>
       <c r="H455" s="29"/>
-      <c r="I455" s="29"/>
-    </row>
-    <row r="456" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F456" s="29"/>
       <c r="G456" s="29"/>
       <c r="H456" s="29"/>
-      <c r="I456" s="29"/>
-    </row>
-    <row r="457" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F457" s="29"/>
       <c r="G457" s="29"/>
       <c r="H457" s="29"/>
-      <c r="I457" s="29"/>
-    </row>
-    <row r="458" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F458" s="29"/>
       <c r="G458" s="29"/>
       <c r="H458" s="29"/>
-      <c r="I458" s="29"/>
-    </row>
-    <row r="459" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F459" s="29"/>
       <c r="G459" s="29"/>
       <c r="H459" s="29"/>
-      <c r="I459" s="29"/>
-    </row>
-    <row r="460" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F460" s="29"/>
       <c r="G460" s="29"/>
       <c r="H460" s="29"/>
-      <c r="I460" s="29"/>
-    </row>
-    <row r="461" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F461" s="29"/>
       <c r="G461" s="29"/>
       <c r="H461" s="29"/>
-      <c r="I461" s="29"/>
-    </row>
-    <row r="462" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F462" s="29"/>
       <c r="G462" s="29"/>
       <c r="H462" s="29"/>
-      <c r="I462" s="29"/>
-    </row>
-    <row r="463" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F463" s="29"/>
       <c r="G463" s="29"/>
       <c r="H463" s="29"/>
-      <c r="I463" s="29"/>
-    </row>
-    <row r="464" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F464" s="29"/>
       <c r="G464" s="29"/>
       <c r="H464" s="29"/>
-      <c r="I464" s="29"/>
-    </row>
-    <row r="465" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F465" s="29"/>
       <c r="G465" s="29"/>
       <c r="H465" s="29"/>
-      <c r="I465" s="29"/>
-    </row>
-    <row r="466" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F466" s="29"/>
       <c r="G466" s="29"/>
       <c r="H466" s="29"/>
-      <c r="I466" s="29"/>
-    </row>
-    <row r="467" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F467" s="29"/>
       <c r="G467" s="29"/>
       <c r="H467" s="29"/>
-      <c r="I467" s="29"/>
-    </row>
-    <row r="468" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F468" s="29"/>
       <c r="G468" s="29"/>
       <c r="H468" s="29"/>
-      <c r="I468" s="29"/>
-    </row>
-    <row r="469" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F469" s="29"/>
       <c r="G469" s="29"/>
       <c r="H469" s="29"/>
-      <c r="I469" s="29"/>
-    </row>
-    <row r="470" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F470" s="29"/>
       <c r="G470" s="29"/>
       <c r="H470" s="29"/>
-      <c r="I470" s="29"/>
-    </row>
-    <row r="471" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F471" s="29"/>
       <c r="G471" s="29"/>
       <c r="H471" s="29"/>
-      <c r="I471" s="29"/>
-    </row>
-    <row r="472" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F472" s="29"/>
       <c r="G472" s="29"/>
       <c r="H472" s="29"/>
-      <c r="I472" s="29"/>
-    </row>
-    <row r="473" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F473" s="29"/>
       <c r="G473" s="29"/>
       <c r="H473" s="29"/>
-      <c r="I473" s="29"/>
-    </row>
-    <row r="474" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F474" s="29"/>
       <c r="G474" s="29"/>
       <c r="H474" s="29"/>
-      <c r="I474" s="29"/>
-    </row>
-    <row r="475" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F475" s="29"/>
       <c r="G475" s="29"/>
       <c r="H475" s="29"/>
-      <c r="I475" s="29"/>
-    </row>
-    <row r="476" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F476" s="29"/>
       <c r="G476" s="29"/>
       <c r="H476" s="29"/>
-      <c r="I476" s="29"/>
-    </row>
-    <row r="477" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F477" s="29"/>
       <c r="G477" s="29"/>
       <c r="H477" s="29"/>
-      <c r="I477" s="29"/>
-    </row>
-    <row r="478" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F478" s="29"/>
       <c r="G478" s="29"/>
       <c r="H478" s="29"/>
-      <c r="I478" s="29"/>
-    </row>
-    <row r="479" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F479" s="29"/>
       <c r="G479" s="29"/>
       <c r="H479" s="29"/>
-      <c r="I479" s="29"/>
-    </row>
-    <row r="480" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F480" s="29"/>
       <c r="G480" s="29"/>
       <c r="H480" s="29"/>
-      <c r="I480" s="29"/>
-    </row>
-    <row r="481" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F481" s="29"/>
       <c r="G481" s="29"/>
       <c r="H481" s="29"/>
-      <c r="I481" s="29"/>
-    </row>
-    <row r="482" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F482" s="29"/>
       <c r="G482" s="29"/>
       <c r="H482" s="29"/>
-      <c r="I482" s="29"/>
-    </row>
-    <row r="483" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F483" s="29"/>
       <c r="G483" s="29"/>
       <c r="H483" s="29"/>
-      <c r="I483" s="29"/>
-    </row>
-    <row r="484" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F484" s="29"/>
       <c r="G484" s="29"/>
       <c r="H484" s="29"/>
-      <c r="I484" s="29"/>
-    </row>
-    <row r="485" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F485" s="29"/>
       <c r="G485" s="29"/>
       <c r="H485" s="29"/>
-      <c r="I485" s="29"/>
-    </row>
-    <row r="486" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F486" s="29"/>
       <c r="G486" s="29"/>
       <c r="H486" s="29"/>
-      <c r="I486" s="29"/>
-    </row>
-    <row r="487" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F487" s="29"/>
       <c r="G487" s="29"/>
       <c r="H487" s="29"/>
-      <c r="I487" s="29"/>
-    </row>
-    <row r="488" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F488" s="29"/>
       <c r="G488" s="29"/>
       <c r="H488" s="29"/>
-      <c r="I488" s="29"/>
-    </row>
-    <row r="489" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F489" s="29"/>
       <c r="G489" s="29"/>
       <c r="H489" s="29"/>
-      <c r="I489" s="29"/>
-    </row>
-    <row r="490" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F490" s="29"/>
       <c r="G490" s="29"/>
       <c r="H490" s="29"/>
-      <c r="I490" s="29"/>
-    </row>
-    <row r="491" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F491" s="29"/>
       <c r="G491" s="29"/>
       <c r="H491" s="29"/>
-      <c r="I491" s="29"/>
-    </row>
-    <row r="492" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F492" s="29"/>
       <c r="G492" s="29"/>
       <c r="H492" s="29"/>
-      <c r="I492" s="29"/>
-    </row>
-    <row r="493" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F493" s="29"/>
       <c r="G493" s="29"/>
       <c r="H493" s="29"/>
-      <c r="I493" s="29"/>
-    </row>
-    <row r="494" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F494" s="29"/>
       <c r="G494" s="29"/>
       <c r="H494" s="29"/>
-      <c r="I494" s="29"/>
-    </row>
-    <row r="495" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F495" s="29"/>
       <c r="G495" s="29"/>
       <c r="H495" s="29"/>
-      <c r="I495" s="29"/>
-    </row>
-    <row r="496" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F496" s="29"/>
       <c r="G496" s="29"/>
       <c r="H496" s="29"/>
-      <c r="I496" s="29"/>
-    </row>
-    <row r="497" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F497" s="29"/>
       <c r="G497" s="29"/>
       <c r="H497" s="29"/>
-      <c r="I497" s="29"/>
-    </row>
-    <row r="498" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F498" s="29"/>
       <c r="G498" s="29"/>
       <c r="H498" s="29"/>
-      <c r="I498" s="29"/>
-    </row>
-    <row r="499" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F499" s="29"/>
       <c r="G499" s="29"/>
       <c r="H499" s="29"/>
-      <c r="I499" s="29"/>
-    </row>
-    <row r="500" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F500" s="29"/>
       <c r="G500" s="29"/>
       <c r="H500" s="29"/>
-      <c r="I500" s="29"/>
-    </row>
-    <row r="501" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F501" s="29"/>
       <c r="G501" s="29"/>
       <c r="H501" s="29"/>
-      <c r="I501" s="29"/>
-    </row>
-    <row r="502" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F502" s="29"/>
       <c r="G502" s="29"/>
       <c r="H502" s="29"/>
-      <c r="I502" s="29"/>
-    </row>
-    <row r="503" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F503" s="29"/>
       <c r="G503" s="29"/>
       <c r="H503" s="29"/>
-      <c r="I503" s="29"/>
-    </row>
-    <row r="504" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F504" s="29"/>
       <c r="G504" s="29"/>
       <c r="H504" s="29"/>
-      <c r="I504" s="29"/>
-    </row>
-    <row r="505" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F505" s="29"/>
       <c r="G505" s="29"/>
       <c r="H505" s="29"/>
-      <c r="I505" s="29"/>
-    </row>
-    <row r="506" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F506" s="29"/>
       <c r="G506" s="29"/>
       <c r="H506" s="29"/>
-      <c r="I506" s="29"/>
-    </row>
-    <row r="507" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F507" s="29"/>
       <c r="G507" s="29"/>
       <c r="H507" s="29"/>
-      <c r="I507" s="29"/>
-    </row>
-    <row r="508" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F508" s="29"/>
       <c r="G508" s="29"/>
       <c r="H508" s="29"/>
-      <c r="I508" s="29"/>
-    </row>
-    <row r="509" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F509" s="29"/>
       <c r="G509" s="29"/>
       <c r="H509" s="29"/>
-      <c r="I509" s="29"/>
-    </row>
-    <row r="510" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F510" s="29"/>
       <c r="G510" s="29"/>
       <c r="H510" s="29"/>
-      <c r="I510" s="29"/>
-    </row>
-    <row r="511" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F511" s="29"/>
       <c r="G511" s="29"/>
       <c r="H511" s="29"/>
-      <c r="I511" s="29"/>
-    </row>
-    <row r="512" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F512" s="29"/>
       <c r="G512" s="29"/>
       <c r="H512" s="29"/>
-      <c r="I512" s="29"/>
-    </row>
-    <row r="513" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F513" s="29"/>
       <c r="G513" s="29"/>
       <c r="H513" s="29"/>
-      <c r="I513" s="29"/>
-    </row>
-    <row r="514" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F514" s="29"/>
       <c r="G514" s="29"/>
       <c r="H514" s="29"/>
-      <c r="I514" s="29"/>
-    </row>
-    <row r="515" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F515" s="29"/>
       <c r="G515" s="29"/>
       <c r="H515" s="29"/>
-      <c r="I515" s="29"/>
-    </row>
-    <row r="516" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F516" s="29"/>
       <c r="G516" s="29"/>
       <c r="H516" s="29"/>
-      <c r="I516" s="29"/>
-    </row>
-    <row r="517" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F517" s="29"/>
       <c r="G517" s="29"/>
       <c r="H517" s="29"/>
-      <c r="I517" s="29"/>
-    </row>
-    <row r="518" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F518" s="29"/>
       <c r="G518" s="29"/>
       <c r="H518" s="29"/>
-      <c r="I518" s="29"/>
-    </row>
-    <row r="519" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F519" s="29"/>
       <c r="G519" s="29"/>
       <c r="H519" s="29"/>
-      <c r="I519" s="29"/>
-    </row>
-    <row r="520" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F520" s="29"/>
       <c r="G520" s="29"/>
       <c r="H520" s="29"/>
-      <c r="I520" s="29"/>
-    </row>
-    <row r="521" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F521" s="29"/>
       <c r="G521" s="29"/>
       <c r="H521" s="29"/>
-      <c r="I521" s="29"/>
-    </row>
-    <row r="522" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F522" s="29"/>
       <c r="G522" s="29"/>
       <c r="H522" s="29"/>
-      <c r="I522" s="29"/>
-    </row>
-    <row r="523" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F523" s="29"/>
       <c r="G523" s="29"/>
       <c r="H523" s="29"/>
-      <c r="I523" s="29"/>
-    </row>
-    <row r="524" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F524" s="29"/>
       <c r="G524" s="29"/>
       <c r="H524" s="29"/>
-      <c r="I524" s="29"/>
-    </row>
-    <row r="525" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F525" s="29"/>
       <c r="G525" s="29"/>
       <c r="H525" s="29"/>
-      <c r="I525" s="29"/>
-    </row>
-    <row r="526" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F526" s="29"/>
       <c r="G526" s="29"/>
       <c r="H526" s="29"/>
-      <c r="I526" s="29"/>
-    </row>
-    <row r="527" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F527" s="29"/>
       <c r="G527" s="29"/>
       <c r="H527" s="29"/>
-      <c r="I527" s="29"/>
-    </row>
-    <row r="528" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F528" s="29"/>
       <c r="G528" s="29"/>
       <c r="H528" s="29"/>
-      <c r="I528" s="29"/>
-    </row>
-    <row r="529" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F529" s="29"/>
       <c r="G529" s="29"/>
       <c r="H529" s="29"/>
-      <c r="I529" s="29"/>
-    </row>
-    <row r="530" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F530" s="29"/>
       <c r="G530" s="29"/>
       <c r="H530" s="29"/>
-      <c r="I530" s="29"/>
-    </row>
-    <row r="531" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F531" s="29"/>
       <c r="G531" s="29"/>
       <c r="H531" s="29"/>
-      <c r="I531" s="29"/>
-    </row>
-    <row r="532" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F532" s="29"/>
       <c r="G532" s="29"/>
       <c r="H532" s="29"/>
-      <c r="I532" s="29"/>
-    </row>
-    <row r="533" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F533" s="29"/>
       <c r="G533" s="29"/>
       <c r="H533" s="29"/>
-      <c r="I533" s="29"/>
-    </row>
-    <row r="534" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F534" s="29"/>
       <c r="G534" s="29"/>
       <c r="H534" s="29"/>
-      <c r="I534" s="29"/>
-    </row>
-    <row r="535" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F535" s="29"/>
       <c r="G535" s="29"/>
       <c r="H535" s="29"/>
-      <c r="I535" s="29"/>
-    </row>
-    <row r="536" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F536" s="29"/>
       <c r="G536" s="29"/>
       <c r="H536" s="29"/>
-      <c r="I536" s="29"/>
-    </row>
-    <row r="537" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F537" s="29"/>
       <c r="G537" s="29"/>
       <c r="H537" s="29"/>
-      <c r="I537" s="29"/>
-    </row>
-    <row r="538" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F538" s="29"/>
       <c r="G538" s="29"/>
       <c r="H538" s="29"/>
-      <c r="I538" s="29"/>
-    </row>
-    <row r="539" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F539" s="29"/>
       <c r="G539" s="29"/>
       <c r="H539" s="29"/>
-      <c r="I539" s="29"/>
-    </row>
-    <row r="540" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F540" s="29"/>
       <c r="G540" s="29"/>
       <c r="H540" s="29"/>
-      <c r="I540" s="29"/>
-    </row>
-    <row r="541" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F541" s="29"/>
       <c r="G541" s="29"/>
       <c r="H541" s="29"/>
-      <c r="I541" s="29"/>
-    </row>
-    <row r="542" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F542" s="29"/>
       <c r="G542" s="29"/>
       <c r="H542" s="29"/>
-      <c r="I542" s="29"/>
-    </row>
-    <row r="543" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F543" s="29"/>
       <c r="G543" s="29"/>
       <c r="H543" s="29"/>
-      <c r="I543" s="29"/>
-    </row>
-    <row r="544" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F544" s="29"/>
       <c r="G544" s="29"/>
       <c r="H544" s="29"/>
-      <c r="I544" s="29"/>
-    </row>
-    <row r="545" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F545" s="29"/>
       <c r="G545" s="29"/>
       <c r="H545" s="29"/>
-      <c r="I545" s="29"/>
-    </row>
-    <row r="546" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F546" s="29"/>
       <c r="G546" s="29"/>
       <c r="H546" s="29"/>
-      <c r="I546" s="29"/>
-    </row>
-    <row r="547" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F547" s="29"/>
       <c r="G547" s="29"/>
       <c r="H547" s="29"/>
-      <c r="I547" s="29"/>
-    </row>
-    <row r="548" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F548" s="29"/>
       <c r="G548" s="29"/>
       <c r="H548" s="29"/>
-      <c r="I548" s="29"/>
-    </row>
-    <row r="549" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F549" s="29"/>
       <c r="G549" s="29"/>
       <c r="H549" s="29"/>
-      <c r="I549" s="29"/>
-    </row>
-    <row r="550" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F550" s="29"/>
       <c r="G550" s="29"/>
       <c r="H550" s="29"/>
-      <c r="I550" s="29"/>
-    </row>
-    <row r="551" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="551" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F551" s="29"/>
       <c r="G551" s="29"/>
       <c r="H551" s="29"/>
-      <c r="I551" s="29"/>
-    </row>
-    <row r="552" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F552" s="29"/>
       <c r="G552" s="29"/>
       <c r="H552" s="29"/>
-      <c r="I552" s="29"/>
-    </row>
-    <row r="553" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="553" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F553" s="29"/>
       <c r="G553" s="29"/>
       <c r="H553" s="29"/>
-      <c r="I553" s="29"/>
-    </row>
-    <row r="554" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F554" s="29"/>
       <c r="G554" s="29"/>
       <c r="H554" s="29"/>
-      <c r="I554" s="29"/>
-    </row>
-    <row r="555" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="555" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F555" s="29"/>
       <c r="G555" s="29"/>
       <c r="H555" s="29"/>
-      <c r="I555" s="29"/>
-    </row>
-    <row r="556" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F556" s="29"/>
       <c r="G556" s="29"/>
       <c r="H556" s="29"/>
-      <c r="I556" s="29"/>
-    </row>
-    <row r="557" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="557" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F557" s="29"/>
       <c r="G557" s="29"/>
       <c r="H557" s="29"/>
-      <c r="I557" s="29"/>
-    </row>
-    <row r="558" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F558" s="29"/>
       <c r="G558" s="29"/>
       <c r="H558" s="29"/>
-      <c r="I558" s="29"/>
-    </row>
-    <row r="559" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="559" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F559" s="29"/>
       <c r="G559" s="29"/>
       <c r="H559" s="29"/>
-      <c r="I559" s="29"/>
-    </row>
-    <row r="560" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F560" s="29"/>
       <c r="G560" s="29"/>
       <c r="H560" s="29"/>
-      <c r="I560" s="29"/>
-    </row>
-    <row r="561" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="561" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F561" s="29"/>
       <c r="G561" s="29"/>
       <c r="H561" s="29"/>
-      <c r="I561" s="29"/>
-    </row>
-    <row r="562" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F562" s="29"/>
       <c r="G562" s="29"/>
       <c r="H562" s="29"/>
-      <c r="I562" s="29"/>
-    </row>
-    <row r="563" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="563" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F563" s="29"/>
       <c r="G563" s="29"/>
       <c r="H563" s="29"/>
-      <c r="I563" s="29"/>
-    </row>
-    <row r="564" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F564" s="29"/>
       <c r="G564" s="29"/>
       <c r="H564" s="29"/>
-      <c r="I564" s="29"/>
-    </row>
-    <row r="565" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="565" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F565" s="29"/>
       <c r="G565" s="29"/>
       <c r="H565" s="29"/>
-      <c r="I565" s="29"/>
-    </row>
-    <row r="566" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F566" s="29"/>
       <c r="G566" s="29"/>
       <c r="H566" s="29"/>
-      <c r="I566" s="29"/>
-    </row>
-    <row r="567" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="567" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F567" s="29"/>
       <c r="G567" s="29"/>
       <c r="H567" s="29"/>
-      <c r="I567" s="29"/>
-    </row>
-    <row r="568" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F568" s="29"/>
       <c r="G568" s="29"/>
       <c r="H568" s="29"/>
-      <c r="I568" s="29"/>
-    </row>
-    <row r="569" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F569" s="29"/>
       <c r="G569" s="29"/>
       <c r="H569" s="29"/>
-      <c r="I569" s="29"/>
-    </row>
-    <row r="570" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F570" s="29"/>
       <c r="G570" s="29"/>
       <c r="H570" s="29"/>
-      <c r="I570" s="29"/>
-    </row>
-    <row r="571" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="571" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F571" s="29"/>
       <c r="G571" s="29"/>
       <c r="H571" s="29"/>
-      <c r="I571" s="29"/>
-    </row>
-    <row r="572" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F572" s="29"/>
       <c r="G572" s="29"/>
       <c r="H572" s="29"/>
-      <c r="I572" s="29"/>
-    </row>
-    <row r="573" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="573" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F573" s="29"/>
       <c r="G573" s="29"/>
       <c r="H573" s="29"/>
-      <c r="I573" s="29"/>
-    </row>
-    <row r="574" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F574" s="29"/>
       <c r="G574" s="29"/>
       <c r="H574" s="29"/>
-      <c r="I574" s="29"/>
-    </row>
-    <row r="575" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="575" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F575" s="29"/>
       <c r="G575" s="29"/>
       <c r="H575" s="29"/>
-      <c r="I575" s="29"/>
-    </row>
-    <row r="576" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F576" s="29"/>
       <c r="G576" s="29"/>
       <c r="H576" s="29"/>
-      <c r="I576" s="29"/>
-    </row>
-    <row r="577" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="577" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F577" s="29"/>
       <c r="G577" s="29"/>
       <c r="H577" s="29"/>
-      <c r="I577" s="29"/>
-    </row>
-    <row r="578" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F578" s="29"/>
       <c r="G578" s="29"/>
       <c r="H578" s="29"/>
-      <c r="I578" s="29"/>
-    </row>
-    <row r="579" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F579" s="29"/>
       <c r="G579" s="29"/>
       <c r="H579" s="29"/>
-      <c r="I579" s="29"/>
-    </row>
-    <row r="580" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F580" s="29"/>
       <c r="G580" s="29"/>
       <c r="H580" s="29"/>
-      <c r="I580" s="29"/>
-    </row>
-    <row r="581" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="581" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F581" s="29"/>
       <c r="G581" s="29"/>
       <c r="H581" s="29"/>
-      <c r="I581" s="29"/>
-    </row>
-    <row r="582" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F582" s="29"/>
       <c r="G582" s="29"/>
       <c r="H582" s="29"/>
-      <c r="I582" s="29"/>
-    </row>
-    <row r="583" spans="7:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="583" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F583" s="29"/>
       <c r="G583" s="29"/>
       <c r="H583" s="29"/>
-      <c r="I583" s="29"/>
-    </row>
-    <row r="1048565" spans="11:210" x14ac:dyDescent="0.25">
-      <c r="K1048565" s="36"/>
+    </row>
+    <row r="1048565" spans="10:209" x14ac:dyDescent="0.25">
+      <c r="J1048565" s="36"/>
+      <c r="K1048565" s="34"/>
       <c r="L1048565" s="34"/>
       <c r="M1048565" s="34"/>
       <c r="N1048565" s="34"/>
@@ -6209,29 +6138,28 @@
       <c r="GX1048565" s="34"/>
       <c r="GY1048565" s="34"/>
       <c r="GZ1048565" s="34"/>
-      <c r="HA1048565" s="34"/>
-      <c r="HB1048565" s="35"/>
+      <c r="HA1048565" s="35"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="K3:HB3"/>
+    <mergeCell ref="J3:HA3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K8:HB1048576 B9:I1048576">
+  <conditionalFormatting sqref="J8:HA1048576 B9:H1048576">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>B8=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7 D8:F8 H8:I8" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I7 C8:E8 G8:H8" xr:uid="{4028DFA7-3B9E-4D78-9BE4-B9C30D52F4E5}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
-    <hyperlink ref="J5" r:id="rId2" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
-    <hyperlink ref="J6" r:id="rId3" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
-    <hyperlink ref="J7" r:id="rId4" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
+    <hyperlink ref="I4" r:id="rId1" location="species" xr:uid="{0BBE03AC-0AAA-41DA-99E5-9DD325DC155B}"/>
+    <hyperlink ref="I5" r:id="rId2" location="fishProcessingTypes" xr:uid="{84A66CBB-F52C-4121-A1B4-0405FD963DFB}"/>
+    <hyperlink ref="I6" r:id="rId3" location="PRODUCTTYPES" xr:uid="{270A10DA-4083-472C-BAA5-DE2617B7FAF0}"/>
+    <hyperlink ref="I7" r:id="rId4" location="fishPreservationMethods" xr:uid="{13238CAF-E407-4C5F-B79F-5878074D2996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/form_reporting_templates/Form-7PR.xlsx
+++ b/form_reporting_templates/Form-7PR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2CB059-E3DE-42FD-A551-29C7CCF9AD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC516DB-181C-4750-8B5A-888EDDAE99FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Z3raniWjLRXszYCbzXa/TU1R8wd1kHrHNccmNn7mHkAZRDJmvrP7BMraCIbrDBSr6tBMzuhQ6TxYUg6cyC/1Bg==" workbookSaltValue="C01nC0I7gdRYfsDcA3RybQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>Focal point</t>
-  </si>
   <si>
     <t>Name</t>
   </si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>Liaison officer</t>
   </si>
 </sst>
 </file>
@@ -706,6 +706,9 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -747,9 +750,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,7 +1076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1092,39 +1092,39 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
-        <v>19</v>
+      <c r="B2" s="69" t="s">
+        <v>18</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1140,7 +1140,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1159,26 +1159,26 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="67" t="s">
-        <v>0</v>
+      <c r="C8" s="68" t="s">
+        <v>31</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="67" t="s">
-        <v>13</v>
+      <c r="F8" s="68" t="s">
+        <v>12</v>
       </c>
-      <c r="G8" s="67"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="10"/>
       <c r="F9" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="11"/>
@@ -1186,12 +1186,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="11"/>
@@ -1208,7 +1208,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="10"/>
@@ -1219,7 +1219,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="10"/>
@@ -1248,7 +1248,7 @@
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -1268,7 +1268,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="10"/>
@@ -1279,7 +1279,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="10"/>
@@ -1290,7 +1290,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="10"/>
@@ -1319,7 +1319,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="10"/>
@@ -1338,11 +1338,11 @@
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="66"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1359,7 +1359,7 @@
       <c r="D27" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Z9pucA6KRs3AA+/9HAeqFEMWGU/dU345qrETg0tizx+cAbJHCMutqw4klKJJG/M+z+Mu+PKk292eprFyGY6p/g==" saltValue="W0HahG3O538sp7LCdLOFOA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Jj5uhttqFMIXuGKzN1r2EIC7PZC7XVxG6g8lCU0BNx5+X7ZqLdO+6lLRiUVA7kHyWbB+IQfE+iAe52tssvGHeQ==" saltValue="h1AB3D/QBKQrbXi/hih+cg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1384,11 +1384,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:HA1048565"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="9" ySplit="7" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
     <row r="1" spans="1:209" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:209" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -1630,212 +1630,212 @@
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="74" t="s">
-        <v>30</v>
+      <c r="J3" s="75" t="s">
+        <v>29</v>
       </c>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="75"/>
-      <c r="BF3" s="75"/>
-      <c r="BG3" s="75"/>
-      <c r="BH3" s="75"/>
-      <c r="BI3" s="75"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
-      <c r="BR3" s="75"/>
-      <c r="BS3" s="75"/>
-      <c r="BT3" s="75"/>
-      <c r="BU3" s="75"/>
-      <c r="BV3" s="75"/>
-      <c r="BW3" s="75"/>
-      <c r="BX3" s="75"/>
-      <c r="BY3" s="75"/>
-      <c r="BZ3" s="75"/>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="75"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
-      <c r="CG3" s="75"/>
-      <c r="CH3" s="75"/>
-      <c r="CI3" s="75"/>
-      <c r="CJ3" s="75"/>
-      <c r="CK3" s="75"/>
-      <c r="CL3" s="75"/>
-      <c r="CM3" s="75"/>
-      <c r="CN3" s="75"/>
-      <c r="CO3" s="75"/>
-      <c r="CP3" s="75"/>
-      <c r="CQ3" s="75"/>
-      <c r="CR3" s="75"/>
-      <c r="CS3" s="75"/>
-      <c r="CT3" s="75"/>
-      <c r="CU3" s="75"/>
-      <c r="CV3" s="75"/>
-      <c r="CW3" s="75"/>
-      <c r="CX3" s="75"/>
-      <c r="CY3" s="75"/>
-      <c r="CZ3" s="75"/>
-      <c r="DA3" s="75"/>
-      <c r="DB3" s="75"/>
-      <c r="DC3" s="75"/>
-      <c r="DD3" s="75"/>
-      <c r="DE3" s="75"/>
-      <c r="DF3" s="75"/>
-      <c r="DG3" s="75"/>
-      <c r="DH3" s="75"/>
-      <c r="DI3" s="75"/>
-      <c r="DJ3" s="75"/>
-      <c r="DK3" s="75"/>
-      <c r="DL3" s="75"/>
-      <c r="DM3" s="75"/>
-      <c r="DN3" s="75"/>
-      <c r="DO3" s="75"/>
-      <c r="DP3" s="75"/>
-      <c r="DQ3" s="75"/>
-      <c r="DR3" s="75"/>
-      <c r="DS3" s="75"/>
-      <c r="DT3" s="75"/>
-      <c r="DU3" s="75"/>
-      <c r="DV3" s="75"/>
-      <c r="DW3" s="75"/>
-      <c r="DX3" s="75"/>
-      <c r="DY3" s="75"/>
-      <c r="DZ3" s="75"/>
-      <c r="EA3" s="75"/>
-      <c r="EB3" s="75"/>
-      <c r="EC3" s="75"/>
-      <c r="ED3" s="75"/>
-      <c r="EE3" s="75"/>
-      <c r="EF3" s="75"/>
-      <c r="EG3" s="75"/>
-      <c r="EH3" s="75"/>
-      <c r="EI3" s="75"/>
-      <c r="EJ3" s="75"/>
-      <c r="EK3" s="75"/>
-      <c r="EL3" s="75"/>
-      <c r="EM3" s="75"/>
-      <c r="EN3" s="75"/>
-      <c r="EO3" s="75"/>
-      <c r="EP3" s="75"/>
-      <c r="EQ3" s="75"/>
-      <c r="ER3" s="75"/>
-      <c r="ES3" s="75"/>
-      <c r="ET3" s="75"/>
-      <c r="EU3" s="75"/>
-      <c r="EV3" s="75"/>
-      <c r="EW3" s="75"/>
-      <c r="EX3" s="75"/>
-      <c r="EY3" s="75"/>
-      <c r="EZ3" s="75"/>
-      <c r="FA3" s="75"/>
-      <c r="FB3" s="75"/>
-      <c r="FC3" s="75"/>
-      <c r="FD3" s="75"/>
-      <c r="FE3" s="75"/>
-      <c r="FF3" s="75"/>
-      <c r="FG3" s="75"/>
-      <c r="FH3" s="75"/>
-      <c r="FI3" s="75"/>
-      <c r="FJ3" s="75"/>
-      <c r="FK3" s="75"/>
-      <c r="FL3" s="75"/>
-      <c r="FM3" s="75"/>
-      <c r="FN3" s="75"/>
-      <c r="FO3" s="75"/>
-      <c r="FP3" s="75"/>
-      <c r="FQ3" s="75"/>
-      <c r="FR3" s="75"/>
-      <c r="FS3" s="75"/>
-      <c r="FT3" s="75"/>
-      <c r="FU3" s="75"/>
-      <c r="FV3" s="75"/>
-      <c r="FW3" s="75"/>
-      <c r="FX3" s="75"/>
-      <c r="FY3" s="75"/>
-      <c r="FZ3" s="75"/>
-      <c r="GA3" s="75"/>
-      <c r="GB3" s="75"/>
-      <c r="GC3" s="75"/>
-      <c r="GD3" s="75"/>
-      <c r="GE3" s="75"/>
-      <c r="GF3" s="75"/>
-      <c r="GG3" s="75"/>
-      <c r="GH3" s="75"/>
-      <c r="GI3" s="75"/>
-      <c r="GJ3" s="75"/>
-      <c r="GK3" s="75"/>
-      <c r="GL3" s="75"/>
-      <c r="GM3" s="75"/>
-      <c r="GN3" s="75"/>
-      <c r="GO3" s="75"/>
-      <c r="GP3" s="75"/>
-      <c r="GQ3" s="75"/>
-      <c r="GR3" s="75"/>
-      <c r="GS3" s="75"/>
-      <c r="GT3" s="75"/>
-      <c r="GU3" s="75"/>
-      <c r="GV3" s="75"/>
-      <c r="GW3" s="75"/>
-      <c r="GX3" s="75"/>
-      <c r="GY3" s="75"/>
-      <c r="GZ3" s="75"/>
-      <c r="HA3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
+      <c r="BS3" s="76"/>
+      <c r="BT3" s="76"/>
+      <c r="BU3" s="76"/>
+      <c r="BV3" s="76"/>
+      <c r="BW3" s="76"/>
+      <c r="BX3" s="76"/>
+      <c r="BY3" s="76"/>
+      <c r="BZ3" s="76"/>
+      <c r="CA3" s="76"/>
+      <c r="CB3" s="76"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="76"/>
+      <c r="CF3" s="76"/>
+      <c r="CG3" s="76"/>
+      <c r="CH3" s="76"/>
+      <c r="CI3" s="76"/>
+      <c r="CJ3" s="76"/>
+      <c r="CK3" s="76"/>
+      <c r="CL3" s="76"/>
+      <c r="CM3" s="76"/>
+      <c r="CN3" s="76"/>
+      <c r="CO3" s="76"/>
+      <c r="CP3" s="76"/>
+      <c r="CQ3" s="76"/>
+      <c r="CR3" s="76"/>
+      <c r="CS3" s="76"/>
+      <c r="CT3" s="76"/>
+      <c r="CU3" s="76"/>
+      <c r="CV3" s="76"/>
+      <c r="CW3" s="76"/>
+      <c r="CX3" s="76"/>
+      <c r="CY3" s="76"/>
+      <c r="CZ3" s="76"/>
+      <c r="DA3" s="76"/>
+      <c r="DB3" s="76"/>
+      <c r="DC3" s="76"/>
+      <c r="DD3" s="76"/>
+      <c r="DE3" s="76"/>
+      <c r="DF3" s="76"/>
+      <c r="DG3" s="76"/>
+      <c r="DH3" s="76"/>
+      <c r="DI3" s="76"/>
+      <c r="DJ3" s="76"/>
+      <c r="DK3" s="76"/>
+      <c r="DL3" s="76"/>
+      <c r="DM3" s="76"/>
+      <c r="DN3" s="76"/>
+      <c r="DO3" s="76"/>
+      <c r="DP3" s="76"/>
+      <c r="DQ3" s="76"/>
+      <c r="DR3" s="76"/>
+      <c r="DS3" s="76"/>
+      <c r="DT3" s="76"/>
+      <c r="DU3" s="76"/>
+      <c r="DV3" s="76"/>
+      <c r="DW3" s="76"/>
+      <c r="DX3" s="76"/>
+      <c r="DY3" s="76"/>
+      <c r="DZ3" s="76"/>
+      <c r="EA3" s="76"/>
+      <c r="EB3" s="76"/>
+      <c r="EC3" s="76"/>
+      <c r="ED3" s="76"/>
+      <c r="EE3" s="76"/>
+      <c r="EF3" s="76"/>
+      <c r="EG3" s="76"/>
+      <c r="EH3" s="76"/>
+      <c r="EI3" s="76"/>
+      <c r="EJ3" s="76"/>
+      <c r="EK3" s="76"/>
+      <c r="EL3" s="76"/>
+      <c r="EM3" s="76"/>
+      <c r="EN3" s="76"/>
+      <c r="EO3" s="76"/>
+      <c r="EP3" s="76"/>
+      <c r="EQ3" s="76"/>
+      <c r="ER3" s="76"/>
+      <c r="ES3" s="76"/>
+      <c r="ET3" s="76"/>
+      <c r="EU3" s="76"/>
+      <c r="EV3" s="76"/>
+      <c r="EW3" s="76"/>
+      <c r="EX3" s="76"/>
+      <c r="EY3" s="76"/>
+      <c r="EZ3" s="76"/>
+      <c r="FA3" s="76"/>
+      <c r="FB3" s="76"/>
+      <c r="FC3" s="76"/>
+      <c r="FD3" s="76"/>
+      <c r="FE3" s="76"/>
+      <c r="FF3" s="76"/>
+      <c r="FG3" s="76"/>
+      <c r="FH3" s="76"/>
+      <c r="FI3" s="76"/>
+      <c r="FJ3" s="76"/>
+      <c r="FK3" s="76"/>
+      <c r="FL3" s="76"/>
+      <c r="FM3" s="76"/>
+      <c r="FN3" s="76"/>
+      <c r="FO3" s="76"/>
+      <c r="FP3" s="76"/>
+      <c r="FQ3" s="76"/>
+      <c r="FR3" s="76"/>
+      <c r="FS3" s="76"/>
+      <c r="FT3" s="76"/>
+      <c r="FU3" s="76"/>
+      <c r="FV3" s="76"/>
+      <c r="FW3" s="76"/>
+      <c r="FX3" s="76"/>
+      <c r="FY3" s="76"/>
+      <c r="FZ3" s="76"/>
+      <c r="GA3" s="76"/>
+      <c r="GB3" s="76"/>
+      <c r="GC3" s="76"/>
+      <c r="GD3" s="76"/>
+      <c r="GE3" s="76"/>
+      <c r="GF3" s="76"/>
+      <c r="GG3" s="76"/>
+      <c r="GH3" s="76"/>
+      <c r="GI3" s="76"/>
+      <c r="GJ3" s="76"/>
+      <c r="GK3" s="76"/>
+      <c r="GL3" s="76"/>
+      <c r="GM3" s="76"/>
+      <c r="GN3" s="76"/>
+      <c r="GO3" s="76"/>
+      <c r="GP3" s="76"/>
+      <c r="GQ3" s="76"/>
+      <c r="GR3" s="76"/>
+      <c r="GS3" s="76"/>
+      <c r="GT3" s="76"/>
+      <c r="GU3" s="76"/>
+      <c r="GV3" s="76"/>
+      <c r="GW3" s="76"/>
+      <c r="GX3" s="76"/>
+      <c r="GY3" s="76"/>
+      <c r="GZ3" s="76"/>
+      <c r="HA3" s="77"/>
     </row>
     <row r="4" spans="1:209" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1844,7 +1844,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="60"/>
       <c r="I4" s="38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="25"/>
       <c r="K4" s="26"/>
@@ -2056,7 +2056,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="61"/>
       <c r="I5" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="26"/>
@@ -2268,7 +2268,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="61"/>
       <c r="I6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="25"/>
       <c r="K6" s="26"/>
@@ -2480,7 +2480,7 @@
       <c r="G7" s="59"/>
       <c r="H7" s="62"/>
       <c r="I7" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="26"/>
@@ -2685,25 +2685,25 @@
     </row>
     <row r="8" spans="1:209" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="E8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>23</v>
+      <c r="F8" s="55" t="s">
+        <v>26</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="G8" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="H8" s="64" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>29</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="41"/>
